--- a/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E101CABB-49BC-4B76-90CB-8011A65D8F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58A59E-4C7E-498D-8658-289027446780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
   </bookViews>
@@ -38,6 +38,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3598,14 +3620,14 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3614,15 +3636,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3648,6 +3661,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4576,13 +4598,40 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{6210A730-4059-4458-A640-FDD7BC00E0C9}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A445F691-0E69-4E11-B77F-63FBE738CB76}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E59"/>
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168:E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -4601,20 +4650,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="59.25" customHeight="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="187"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="181"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1"/>
     <row r="4" spans="2:16" ht="33" customHeight="1">
@@ -4657,52 +4706,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
     </row>
     <row r="9" spans="2:16" ht="162" customHeight="1">
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
     </row>
     <row r="10" spans="2:16" ht="245.4" customHeight="1">
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="188" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -4782,15 +4831,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="192" t="s">
+      <c r="G16" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="194"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="191"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -4804,15 +4853,15 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="195" t="s">
+      <c r="G17" s="192" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -4892,15 +4941,15 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="179" t="s">
+      <c r="G21" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="181"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="195"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
@@ -7675,7 +7724,13 @@
       <c r="L166" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M166" s="170"/>
+      <c r="M166" s="170" cm="1">
+        <f t="array" ref="M166">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H166:L166),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G166)))</f>
+        <v>3</v>
+      </c>
       <c r="N166" s="170"/>
       <c r="O166" s="170"/>
       <c r="P166" s="170"/>
@@ -7689,7 +7744,13 @@
       <c r="J167" s="45"/>
       <c r="K167" s="45"/>
       <c r="L167" s="45"/>
-      <c r="M167" s="45"/>
+      <c r="M167" s="170" t="e" cm="1">
+        <f t="array" ref="M167">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H167:L167),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G167)))</f>
+        <v>#N/A</v>
+      </c>
       <c r="N167" s="45"/>
       <c r="O167" s="45"/>
       <c r="P167" s="45"/>
@@ -7704,7 +7765,9 @@
       <c r="D168" s="48">
         <v>5</v>
       </c>
-      <c r="E168" s="19"/>
+      <c r="E168" s="19">
+        <v>4</v>
+      </c>
       <c r="F168" s="20"/>
       <c r="G168" s="40" t="s">
         <v>30</v>
@@ -7724,7 +7787,13 @@
       <c r="L168" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="M168" s="170"/>
+      <c r="M168" s="170" cm="1">
+        <f t="array" ref="M168">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H168:L168),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G168)))</f>
+        <v>4</v>
+      </c>
       <c r="N168" s="170"/>
       <c r="O168" s="170"/>
       <c r="P168" s="170"/>
@@ -7739,7 +7808,9 @@
       <c r="D169" s="48">
         <v>5</v>
       </c>
-      <c r="E169" s="19"/>
+      <c r="E169" s="19">
+        <v>3</v>
+      </c>
       <c r="F169" s="20"/>
       <c r="G169" s="40" t="s">
         <v>29</v>
@@ -7759,7 +7830,13 @@
       <c r="L169" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="M169" s="170"/>
+      <c r="M169" s="170" cm="1">
+        <f t="array" ref="M169">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H169:L169),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G169)))</f>
+        <v>3</v>
+      </c>
       <c r="N169" s="170"/>
       <c r="O169" s="170"/>
       <c r="P169" s="170"/>
@@ -7774,7 +7851,9 @@
       <c r="D170" s="48">
         <v>5</v>
       </c>
-      <c r="E170" s="19"/>
+      <c r="E170" s="19">
+        <v>3</v>
+      </c>
       <c r="F170" s="20"/>
       <c r="G170" s="40" t="s">
         <v>32</v>
@@ -7794,7 +7873,13 @@
       <c r="L170" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="M170" s="170"/>
+      <c r="M170" s="170" cm="1">
+        <f t="array" ref="M170">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H170:L170),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G170)))</f>
+        <v>3</v>
+      </c>
       <c r="N170" s="170"/>
       <c r="O170" s="170"/>
       <c r="P170" s="170"/>
@@ -7809,7 +7894,9 @@
       <c r="D171" s="48">
         <v>5</v>
       </c>
-      <c r="E171" s="19"/>
+      <c r="E171" s="19">
+        <v>2</v>
+      </c>
       <c r="F171" s="20"/>
       <c r="G171" s="40" t="s">
         <v>32</v>
@@ -7829,7 +7916,13 @@
       <c r="L171" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M171" s="170"/>
+      <c r="M171" s="170" cm="1">
+        <f t="array" ref="M171">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H171:L171),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G171)))</f>
+        <v>2</v>
+      </c>
       <c r="N171" s="170"/>
       <c r="O171" s="170"/>
       <c r="P171" s="170"/>
@@ -7844,7 +7937,9 @@
       <c r="D172" s="48">
         <v>5</v>
       </c>
-      <c r="E172" s="19"/>
+      <c r="E172" s="19">
+        <v>4</v>
+      </c>
       <c r="F172" s="20"/>
       <c r="G172" s="40" t="s">
         <v>26</v>
@@ -7864,7 +7959,13 @@
       <c r="L172" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="M172" s="170"/>
+      <c r="M172" s="170" cm="1">
+        <f t="array" ref="M172">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H172:L172),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G172)))</f>
+        <v>4</v>
+      </c>
       <c r="N172" s="170"/>
       <c r="O172" s="170"/>
       <c r="P172" s="170"/>
@@ -7879,7 +7980,9 @@
       <c r="D173" s="48">
         <v>5</v>
       </c>
-      <c r="E173" s="19"/>
+      <c r="E173" s="19">
+        <v>2</v>
+      </c>
       <c r="F173" s="20"/>
       <c r="G173" s="40" t="s">
         <v>31</v>
@@ -7899,7 +8002,13 @@
       <c r="L173" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="M173" s="170"/>
+      <c r="M173" s="170" cm="1">
+        <f t="array" ref="M173">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H173:L173),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G173)))</f>
+        <v>2</v>
+      </c>
       <c r="N173" s="170"/>
       <c r="O173" s="170"/>
       <c r="P173" s="170"/>
@@ -7914,7 +8023,9 @@
       <c r="D174" s="48">
         <v>5</v>
       </c>
-      <c r="E174" s="19"/>
+      <c r="E174" s="19">
+        <v>4</v>
+      </c>
       <c r="F174" s="20"/>
       <c r="G174" s="40" t="s">
         <v>34</v>
@@ -7934,7 +8045,13 @@
       <c r="L174" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M174" s="170"/>
+      <c r="M174" s="170" cm="1">
+        <f t="array" ref="M174">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H174:L174),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G174)))</f>
+        <v>4</v>
+      </c>
       <c r="N174" s="170"/>
       <c r="O174" s="170"/>
       <c r="P174" s="170"/>
@@ -7949,7 +8066,9 @@
       <c r="D175" s="48">
         <v>5</v>
       </c>
-      <c r="E175" s="19"/>
+      <c r="E175" s="19">
+        <v>4</v>
+      </c>
       <c r="F175" s="20"/>
       <c r="G175" s="40" t="s">
         <v>26</v>
@@ -7969,7 +8088,13 @@
       <c r="L175" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="M175" s="170"/>
+      <c r="M175" s="170" cm="1">
+        <f t="array" ref="M175">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H175:L175),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G175)))</f>
+        <v>4</v>
+      </c>
       <c r="N175" s="170"/>
       <c r="O175" s="170"/>
       <c r="P175" s="170"/>
@@ -7984,7 +8109,9 @@
       <c r="D176" s="48">
         <v>5</v>
       </c>
-      <c r="E176" s="19"/>
+      <c r="E176" s="19">
+        <v>4</v>
+      </c>
       <c r="F176" s="20"/>
       <c r="G176" s="40" t="s">
         <v>27</v>
@@ -8004,7 +8131,13 @@
       <c r="L176" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M176" s="170"/>
+      <c r="M176" s="170" cm="1">
+        <f t="array" ref="M176">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H176:L176),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G176)))</f>
+        <v>4</v>
+      </c>
       <c r="N176" s="170"/>
       <c r="O176" s="170"/>
       <c r="P176" s="170"/>
@@ -8019,7 +8152,9 @@
       <c r="D177" s="48">
         <v>5</v>
       </c>
-      <c r="E177" s="19"/>
+      <c r="E177" s="19">
+        <v>4</v>
+      </c>
       <c r="F177" s="20"/>
       <c r="G177" s="40" t="s">
         <v>25</v>
@@ -8039,7 +8174,13 @@
       <c r="L177" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="M177" s="170"/>
+      <c r="M177" s="170" cm="1">
+        <f t="array" ref="M177">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H177:L177),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G177)))</f>
+        <v>4</v>
+      </c>
       <c r="N177" s="170"/>
       <c r="O177" s="170"/>
       <c r="P177" s="170"/>
@@ -8054,7 +8195,9 @@
       <c r="D178" s="48">
         <v>5</v>
       </c>
-      <c r="E178" s="19"/>
+      <c r="E178" s="19">
+        <v>1</v>
+      </c>
       <c r="F178" s="20"/>
       <c r="G178" s="40" t="s">
         <v>29</v>
@@ -8074,7 +8217,13 @@
       <c r="L178" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="M178" s="170"/>
+      <c r="M178" s="170" cm="1">
+        <f t="array" ref="M178">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H178:L178),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G178)))</f>
+        <v>1</v>
+      </c>
       <c r="N178" s="170"/>
       <c r="O178" s="170"/>
       <c r="P178" s="170"/>
@@ -8089,7 +8238,9 @@
       <c r="D179" s="48">
         <v>5</v>
       </c>
-      <c r="E179" s="19"/>
+      <c r="E179" s="19">
+        <v>3</v>
+      </c>
       <c r="F179" s="20"/>
       <c r="G179" s="40" t="s">
         <v>31</v>
@@ -8109,7 +8260,13 @@
       <c r="L179" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="M179" s="170"/>
+      <c r="M179" s="170" cm="1">
+        <f t="array" ref="M179">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H179:L179),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G179)))</f>
+        <v>3</v>
+      </c>
       <c r="N179" s="170"/>
       <c r="O179" s="170"/>
       <c r="P179" s="170"/>
@@ -8124,7 +8281,9 @@
       <c r="D180" s="48">
         <v>5</v>
       </c>
-      <c r="E180" s="19"/>
+      <c r="E180" s="19">
+        <v>4</v>
+      </c>
       <c r="F180" s="20"/>
       <c r="G180" s="40" t="s">
         <v>35</v>
@@ -8144,7 +8303,13 @@
       <c r="L180" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="M180" s="170"/>
+      <c r="M180" s="170" cm="1">
+        <f t="array" ref="M180">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H180:L180),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G180)))</f>
+        <v>4</v>
+      </c>
       <c r="N180" s="170"/>
       <c r="O180" s="170"/>
       <c r="P180" s="170"/>
@@ -8159,7 +8324,9 @@
       <c r="D181" s="48">
         <v>5</v>
       </c>
-      <c r="E181" s="19"/>
+      <c r="E181" s="19">
+        <v>4</v>
+      </c>
       <c r="F181" s="20"/>
       <c r="G181" s="40" t="s">
         <v>25</v>
@@ -8179,7 +8346,13 @@
       <c r="L181" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="M181" s="170"/>
+      <c r="M181" s="170" cm="1">
+        <f t="array" ref="M181">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H181:L181),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G181)))</f>
+        <v>4</v>
+      </c>
       <c r="N181" s="170"/>
       <c r="O181" s="170"/>
       <c r="P181" s="170"/>
@@ -8194,7 +8367,9 @@
       <c r="D182" s="48">
         <v>5</v>
       </c>
-      <c r="E182" s="19"/>
+      <c r="E182" s="19">
+        <v>4</v>
+      </c>
       <c r="F182" s="20"/>
       <c r="G182" s="40" t="s">
         <v>35</v>
@@ -8214,7 +8389,13 @@
       <c r="L182" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="M182" s="170"/>
+      <c r="M182" s="170" cm="1">
+        <f t="array" ref="M182">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H182:L182),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G182)))</f>
+        <v>4</v>
+      </c>
       <c r="N182" s="170"/>
       <c r="O182" s="170"/>
       <c r="P182" s="170"/>
@@ -8229,7 +8410,9 @@
       <c r="D183" s="48">
         <v>5</v>
       </c>
-      <c r="E183" s="19"/>
+      <c r="E183" s="19">
+        <v>4</v>
+      </c>
       <c r="F183" s="20"/>
       <c r="G183" s="40" t="s">
         <v>29</v>
@@ -8249,7 +8432,13 @@
       <c r="L183" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="M183" s="170"/>
+      <c r="M183" s="170" cm="1">
+        <f t="array" ref="M183">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H183:L183),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G183)))</f>
+        <v>4</v>
+      </c>
       <c r="N183" s="170"/>
       <c r="O183" s="170"/>
       <c r="P183" s="170"/>
@@ -8264,7 +8453,9 @@
       <c r="D184" s="48">
         <v>5</v>
       </c>
-      <c r="E184" s="19"/>
+      <c r="E184" s="19">
+        <v>3</v>
+      </c>
       <c r="F184" s="20"/>
       <c r="G184" s="40" t="s">
         <v>35</v>
@@ -8284,7 +8475,13 @@
       <c r="L184" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="M184" s="170"/>
+      <c r="M184" s="170" cm="1">
+        <f t="array" ref="M184">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H184:L184),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G184)))</f>
+        <v>3</v>
+      </c>
       <c r="N184" s="170"/>
       <c r="O184" s="170"/>
       <c r="P184" s="170"/>
@@ -8299,7 +8496,9 @@
       <c r="D185" s="48">
         <v>5</v>
       </c>
-      <c r="E185" s="19"/>
+      <c r="E185" s="19">
+        <v>3</v>
+      </c>
       <c r="F185" s="20"/>
       <c r="G185" s="40" t="s">
         <v>34</v>
@@ -8319,7 +8518,13 @@
       <c r="L185" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="M185" s="170"/>
+      <c r="M185" s="170" cm="1">
+        <f t="array" ref="M185">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H185:L185),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G185)))</f>
+        <v>3</v>
+      </c>
       <c r="N185" s="170"/>
       <c r="O185" s="170"/>
       <c r="P185" s="170"/>
@@ -8334,7 +8539,9 @@
       <c r="D186" s="48">
         <v>5</v>
       </c>
-      <c r="E186" s="19"/>
+      <c r="E186" s="19">
+        <v>1</v>
+      </c>
       <c r="F186" s="20"/>
       <c r="G186" s="40" t="s">
         <v>30</v>
@@ -8354,7 +8561,13 @@
       <c r="L186" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="M186" s="170"/>
+      <c r="M186" s="170" cm="1">
+        <f t="array" ref="M186">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H186:L186),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G186)))</f>
+        <v>1</v>
+      </c>
       <c r="N186" s="170"/>
       <c r="O186" s="170"/>
       <c r="P186" s="170"/>
@@ -8369,7 +8582,9 @@
       <c r="D187" s="48">
         <v>5</v>
       </c>
-      <c r="E187" s="19"/>
+      <c r="E187" s="19">
+        <v>3</v>
+      </c>
       <c r="F187" s="20"/>
       <c r="G187" s="40" t="s">
         <v>35</v>
@@ -8389,7 +8604,13 @@
       <c r="L187" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="M187" s="170"/>
+      <c r="M187" s="170" cm="1">
+        <f t="array" ref="M187">_xlfn.LET(
+_xlpm.kids, TRANSPOSE(H187:L187),
+_xlpm.dlkd, _xlfn.XLOOKUP(_xlpm.kids,Children!$A$3:$A$42,Children!$B$3:$B$42),
+ROWS(_xlfn._xlws.FILTER(_xlpm.dlkd,_xlpm.dlkd&lt;&gt;G187)))</f>
+        <v>3</v>
+      </c>
       <c r="N187" s="170"/>
       <c r="O187" s="170"/>
       <c r="P187" s="170"/>
@@ -8409,7 +8630,7 @@
       <c r="D189" s="68"/>
       <c r="E189" s="19" t="str">
         <f>IF(ISERROR(E168),"",E168)&amp;";"&amp;IF(ISERROR(E169),"",E169)&amp;";"&amp;IF(ISERROR(E170),"",E170)&amp;";"&amp;IF(ISERROR(E171),"",E171)&amp;";"&amp;IF(ISERROR(E172),"",E172)&amp;";"&amp;IF(ISERROR(E173),"",E173)&amp;";"&amp;IF(ISERROR(E174),"",E174)&amp;";"&amp;IF(ISERROR(E175),"",E175)&amp;";"&amp;IF(ISERROR(E176),"",E176)&amp;";"&amp;IF(ISERROR(E177),"",E177)&amp;";"&amp;IF(ISERROR(E178),"",E178)&amp;";"&amp;IF(ISERROR(E179),"",E179)&amp;";"&amp;IF(ISERROR(E180),"",E180)&amp;";"&amp;IF(ISERROR(E181),"",E181)&amp;";"&amp;IF(ISERROR(E182),"",E182)&amp;";"&amp;IF(ISERROR(E183),"",E183)&amp;";"&amp;IF(ISERROR(E184),"",E184)&amp;";"&amp;IF(ISERROR(E185),"",E185)&amp;";"&amp;IF(ISERROR(E186),"",E186)&amp;";"&amp;IF(ISERROR(E187),"",E187)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>4;3;3;2;4;2;4;4;4;4;1;3;4;4;4;4;3;3;1;3</v>
       </c>
       <c r="F189" s="20"/>
       <c r="G189" s="1"/>
@@ -11131,6 +11352,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -11143,11 +11369,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15413,7 +15634,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -19999,8 +20220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB505C8-B5A5-43E7-BDB1-CEB8314A9C64}">
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -20019,20 +20240,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="59.25" customHeight="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="187"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="181"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1"/>
     <row r="4" spans="2:16" ht="33" customHeight="1">
@@ -20075,52 +20296,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
     </row>
     <row r="9" spans="2:16" ht="162" customHeight="1">
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
     </row>
     <row r="10" spans="2:16" ht="245.4" customHeight="1">
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="188" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -20200,15 +20421,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="192" t="s">
+      <c r="G16" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="194"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="191"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -20227,15 +20448,15 @@
         <f>IF(ISBLANK(Case!E17),0,IF(E17=Case!E17,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="195" t="s">
+      <c r="G17" s="192" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -20335,15 +20556,15 @@
         <f>IF(ISBLANK(Case!E21),0,IF(E21=Case!E21,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="179" t="s">
+      <c r="G21" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="181"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="195"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
@@ -20400,7 +20621,7 @@
       <c r="F26" s="20"/>
       <c r="L26" s="198">
         <f>SUMPRODUCT(--(F:F=1),D:D)</f>
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="M26" s="199"/>
     </row>
@@ -23371,7 +23592,7 @@
       </c>
       <c r="F168" s="20">
         <f>IF(ISBLANK(Case!E168),0,IF(E168=Case!E168,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" s="40" t="s">
         <v>30</v>
@@ -23411,7 +23632,7 @@
       </c>
       <c r="F169" s="20">
         <f>IF(ISBLANK(Case!E169),0,IF(E169=Case!E169,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" s="40" t="s">
         <v>29</v>
@@ -23451,7 +23672,7 @@
       </c>
       <c r="F170" s="20">
         <f>IF(ISBLANK(Case!E170),0,IF(E170=Case!E170,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="40" t="s">
         <v>32</v>
@@ -23491,7 +23712,7 @@
       </c>
       <c r="F171" s="20">
         <f>IF(ISBLANK(Case!E171),0,IF(E171=Case!E171,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" s="40" t="s">
         <v>32</v>
@@ -23531,7 +23752,7 @@
       </c>
       <c r="F172" s="20">
         <f>IF(ISBLANK(Case!E172),0,IF(E172=Case!E172,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" s="40" t="s">
         <v>26</v>
@@ -23571,7 +23792,7 @@
       </c>
       <c r="F173" s="20">
         <f>IF(ISBLANK(Case!E173),0,IF(E173=Case!E173,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" s="40" t="s">
         <v>31</v>
@@ -23611,7 +23832,7 @@
       </c>
       <c r="F174" s="20">
         <f>IF(ISBLANK(Case!E174),0,IF(E174=Case!E174,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="40" t="s">
         <v>34</v>
@@ -23651,7 +23872,7 @@
       </c>
       <c r="F175" s="20">
         <f>IF(ISBLANK(Case!E175),0,IF(E175=Case!E175,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" s="40" t="s">
         <v>26</v>
@@ -23691,7 +23912,7 @@
       </c>
       <c r="F176" s="20">
         <f>IF(ISBLANK(Case!E176),0,IF(E176=Case!E176,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" s="40" t="s">
         <v>27</v>
@@ -23731,7 +23952,7 @@
       </c>
       <c r="F177" s="20">
         <f>IF(ISBLANK(Case!E177),0,IF(E177=Case!E177,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="40" t="s">
         <v>25</v>
@@ -23771,7 +23992,7 @@
       </c>
       <c r="F178" s="20">
         <f>IF(ISBLANK(Case!E178),0,IF(E178=Case!E178,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" s="40" t="s">
         <v>29</v>
@@ -23811,7 +24032,7 @@
       </c>
       <c r="F179" s="20">
         <f>IF(ISBLANK(Case!E179),0,IF(E179=Case!E179,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" s="40" t="s">
         <v>31</v>
@@ -23851,7 +24072,7 @@
       </c>
       <c r="F180" s="20">
         <f>IF(ISBLANK(Case!E180),0,IF(E180=Case!E180,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" s="40" t="s">
         <v>35</v>
@@ -23891,7 +24112,7 @@
       </c>
       <c r="F181" s="20">
         <f>IF(ISBLANK(Case!E181),0,IF(E181=Case!E181,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="40" t="s">
         <v>25</v>
@@ -23931,7 +24152,7 @@
       </c>
       <c r="F182" s="20">
         <f>IF(ISBLANK(Case!E182),0,IF(E182=Case!E182,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="40" t="s">
         <v>35</v>
@@ -23971,7 +24192,7 @@
       </c>
       <c r="F183" s="20">
         <f>IF(ISBLANK(Case!E183),0,IF(E183=Case!E183,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="40" t="s">
         <v>29</v>
@@ -24011,7 +24232,7 @@
       </c>
       <c r="F184" s="20">
         <f>IF(ISBLANK(Case!E184),0,IF(E184=Case!E184,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="40" t="s">
         <v>35</v>
@@ -24051,7 +24272,7 @@
       </c>
       <c r="F185" s="20">
         <f>IF(ISBLANK(Case!E185),0,IF(E185=Case!E185,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" s="40" t="s">
         <v>34</v>
@@ -24091,7 +24312,7 @@
       </c>
       <c r="F186" s="20">
         <f>IF(ISBLANK(Case!E186),0,IF(E186=Case!E186,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" s="40" t="s">
         <v>30</v>
@@ -24131,7 +24352,7 @@
       </c>
       <c r="F187" s="20">
         <f>IF(ISBLANK(Case!E187),0,IF(E187=Case!E187,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" s="40" t="s">
         <v>35</v>
@@ -27202,13 +27423,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -27221,6 +27435,13 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992483A5-20C8-471D-A8F5-31825CCA40F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543C51B-B291-46A1-BBA2-2C2AE2D6ED23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="746">
   <si>
     <t>Juan José Cifuentes</t>
   </si>
@@ -3638,6 +3638,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3716,7 +3717,6 @@
     <xf numFmtId="3" fontId="63" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3965,8 +3965,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>11487</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1124670</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>18488</xdr:rowOff>
     </xdr:to>
@@ -4655,8 +4655,8 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:BJ327"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView topLeftCell="A203" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E209" sqref="E209:E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -4668,46 +4668,52 @@
     <col min="5" max="5" width="23.19921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.3984375" style="1" customWidth="1"/>
     <col min="7" max="10" width="16.69921875" style="1" customWidth="1"/>
-    <col min="11" max="50" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.69921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="50" width="6.69921875" style="1" customWidth="1"/>
     <col min="51" max="51" width="64.3984375" style="1" customWidth="1"/>
     <col min="52" max="16384" width="15.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="15" customHeight="1"/>
     <row r="2" spans="2:51" ht="59.25" customHeight="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="188"/>
     </row>
     <row r="3" spans="2:51" ht="15" customHeight="1"/>
     <row r="4" spans="2:51" ht="33" customHeight="1">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="185"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="182" t="s">
+      <c r="L4" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="184"/>
+      <c r="M4" s="185"/>
     </row>
     <row r="5" spans="2:51" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -4755,10 +4761,10 @@
       <c r="AY5"/>
     </row>
     <row r="6" spans="2:51" ht="33" customHeight="1">
-      <c r="L6" s="182" t="s">
+      <c r="L6" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="184"/>
+      <c r="M6" s="185"/>
     </row>
     <row r="7" spans="2:51" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -4766,52 +4772,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:51" ht="21.75" customHeight="1">
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="190"/>
     </row>
     <row r="9" spans="2:51" ht="162" customHeight="1">
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
     </row>
     <row r="10" spans="2:51" ht="245.4" customHeight="1">
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="192" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
     </row>
     <row r="11" spans="2:51" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -4828,20 +4834,20 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:51" ht="21.75" customHeight="1">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="185"/>
     </row>
     <row r="13" spans="2:51" ht="15" customHeight="1">
       <c r="B13" s="8"/>
@@ -4891,15 +4897,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="192" t="s">
+      <c r="G16" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="195"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -4913,15 +4919,15 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="195" t="s">
+      <c r="G17" s="196" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="196"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -4935,15 +4941,15 @@
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="178" t="s">
+      <c r="G18" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="16" t="s">
@@ -4957,15 +4963,15 @@
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="178" t="s">
+      <c r="G19" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="178"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="16" t="s">
@@ -4979,15 +4985,15 @@
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="178" t="s">
+      <c r="G20" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="179"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="16" t="s">
@@ -5001,34 +5007,34 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="179" t="s">
+      <c r="G21" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="182"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="185"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="24"/>
@@ -7172,10 +7178,10 @@
       <c r="H83" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="I83" s="204" t="s">
+      <c r="I83" s="178" t="s">
         <v>745</v>
       </c>
-      <c r="J83" s="204" t="b">
+      <c r="J83" s="178" t="b">
         <f>ISNUMBER(J82+0)</f>
         <v>1</v>
       </c>
@@ -10379,20 +10385,20 @@
       <c r="K147" s="67"/>
     </row>
     <row r="148" spans="1:62" ht="23.4">
-      <c r="B148" s="182" t="s">
+      <c r="B148" s="183" t="s">
         <v>163</v>
       </c>
-      <c r="C148" s="183"/>
-      <c r="D148" s="183"/>
-      <c r="E148" s="183"/>
-      <c r="F148" s="183"/>
-      <c r="G148" s="183"/>
-      <c r="H148" s="183"/>
-      <c r="I148" s="183"/>
-      <c r="J148" s="183"/>
-      <c r="K148" s="183"/>
-      <c r="L148" s="183"/>
-      <c r="M148" s="184"/>
+      <c r="C148" s="184"/>
+      <c r="D148" s="184"/>
+      <c r="E148" s="184"/>
+      <c r="F148" s="184"/>
+      <c r="G148" s="184"/>
+      <c r="H148" s="184"/>
+      <c r="I148" s="184"/>
+      <c r="J148" s="184"/>
+      <c r="K148" s="184"/>
+      <c r="L148" s="184"/>
+      <c r="M148" s="185"/>
     </row>
     <row r="149" spans="1:62" ht="15" customHeight="1" thickBot="1">
       <c r="B149" s="24"/>
@@ -12554,6 +12560,12 @@
     </row>
     <row r="206" spans="2:51" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="F206" s="20"/>
+      <c r="K206" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="L206" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="2:51" s="11" customFormat="1" ht="23.25" customHeight="1">
       <c r="B207" s="36" t="s">
@@ -12578,8 +12590,13 @@
       <c r="I207" s="174"/>
       <c r="J207" s="175"/>
       <c r="K207" s="170"/>
-      <c r="L207" s="170"/>
-      <c r="M207" s="170"/>
+      <c r="L207" s="170" t="str" cm="1">
+        <f t="array" ref="L207:M207">INDEX(G207:H228,L206,I199)</f>
+        <v>Vicente</v>
+      </c>
+      <c r="M207" s="170" t="str">
+        <v>AD11,N31,AM3,Y24,S11,AM14,J12,AA31,U38,C15</v>
+      </c>
       <c r="N207" s="170"/>
       <c r="O207" s="170"/>
       <c r="P207" s="170"/>
@@ -12634,7 +12651,10 @@
       <c r="P208" s="45"/>
       <c r="Q208" s="45"/>
       <c r="R208" s="45"/>
-      <c r="S208" s="45"/>
+      <c r="S208" s="45">
+        <f>P209</f>
+        <v>15</v>
+      </c>
       <c r="T208" s="45"/>
       <c r="U208" s="45"/>
       <c r="V208" s="45"/>
@@ -12678,7 +12698,9 @@
       <c r="D209" s="48">
         <v>7</v>
       </c>
-      <c r="E209" s="19"/>
+      <c r="E209" s="19">
+        <v>18</v>
+      </c>
       <c r="F209" s="20"/>
       <c r="G209" s="40" t="s">
         <v>52</v>
@@ -12689,14 +12711,35 @@
       <c r="I209" s="174"/>
       <c r="J209" s="175"/>
       <c r="K209" s="170"/>
-      <c r="L209" s="170"/>
-      <c r="M209" s="170"/>
-      <c r="N209" s="170"/>
-      <c r="O209" s="170"/>
-      <c r="P209" s="170"/>
+      <c r="L209" s="170" t="str">
+        <f>_xlfn.XLOOKUP(L207,Children!A3:A42,Children!B3:B42)</f>
+        <v>MAXipan Roll</v>
+      </c>
+      <c r="M209" s="170" t="str" cm="1">
+        <f t="array" ref="M209:M218">TRIM(_xlfn.TEXTSPLIT(M207,,","))</f>
+        <v>AD11</v>
+      </c>
+      <c r="N209" s="170" t="str" cm="1">
+        <f t="array" ref="N209:N218">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(M209),Houses!$A$3:$A$373,Houses!B3:B373)</f>
+        <v>BiCOLa Pop</v>
+      </c>
+      <c r="O209" s="170" cm="1">
+        <f t="array" ref="O209:O218">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(M209),Houses!A3:A373,Houses!C3:C373)</f>
+        <v>2</v>
+      </c>
+      <c r="P209" s="170">
+        <f>SUMIFS(_xlfn.ANCHORARRAY(O209),_xlfn.ANCHORARRAY(N209),"&lt;&gt;"&amp;L209)</f>
+        <v>15</v>
+      </c>
       <c r="Q209" s="170"/>
-      <c r="R209" s="170"/>
-      <c r="S209" s="170"/>
+      <c r="R209" s="170" cm="1">
+        <f t="array" ref="R209:R228">_xlfn.SEQUENCE(20,1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="S209" s="170">
+        <f t="dataTable" ref="S209:S228" dt2D="0" dtr="0" r1="L206"/>
+        <v>18</v>
+      </c>
       <c r="T209" s="170"/>
       <c r="U209" s="170"/>
       <c r="V209" s="170"/>
@@ -12740,7 +12783,9 @@
       <c r="D210" s="48">
         <v>7</v>
       </c>
-      <c r="E210" s="19"/>
+      <c r="E210" s="19">
+        <v>20</v>
+      </c>
       <c r="F210" s="20"/>
       <c r="G210" s="40" t="s">
         <v>65</v>
@@ -12752,13 +12797,23 @@
       <c r="J210" s="175"/>
       <c r="K210" s="170"/>
       <c r="L210" s="170"/>
-      <c r="M210" s="170"/>
-      <c r="N210" s="170"/>
-      <c r="O210" s="170"/>
+      <c r="M210" s="170" t="str">
+        <v>N31</v>
+      </c>
+      <c r="N210" s="170" t="str">
+        <v>LAMBDA Bites</v>
+      </c>
+      <c r="O210" s="170">
+        <v>2</v>
+      </c>
       <c r="P210" s="170"/>
       <c r="Q210" s="170"/>
-      <c r="R210" s="170"/>
-      <c r="S210" s="170"/>
+      <c r="R210" s="170">
+        <v>4</v>
+      </c>
+      <c r="S210" s="170">
+        <v>20</v>
+      </c>
       <c r="T210" s="170"/>
       <c r="U210" s="170"/>
       <c r="V210" s="170"/>
@@ -12802,7 +12857,9 @@
       <c r="D211" s="48">
         <v>7</v>
       </c>
-      <c r="E211" s="19"/>
+      <c r="E211" s="19">
+        <v>21</v>
+      </c>
       <c r="F211" s="20"/>
       <c r="G211" s="40" t="s">
         <v>37</v>
@@ -12814,13 +12871,23 @@
       <c r="J211" s="175"/>
       <c r="K211" s="170"/>
       <c r="L211" s="170"/>
-      <c r="M211" s="170"/>
-      <c r="N211" s="170"/>
-      <c r="O211" s="170"/>
+      <c r="M211" s="170" t="str">
+        <v>AM3</v>
+      </c>
+      <c r="N211" s="170" t="str">
+        <v>#REF!udge Cube</v>
+      </c>
+      <c r="O211" s="170">
+        <v>2</v>
+      </c>
       <c r="P211" s="170"/>
       <c r="Q211" s="170"/>
-      <c r="R211" s="170"/>
-      <c r="S211" s="170"/>
+      <c r="R211" s="170">
+        <v>5</v>
+      </c>
+      <c r="S211" s="170">
+        <v>21</v>
+      </c>
       <c r="T211" s="170"/>
       <c r="U211" s="170"/>
       <c r="V211" s="170"/>
@@ -12864,7 +12931,9 @@
       <c r="D212" s="48">
         <v>7</v>
       </c>
-      <c r="E212" s="19"/>
+      <c r="E212" s="19">
+        <v>19</v>
+      </c>
       <c r="F212" s="20"/>
       <c r="G212" s="40" t="s">
         <v>49</v>
@@ -12876,13 +12945,23 @@
       <c r="J212" s="175"/>
       <c r="K212" s="170"/>
       <c r="L212" s="170"/>
-      <c r="M212" s="170"/>
-      <c r="N212" s="170"/>
-      <c r="O212" s="170"/>
+      <c r="M212" s="170" t="str">
+        <v>Y24</v>
+      </c>
+      <c r="N212" s="170" t="str">
+        <v>MAXipan Roll</v>
+      </c>
+      <c r="O212" s="170">
+        <v>3</v>
+      </c>
       <c r="P212" s="170"/>
       <c r="Q212" s="170"/>
-      <c r="R212" s="170"/>
-      <c r="S212" s="170"/>
+      <c r="R212" s="170">
+        <v>6</v>
+      </c>
+      <c r="S212" s="170">
+        <v>19</v>
+      </c>
       <c r="T212" s="170"/>
       <c r="U212" s="170"/>
       <c r="V212" s="170"/>
@@ -12926,7 +13005,9 @@
       <c r="D213" s="48">
         <v>7</v>
       </c>
-      <c r="E213" s="19"/>
+      <c r="E213" s="19">
+        <v>17</v>
+      </c>
       <c r="F213" s="20"/>
       <c r="G213" s="40" t="s">
         <v>45</v>
@@ -12938,13 +13019,23 @@
       <c r="J213" s="175"/>
       <c r="K213" s="170"/>
       <c r="L213" s="170"/>
-      <c r="M213" s="170"/>
-      <c r="N213" s="170"/>
-      <c r="O213" s="170"/>
+      <c r="M213" s="170" t="str">
+        <v>S11</v>
+      </c>
+      <c r="N213" s="170" t="str">
+        <v>Lemon DROP</v>
+      </c>
+      <c r="O213" s="170">
+        <v>1</v>
+      </c>
       <c r="P213" s="170"/>
       <c r="Q213" s="170"/>
-      <c r="R213" s="170"/>
-      <c r="S213" s="170"/>
+      <c r="R213" s="170">
+        <v>7</v>
+      </c>
+      <c r="S213" s="170">
+        <v>17</v>
+      </c>
       <c r="T213" s="170"/>
       <c r="U213" s="170"/>
       <c r="V213" s="170"/>
@@ -12988,7 +13079,9 @@
       <c r="D214" s="48">
         <v>7</v>
       </c>
-      <c r="E214" s="19"/>
+      <c r="E214" s="19">
+        <v>15</v>
+      </c>
       <c r="F214" s="20"/>
       <c r="G214" s="40" t="s">
         <v>38</v>
@@ -13000,13 +13093,23 @@
       <c r="J214" s="175"/>
       <c r="K214" s="170"/>
       <c r="L214" s="170"/>
-      <c r="M214" s="170"/>
-      <c r="N214" s="170"/>
-      <c r="O214" s="170"/>
+      <c r="M214" s="170" t="str">
+        <v>AM14</v>
+      </c>
+      <c r="N214" s="170" t="str">
+        <v>#REF!udge Cube</v>
+      </c>
+      <c r="O214" s="170">
+        <v>3</v>
+      </c>
       <c r="P214" s="170"/>
       <c r="Q214" s="170"/>
-      <c r="R214" s="170"/>
-      <c r="S214" s="170"/>
+      <c r="R214" s="170">
+        <v>8</v>
+      </c>
+      <c r="S214" s="170">
+        <v>15</v>
+      </c>
       <c r="T214" s="170"/>
       <c r="U214" s="170"/>
       <c r="V214" s="170"/>
@@ -13050,7 +13153,9 @@
       <c r="D215" s="48">
         <v>7</v>
       </c>
-      <c r="E215" s="19"/>
+      <c r="E215" s="19">
+        <v>24</v>
+      </c>
       <c r="F215" s="20"/>
       <c r="G215" s="40" t="s">
         <v>42</v>
@@ -13062,13 +13167,23 @@
       <c r="J215" s="175"/>
       <c r="K215" s="170"/>
       <c r="L215" s="170"/>
-      <c r="M215" s="170"/>
-      <c r="N215" s="170"/>
-      <c r="O215" s="170"/>
+      <c r="M215" s="170" t="str">
+        <v>J12</v>
+      </c>
+      <c r="N215" s="170" t="str">
+        <v>MAXipan Roll</v>
+      </c>
+      <c r="O215" s="170">
+        <v>3</v>
+      </c>
       <c r="P215" s="170"/>
       <c r="Q215" s="170"/>
-      <c r="R215" s="170"/>
-      <c r="S215" s="170"/>
+      <c r="R215" s="170">
+        <v>9</v>
+      </c>
+      <c r="S215" s="170">
+        <v>24</v>
+      </c>
       <c r="T215" s="170"/>
       <c r="U215" s="170"/>
       <c r="V215" s="170"/>
@@ -13112,7 +13227,9 @@
       <c r="D216" s="48">
         <v>7</v>
       </c>
-      <c r="E216" s="19"/>
+      <c r="E216" s="19">
+        <v>17</v>
+      </c>
       <c r="F216" s="20"/>
       <c r="G216" s="40" t="s">
         <v>50</v>
@@ -13124,13 +13241,23 @@
       <c r="J216" s="175"/>
       <c r="K216" s="170"/>
       <c r="L216" s="170"/>
-      <c r="M216" s="170"/>
-      <c r="N216" s="170"/>
-      <c r="O216" s="170"/>
+      <c r="M216" s="170" t="str">
+        <v>AA31</v>
+      </c>
+      <c r="N216" s="170" t="str">
+        <v>Chocolate MINt</v>
+      </c>
+      <c r="O216" s="170">
+        <v>2</v>
+      </c>
       <c r="P216" s="170"/>
       <c r="Q216" s="170"/>
-      <c r="R216" s="170"/>
-      <c r="S216" s="170"/>
+      <c r="R216" s="170">
+        <v>10</v>
+      </c>
+      <c r="S216" s="170">
+        <v>17</v>
+      </c>
       <c r="T216" s="170"/>
       <c r="U216" s="170"/>
       <c r="V216" s="170"/>
@@ -13174,7 +13301,9 @@
       <c r="D217" s="48">
         <v>7</v>
       </c>
-      <c r="E217" s="19"/>
+      <c r="E217" s="19">
+        <v>19</v>
+      </c>
       <c r="F217" s="20"/>
       <c r="G217" s="40" t="s">
         <v>64</v>
@@ -13186,13 +13315,23 @@
       <c r="J217" s="175"/>
       <c r="K217" s="170"/>
       <c r="L217" s="170"/>
-      <c r="M217" s="170"/>
-      <c r="N217" s="170"/>
-      <c r="O217" s="170"/>
+      <c r="M217" s="170" t="str">
+        <v>U38</v>
+      </c>
+      <c r="N217" s="170" t="str">
+        <v>MAXipan Roll</v>
+      </c>
+      <c r="O217" s="170">
+        <v>2</v>
+      </c>
       <c r="P217" s="170"/>
       <c r="Q217" s="170"/>
-      <c r="R217" s="170"/>
-      <c r="S217" s="170"/>
+      <c r="R217" s="170">
+        <v>11</v>
+      </c>
+      <c r="S217" s="170">
+        <v>19</v>
+      </c>
       <c r="T217" s="170"/>
       <c r="U217" s="170"/>
       <c r="V217" s="170"/>
@@ -13236,7 +13375,9 @@
       <c r="D218" s="48">
         <v>7</v>
       </c>
-      <c r="E218" s="19"/>
+      <c r="E218" s="19">
+        <v>23</v>
+      </c>
       <c r="F218" s="20"/>
       <c r="G218" s="40" t="s">
         <v>61</v>
@@ -13248,13 +13389,23 @@
       <c r="J218" s="175"/>
       <c r="K218" s="170"/>
       <c r="L218" s="170"/>
-      <c r="M218" s="170"/>
-      <c r="N218" s="170"/>
-      <c r="O218" s="170"/>
+      <c r="M218" s="170" t="str">
+        <v>C15</v>
+      </c>
+      <c r="N218" s="170" t="str">
+        <v>Chocolate MINt</v>
+      </c>
+      <c r="O218" s="170">
+        <v>3</v>
+      </c>
       <c r="P218" s="170"/>
       <c r="Q218" s="170"/>
-      <c r="R218" s="170"/>
-      <c r="S218" s="170"/>
+      <c r="R218" s="170">
+        <v>12</v>
+      </c>
+      <c r="S218" s="170">
+        <v>23</v>
+      </c>
       <c r="T218" s="170"/>
       <c r="U218" s="170"/>
       <c r="V218" s="170"/>
@@ -13298,7 +13449,9 @@
       <c r="D219" s="48">
         <v>7</v>
       </c>
-      <c r="E219" s="19"/>
+      <c r="E219" s="19">
+        <v>17</v>
+      </c>
       <c r="F219" s="20"/>
       <c r="G219" s="40" t="s">
         <v>36</v>
@@ -13315,8 +13468,12 @@
       <c r="O219" s="170"/>
       <c r="P219" s="170"/>
       <c r="Q219" s="170"/>
-      <c r="R219" s="170"/>
-      <c r="S219" s="170"/>
+      <c r="R219" s="170">
+        <v>13</v>
+      </c>
+      <c r="S219" s="170">
+        <v>17</v>
+      </c>
       <c r="T219" s="170"/>
       <c r="U219" s="170"/>
       <c r="V219" s="170"/>
@@ -13360,7 +13517,9 @@
       <c r="D220" s="48">
         <v>7</v>
       </c>
-      <c r="E220" s="19"/>
+      <c r="E220" s="19">
+        <v>17</v>
+      </c>
       <c r="F220" s="20"/>
       <c r="G220" s="40" t="s">
         <v>63</v>
@@ -13377,8 +13536,12 @@
       <c r="O220" s="170"/>
       <c r="P220" s="170"/>
       <c r="Q220" s="170"/>
-      <c r="R220" s="170"/>
-      <c r="S220" s="170"/>
+      <c r="R220" s="170">
+        <v>14</v>
+      </c>
+      <c r="S220" s="170">
+        <v>17</v>
+      </c>
       <c r="T220" s="170"/>
       <c r="U220" s="170"/>
       <c r="V220" s="170"/>
@@ -13422,7 +13585,9 @@
       <c r="D221" s="48">
         <v>7</v>
       </c>
-      <c r="E221" s="19"/>
+      <c r="E221" s="19">
+        <v>20</v>
+      </c>
       <c r="F221" s="20"/>
       <c r="G221" s="40" t="s">
         <v>53</v>
@@ -13439,8 +13604,12 @@
       <c r="O221" s="170"/>
       <c r="P221" s="170"/>
       <c r="Q221" s="170"/>
-      <c r="R221" s="170"/>
-      <c r="S221" s="170"/>
+      <c r="R221" s="170">
+        <v>15</v>
+      </c>
+      <c r="S221" s="170">
+        <v>20</v>
+      </c>
       <c r="T221" s="170"/>
       <c r="U221" s="170"/>
       <c r="V221" s="170"/>
@@ -13484,7 +13653,9 @@
       <c r="D222" s="48">
         <v>7</v>
       </c>
-      <c r="E222" s="19"/>
+      <c r="E222" s="19">
+        <v>15</v>
+      </c>
       <c r="F222" s="20"/>
       <c r="G222" s="40" t="s">
         <v>57</v>
@@ -13501,8 +13672,12 @@
       <c r="O222" s="170"/>
       <c r="P222" s="170"/>
       <c r="Q222" s="170"/>
-      <c r="R222" s="170"/>
-      <c r="S222" s="170"/>
+      <c r="R222" s="170">
+        <v>16</v>
+      </c>
+      <c r="S222" s="170">
+        <v>15</v>
+      </c>
       <c r="T222" s="170"/>
       <c r="U222" s="170"/>
       <c r="V222" s="170"/>
@@ -13546,7 +13721,9 @@
       <c r="D223" s="48">
         <v>7</v>
       </c>
-      <c r="E223" s="19"/>
+      <c r="E223" s="19">
+        <v>14</v>
+      </c>
       <c r="F223" s="20"/>
       <c r="G223" s="40" t="s">
         <v>73</v>
@@ -13563,8 +13740,12 @@
       <c r="O223" s="170"/>
       <c r="P223" s="170"/>
       <c r="Q223" s="170"/>
-      <c r="R223" s="170"/>
-      <c r="S223" s="170"/>
+      <c r="R223" s="170">
+        <v>17</v>
+      </c>
+      <c r="S223" s="170">
+        <v>14</v>
+      </c>
       <c r="T223" s="170"/>
       <c r="U223" s="170"/>
       <c r="V223" s="170"/>
@@ -13608,7 +13789,9 @@
       <c r="D224" s="48">
         <v>7</v>
       </c>
-      <c r="E224" s="19"/>
+      <c r="E224" s="19">
+        <v>17</v>
+      </c>
       <c r="F224" s="20"/>
       <c r="G224" s="40" t="s">
         <v>55</v>
@@ -13625,8 +13808,12 @@
       <c r="O224" s="170"/>
       <c r="P224" s="170"/>
       <c r="Q224" s="170"/>
-      <c r="R224" s="170"/>
-      <c r="S224" s="170"/>
+      <c r="R224" s="170">
+        <v>18</v>
+      </c>
+      <c r="S224" s="170">
+        <v>17</v>
+      </c>
       <c r="T224" s="170"/>
       <c r="U224" s="170"/>
       <c r="V224" s="170"/>
@@ -13670,7 +13857,9 @@
       <c r="D225" s="48">
         <v>7</v>
       </c>
-      <c r="E225" s="19"/>
+      <c r="E225" s="19">
+        <v>17</v>
+      </c>
       <c r="F225" s="20"/>
       <c r="G225" s="40" t="s">
         <v>69</v>
@@ -13687,8 +13876,12 @@
       <c r="O225" s="170"/>
       <c r="P225" s="170"/>
       <c r="Q225" s="170"/>
-      <c r="R225" s="170"/>
-      <c r="S225" s="170"/>
+      <c r="R225" s="170">
+        <v>19</v>
+      </c>
+      <c r="S225" s="170">
+        <v>17</v>
+      </c>
       <c r="T225" s="170"/>
       <c r="U225" s="170"/>
       <c r="V225" s="170"/>
@@ -13732,7 +13925,9 @@
       <c r="D226" s="48">
         <v>7</v>
       </c>
-      <c r="E226" s="19"/>
+      <c r="E226" s="19">
+        <v>17</v>
+      </c>
       <c r="F226" s="20"/>
       <c r="G226" s="40" t="s">
         <v>60</v>
@@ -13749,8 +13944,12 @@
       <c r="O226" s="170"/>
       <c r="P226" s="170"/>
       <c r="Q226" s="170"/>
-      <c r="R226" s="170"/>
-      <c r="S226" s="170"/>
+      <c r="R226" s="170">
+        <v>20</v>
+      </c>
+      <c r="S226" s="170">
+        <v>17</v>
+      </c>
       <c r="T226" s="170"/>
       <c r="U226" s="170"/>
       <c r="V226" s="170"/>
@@ -13794,7 +13993,9 @@
       <c r="D227" s="48">
         <v>7</v>
       </c>
-      <c r="E227" s="19"/>
+      <c r="E227" s="19">
+        <v>17</v>
+      </c>
       <c r="F227" s="20"/>
       <c r="G227" s="40" t="s">
         <v>68</v>
@@ -13811,8 +14012,12 @@
       <c r="O227" s="170"/>
       <c r="P227" s="170"/>
       <c r="Q227" s="170"/>
-      <c r="R227" s="170"/>
-      <c r="S227" s="170"/>
+      <c r="R227" s="170">
+        <v>21</v>
+      </c>
+      <c r="S227" s="170">
+        <v>17</v>
+      </c>
       <c r="T227" s="170"/>
       <c r="U227" s="170"/>
       <c r="V227" s="170"/>
@@ -13856,7 +14061,9 @@
       <c r="D228" s="48">
         <v>7</v>
       </c>
-      <c r="E228" s="19"/>
+      <c r="E228" s="19">
+        <v>16</v>
+      </c>
       <c r="F228" s="20"/>
       <c r="G228" s="40" t="s">
         <v>66</v>
@@ -13873,8 +14080,12 @@
       <c r="O228" s="170"/>
       <c r="P228" s="170"/>
       <c r="Q228" s="170"/>
-      <c r="R228" s="170"/>
-      <c r="S228" s="170"/>
+      <c r="R228" s="170">
+        <v>22</v>
+      </c>
+      <c r="S228" s="170">
+        <v>16</v>
+      </c>
       <c r="T228" s="170"/>
       <c r="U228" s="170"/>
       <c r="V228" s="170"/>
@@ -13923,7 +14134,7 @@
       <c r="D230" s="68"/>
       <c r="E230" s="19" t="str">
         <f>IF(ISERROR(E209),"",E209)&amp;";"&amp;IF(ISERROR(E210),"",E210)&amp;";"&amp;IF(ISERROR(E211),"",E211)&amp;";"&amp;IF(ISERROR(E212),"",E212)&amp;";"&amp;IF(ISERROR(E213),"",E213)&amp;";"&amp;IF(ISERROR(E214),"",E214)&amp;";"&amp;IF(ISERROR(E215),"",E215)&amp;";"&amp;IF(ISERROR(E216),"",E216)&amp;";"&amp;IF(ISERROR(E217),"",E217)&amp;";"&amp;IF(ISERROR(E218),"",E218)&amp;";"&amp;IF(ISERROR(E219),"",E219)&amp;";"&amp;IF(ISERROR(E220),"",E220)&amp;";"&amp;IF(ISERROR(E221),"",E221)&amp;";"&amp;IF(ISERROR(E222),"",E222)&amp;";"&amp;IF(ISERROR(E223),"",E223)&amp;";"&amp;IF(ISERROR(E224),"",E224)&amp;";"&amp;IF(ISERROR(E225),"",E225)&amp;";"&amp;IF(ISERROR(E226),"",E226)&amp;";"&amp;IF(ISERROR(E227),"",E227)&amp;";"&amp;IF(ISERROR(E228),"",E228)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>18;20;21;19;17;15;24;17;19;23;17;17;20;15;14;17;17;17;17;16</v>
       </c>
       <c r="F230" s="20"/>
       <c r="G230" s="1"/>
@@ -13992,20 +14203,20 @@
       <c r="K232" s="67"/>
     </row>
     <row r="233" spans="1:62" ht="23.4">
-      <c r="B233" s="182" t="s">
+      <c r="B233" s="183" t="s">
         <v>211</v>
       </c>
-      <c r="C233" s="183"/>
-      <c r="D233" s="183"/>
-      <c r="E233" s="183"/>
-      <c r="F233" s="183"/>
-      <c r="G233" s="183"/>
-      <c r="H233" s="183"/>
-      <c r="I233" s="183"/>
-      <c r="J233" s="183"/>
-      <c r="K233" s="183"/>
-      <c r="L233" s="183"/>
-      <c r="M233" s="184"/>
+      <c r="C233" s="184"/>
+      <c r="D233" s="184"/>
+      <c r="E233" s="184"/>
+      <c r="F233" s="184"/>
+      <c r="G233" s="184"/>
+      <c r="H233" s="184"/>
+      <c r="I233" s="184"/>
+      <c r="J233" s="184"/>
+      <c r="K233" s="184"/>
+      <c r="L233" s="184"/>
+      <c r="M233" s="185"/>
     </row>
     <row r="234" spans="1:62" ht="15" customHeight="1" thickBot="1">
       <c r="B234" s="24"/>
@@ -18040,10 +18251,10 @@
       <c r="AM1" s="79"/>
       <c r="AN1" s="79"/>
       <c r="AO1" s="80"/>
-      <c r="AQ1" s="196" t="s">
+      <c r="AQ1" s="197" t="s">
         <v>328</v>
       </c>
-      <c r="AR1" s="197"/>
+      <c r="AR1" s="198"/>
     </row>
     <row r="2" spans="1:45" ht="16.95" customHeight="1" thickBot="1">
       <c r="A2" s="82"/>
@@ -21696,10 +21907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.8" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="183" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="185"/>
       <c r="C1" s="153"/>
     </row>
     <row r="2" spans="1:3" ht="16.8" customHeight="1">
@@ -21877,7 +22088,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -21892,10 +22103,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="183" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="185"/>
       <c r="C1" s="153"/>
       <c r="D1" s="153"/>
     </row>
@@ -22294,7 +22505,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:D380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A352" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -22308,11 +22519,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="183" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="185"/>
       <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" ht="36.6" customHeight="1">
@@ -26463,7 +26674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB505C8-B5A5-43E7-BDB1-CEB8314A9C64}">
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
@@ -26483,39 +26694,39 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="59.25" customHeight="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="188"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1"/>
     <row r="4" spans="2:16" ht="33" customHeight="1">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="185"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="182" t="s">
+      <c r="L4" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="184"/>
+      <c r="M4" s="185"/>
     </row>
     <row r="5" spans="2:16" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -26528,10 +26739,10 @@
       <c r="P5"/>
     </row>
     <row r="6" spans="2:16" ht="33" customHeight="1">
-      <c r="L6" s="182" t="s">
+      <c r="L6" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="184"/>
+      <c r="M6" s="185"/>
     </row>
     <row r="7" spans="2:16" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -26539,52 +26750,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="190"/>
     </row>
     <row r="9" spans="2:16" ht="162" customHeight="1">
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
     </row>
     <row r="10" spans="2:16" ht="245.4" customHeight="1">
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="192" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -26601,20 +26812,20 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="185"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1">
       <c r="B13" s="8"/>
@@ -26664,15 +26875,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="192" t="s">
+      <c r="G16" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="195"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -26691,15 +26902,15 @@
         <f>IF(ISBLANK(Case!E17),0,IF(E17=Case!E17,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="195" t="s">
+      <c r="G17" s="196" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="196"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -26718,15 +26929,15 @@
         <f>IF(ISBLANK(Case!E18),0,IF(E18=Case!E18,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="178" t="s">
+      <c r="G18" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="16" t="s">
@@ -26745,15 +26956,15 @@
         <f>IF(ISBLANK(Case!E19),0,IF(E19=Case!E19,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="178" t="s">
+      <c r="G19" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="178"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="16" t="s">
@@ -26772,15 +26983,15 @@
         <f>IF(ISBLANK(Case!E20),0,IF(E20=Case!E20,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="178" t="s">
+      <c r="G20" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="179"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="16" t="s">
@@ -26799,34 +27010,34 @@
         <f>IF(ISBLANK(Case!E21),0,IF(E21=Case!E21,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="179" t="s">
+      <c r="G21" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="182"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="185"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="24"/>
@@ -26852,21 +27063,21 @@
       <c r="D25" s="20"/>
       <c r="E25" s="28"/>
       <c r="F25" s="20"/>
-      <c r="L25" s="182" t="s">
+      <c r="L25" s="183" t="s">
         <v>735</v>
       </c>
-      <c r="M25" s="184"/>
+      <c r="M25" s="185"/>
     </row>
     <row r="26" spans="2:13" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="29"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="L26" s="198">
+      <c r="L26" s="199">
         <f>SUMPRODUCT(--(F:F=1),D:D)</f>
-        <v>320</v>
-      </c>
-      <c r="M26" s="199"/>
+        <v>460</v>
+      </c>
+      <c r="M26" s="200"/>
     </row>
     <row r="27" spans="2:13" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="B27" s="28" t="s">
@@ -26876,8 +27087,8 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="201"/>
+      <c r="L27" s="201"/>
+      <c r="M27" s="202"/>
     </row>
     <row r="28" spans="2:13" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="B28" s="29"/>
@@ -26885,8 +27096,8 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="203"/>
+      <c r="L28" s="203"/>
+      <c r="M28" s="204"/>
     </row>
     <row r="29" spans="2:13" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="B29" s="31" t="s">
@@ -29578,20 +29789,20 @@
       <c r="K147" s="67"/>
     </row>
     <row r="148" spans="1:27" ht="23.4">
-      <c r="B148" s="182" t="s">
+      <c r="B148" s="183" t="s">
         <v>163</v>
       </c>
-      <c r="C148" s="183"/>
-      <c r="D148" s="183"/>
-      <c r="E148" s="183"/>
-      <c r="F148" s="183"/>
-      <c r="G148" s="183"/>
-      <c r="H148" s="183"/>
-      <c r="I148" s="183"/>
-      <c r="J148" s="183"/>
-      <c r="K148" s="183"/>
-      <c r="L148" s="183"/>
-      <c r="M148" s="184"/>
+      <c r="C148" s="184"/>
+      <c r="D148" s="184"/>
+      <c r="E148" s="184"/>
+      <c r="F148" s="184"/>
+      <c r="G148" s="184"/>
+      <c r="H148" s="184"/>
+      <c r="I148" s="184"/>
+      <c r="J148" s="184"/>
+      <c r="K148" s="184"/>
+      <c r="L148" s="184"/>
+      <c r="M148" s="185"/>
     </row>
     <row r="149" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="B149" s="24"/>
@@ -30871,7 +31082,7 @@
       </c>
       <c r="F209" s="20">
         <f>IF(ISBLANK(Case!E209),0,IF(E209=Case!E209,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" s="40" t="s">
         <v>52</v>
@@ -30903,7 +31114,7 @@
       </c>
       <c r="F210" s="20">
         <f>IF(ISBLANK(Case!E210),0,IF(E210=Case!E210,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" s="40" t="s">
         <v>65</v>
@@ -30935,7 +31146,7 @@
       </c>
       <c r="F211" s="20">
         <f>IF(ISBLANK(Case!E211),0,IF(E211=Case!E211,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" s="40" t="s">
         <v>37</v>
@@ -30967,7 +31178,7 @@
       </c>
       <c r="F212" s="20">
         <f>IF(ISBLANK(Case!E212),0,IF(E212=Case!E212,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212" s="40" t="s">
         <v>49</v>
@@ -30999,7 +31210,7 @@
       </c>
       <c r="F213" s="20">
         <f>IF(ISBLANK(Case!E213),0,IF(E213=Case!E213,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" s="40" t="s">
         <v>45</v>
@@ -31031,7 +31242,7 @@
       </c>
       <c r="F214" s="20">
         <f>IF(ISBLANK(Case!E214),0,IF(E214=Case!E214,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214" s="40" t="s">
         <v>38</v>
@@ -31063,7 +31274,7 @@
       </c>
       <c r="F215" s="20">
         <f>IF(ISBLANK(Case!E215),0,IF(E215=Case!E215,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" s="40" t="s">
         <v>42</v>
@@ -31095,7 +31306,7 @@
       </c>
       <c r="F216" s="20">
         <f>IF(ISBLANK(Case!E216),0,IF(E216=Case!E216,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216" s="40" t="s">
         <v>50</v>
@@ -31127,7 +31338,7 @@
       </c>
       <c r="F217" s="20">
         <f>IF(ISBLANK(Case!E217),0,IF(E217=Case!E217,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" s="40" t="s">
         <v>64</v>
@@ -31159,7 +31370,7 @@
       </c>
       <c r="F218" s="20">
         <f>IF(ISBLANK(Case!E218),0,IF(E218=Case!E218,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" s="40" t="s">
         <v>61</v>
@@ -31191,7 +31402,7 @@
       </c>
       <c r="F219" s="20">
         <f>IF(ISBLANK(Case!E219),0,IF(E219=Case!E219,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" s="40" t="s">
         <v>36</v>
@@ -31223,7 +31434,7 @@
       </c>
       <c r="F220" s="20">
         <f>IF(ISBLANK(Case!E220),0,IF(E220=Case!E220,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" s="40" t="s">
         <v>63</v>
@@ -31255,7 +31466,7 @@
       </c>
       <c r="F221" s="20">
         <f>IF(ISBLANK(Case!E221),0,IF(E221=Case!E221,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" s="40" t="s">
         <v>53</v>
@@ -31287,7 +31498,7 @@
       </c>
       <c r="F222" s="20">
         <f>IF(ISBLANK(Case!E222),0,IF(E222=Case!E222,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" s="40" t="s">
         <v>57</v>
@@ -31319,7 +31530,7 @@
       </c>
       <c r="F223" s="20">
         <f>IF(ISBLANK(Case!E223),0,IF(E223=Case!E223,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" s="40" t="s">
         <v>73</v>
@@ -31351,7 +31562,7 @@
       </c>
       <c r="F224" s="20">
         <f>IF(ISBLANK(Case!E224),0,IF(E224=Case!E224,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" s="40" t="s">
         <v>55</v>
@@ -31383,7 +31594,7 @@
       </c>
       <c r="F225" s="20">
         <f>IF(ISBLANK(Case!E225),0,IF(E225=Case!E225,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" s="40" t="s">
         <v>69</v>
@@ -31415,7 +31626,7 @@
       </c>
       <c r="F226" s="20">
         <f>IF(ISBLANK(Case!E226),0,IF(E226=Case!E226,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" s="40" t="s">
         <v>60</v>
@@ -31447,7 +31658,7 @@
       </c>
       <c r="F227" s="20">
         <f>IF(ISBLANK(Case!E227),0,IF(E227=Case!E227,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" s="40" t="s">
         <v>68</v>
@@ -31479,7 +31690,7 @@
       </c>
       <c r="F228" s="20">
         <f>IF(ISBLANK(Case!E228),0,IF(E228=Case!E228,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" s="40" t="s">
         <v>66</v>
@@ -31545,20 +31756,20 @@
       <c r="K232" s="67"/>
     </row>
     <row r="233" spans="1:27" ht="23.4">
-      <c r="B233" s="182" t="s">
+      <c r="B233" s="183" t="s">
         <v>211</v>
       </c>
-      <c r="C233" s="183"/>
-      <c r="D233" s="183"/>
-      <c r="E233" s="183"/>
-      <c r="F233" s="183"/>
-      <c r="G233" s="183"/>
-      <c r="H233" s="183"/>
-      <c r="I233" s="183"/>
-      <c r="J233" s="183"/>
-      <c r="K233" s="183"/>
-      <c r="L233" s="183"/>
-      <c r="M233" s="184"/>
+      <c r="C233" s="184"/>
+      <c r="D233" s="184"/>
+      <c r="E233" s="184"/>
+      <c r="F233" s="184"/>
+      <c r="G233" s="184"/>
+      <c r="H233" s="184"/>
+      <c r="I233" s="184"/>
+      <c r="J233" s="184"/>
+      <c r="K233" s="184"/>
+      <c r="L233" s="184"/>
+      <c r="M233" s="185"/>
     </row>
     <row r="234" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="B234" s="24"/>

--- a/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543C51B-B291-46A1-BBA2-2C2AE2D6ED23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700AFD70-AA34-434E-BC5F-BCE17BFA2059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
-    <sheet name="CellVille" sheetId="2" r:id="rId2"/>
-    <sheet name="Sweets" sheetId="3" r:id="rId3"/>
-    <sheet name="Children" sheetId="4" r:id="rId4"/>
-    <sheet name="Houses" sheetId="5" r:id="rId5"/>
-    <sheet name="Answers" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="CellVille" sheetId="2" r:id="rId3"/>
+    <sheet name="Sweets" sheetId="3" r:id="rId4"/>
+    <sheet name="Children" sheetId="4" r:id="rId5"/>
+    <sheet name="Houses" sheetId="5" r:id="rId6"/>
+    <sheet name="Answers" sheetId="6" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="779">
   <si>
     <t>Juan José Cifuentes</t>
   </si>
@@ -2310,6 +2314,105 @@
   </si>
   <si>
     <t>Number?</t>
+  </si>
+  <si>
+    <t>DATE:</t>
+  </si>
+  <si>
+    <t>SUBJECT:</t>
+  </si>
+  <si>
+    <t>Mark Biegert</t>
+  </si>
+  <si>
+    <t>FROM:</t>
+  </si>
+  <si>
+    <t>H-W</t>
+  </si>
+  <si>
+    <t>T-W</t>
+  </si>
+  <si>
+    <t>W-W</t>
+  </si>
+  <si>
+    <t>E-E</t>
+  </si>
+  <si>
+    <t>AB-E</t>
+  </si>
+  <si>
+    <t>AH-E</t>
+  </si>
+  <si>
+    <t>I-E</t>
+  </si>
+  <si>
+    <t>N-E</t>
+  </si>
+  <si>
+    <t>C-W</t>
+  </si>
+  <si>
+    <t>G-W</t>
+  </si>
+  <si>
+    <t>L-W</t>
+  </si>
+  <si>
+    <t>P-W</t>
+  </si>
+  <si>
+    <t>S-W</t>
+  </si>
+  <si>
+    <t>V-W</t>
+  </si>
+  <si>
+    <t>AA-W</t>
+  </si>
+  <si>
+    <t>AD-W</t>
+  </si>
+  <si>
+    <t>AG-W</t>
+  </si>
+  <si>
+    <t>AK-W</t>
+  </si>
+  <si>
+    <t>R-E</t>
+  </si>
+  <si>
+    <t>U-E</t>
+  </si>
+  <si>
+    <t>X-E</t>
+  </si>
+  <si>
+    <t>AC-E</t>
+  </si>
+  <si>
+    <t>AF-E</t>
+  </si>
+  <si>
+    <t>AI-E</t>
+  </si>
+  <si>
+    <t>AM-E</t>
+  </si>
+  <si>
+    <t>20-N</t>
+  </si>
+  <si>
+    <t>28-N</t>
+  </si>
+  <si>
+    <t>13-S</t>
+  </si>
+  <si>
+    <t>40-S</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2422,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2677,8 +2780,29 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Fuente de cuerpo"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2741,6 +2865,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3129,13 +3271,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3660,6 +3805,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3699,29 +3862,20 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="66" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Intro_Hd" xfId="6" xr:uid="{42103448-358E-4DFF-BC58-251DAB851D07}"/>
+    <cellStyle name="Intro_Value" xfId="5" xr:uid="{15ADDA13-D882-47BB-9CAD-FD3187A67755}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{D088A63A-393D-4AE4-B429-090965A46D40}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B3FB59BF-F45D-45BA-BB3E-FF8336362B98}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4655,8 +4809,8 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:BJ327"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209:E228"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P309" sqref="P309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -4681,20 +4835,20 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15" customHeight="1"/>
     <row r="2" spans="2:51" ht="59.25" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="188"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="194"/>
     </row>
     <row r="3" spans="2:51" ht="15" customHeight="1"/>
     <row r="4" spans="2:51" ht="33" customHeight="1">
@@ -4772,52 +4926,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:51" ht="21.75" customHeight="1">
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
     </row>
     <row r="9" spans="2:51" ht="162" customHeight="1">
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
     </row>
     <row r="10" spans="2:51" ht="245.4" customHeight="1">
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="198" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
     </row>
     <row r="11" spans="2:51" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -4897,15 +5051,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="193" t="s">
+      <c r="G16" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="195"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="201"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -4919,15 +5073,15 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="196" t="s">
+      <c r="G17" s="202" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="196"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="202"/>
+      <c r="M17" s="202"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -8921,6 +9075,9 @@
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
       <c r="G119" s="28"/>
+      <c r="N119" s="11">
+        <v>1</v>
+      </c>
       <c r="AZ119" s="46"/>
     </row>
     <row r="120" spans="2:52" s="11" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
@@ -8940,13 +9097,20 @@
       <c r="G120" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H120" s="170"/>
-      <c r="I120" s="170"/>
+      <c r="H120" s="170" t="s">
+        <v>741</v>
+      </c>
+      <c r="I120" s="170">
+        <v>4</v>
+      </c>
       <c r="J120" s="170"/>
       <c r="K120" s="170"/>
       <c r="L120" s="170"/>
       <c r="M120" s="170"/>
-      <c r="N120" s="170"/>
+      <c r="N120" s="170" t="str">
+        <f ca="1">IF(L121&gt;R121,M121,S121)</f>
+        <v>H-E</v>
+      </c>
       <c r="O120" s="170"/>
       <c r="P120" s="170"/>
       <c r="Q120" s="170"/>
@@ -8988,6 +9152,30 @@
     </row>
     <row r="121" spans="2:52" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="F121" s="20"/>
+      <c r="I121" s="11" t="str" cm="1">
+        <f t="array" ref="I121">INDEX(G122:G143,I120)</f>
+        <v>🍞</v>
+      </c>
+      <c r="L121" s="11">
+        <f ca="1">MAX(L122:L141)</f>
+        <v>3</v>
+      </c>
+      <c r="M121" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="M121" ca="1">INDEX(H122:H141,_xlfn.XMATCH(L121,L122:L141))</f>
+        <v>H-E</v>
+      </c>
+      <c r="R121" s="11">
+        <f ca="1">MAX(R122:R141)</f>
+        <v>2</v>
+      </c>
+      <c r="S121" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="S121" ca="1">INDEX(O122:O141,_xlfn.XMATCH(R121,R122:R141))</f>
+        <v>25-N</v>
+      </c>
+      <c r="W121" s="11" t="str">
+        <f ca="1">N120</f>
+        <v>H-E</v>
+      </c>
       <c r="AZ121" s="46"/>
     </row>
     <row r="122" spans="2:52" s="11" customFormat="1" ht="23.25" customHeight="1">
@@ -9007,22 +9195,56 @@
       <c r="G122" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H122" s="170"/>
-      <c r="I122" s="170"/>
-      <c r="J122" s="170"/>
-      <c r="K122" s="170"/>
-      <c r="L122" s="170"/>
+      <c r="H122" s="205" t="s">
+        <v>144</v>
+      </c>
+      <c r="I122" s="170">
+        <v>3</v>
+      </c>
+      <c r="J122" s="170" t="str">
+        <f>ADDRESS(3,I122)</f>
+        <v>$C$3</v>
+      </c>
+      <c r="K122" s="170" t="str">
+        <f>ADDRESS(41,I122)</f>
+        <v>$C$41</v>
+      </c>
+      <c r="L122" s="170">
+        <f ca="1">COUNTIFS(INDIRECT("CellVille!"&amp;J122&amp;":"&amp;K122),$I$121)</f>
+        <v>0</v>
+      </c>
       <c r="M122" s="170"/>
-      <c r="N122" s="170"/>
-      <c r="O122" s="170"/>
-      <c r="P122" s="170"/>
-      <c r="Q122" s="170"/>
-      <c r="R122" s="170"/>
+      <c r="N122" s="11">
+        <v>3</v>
+      </c>
+      <c r="O122" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P122" s="170" t="str">
+        <f>ADDRESS(N122,3)</f>
+        <v>$C$3</v>
+      </c>
+      <c r="Q122" s="170" t="str">
+        <f>ADDRESS(N122,39)</f>
+        <v>$AM$3</v>
+      </c>
+      <c r="R122" s="170">
+        <f ca="1">COUNTIFS(INDIRECT("CellVille!"&amp;P122&amp;":"&amp;Q122),$I$121)</f>
+        <v>0</v>
+      </c>
       <c r="S122" s="170"/>
       <c r="T122" s="170"/>
-      <c r="U122" s="170"/>
-      <c r="V122" s="170"/>
-      <c r="W122" s="170"/>
+      <c r="U122" s="170" cm="1">
+        <f t="array" ref="U122:U141">_xlfn.SEQUENCE(20,1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V122" s="170">
+        <f t="dataTable" ref="V122:W141" dt2D="0" dtr="0" r1="I120" ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="W122" s="170" t="str">
+        <v>13-N</v>
+      </c>
       <c r="X122" s="170"/>
       <c r="Y122" s="170"/>
       <c r="Z122" s="170"/>
@@ -9056,22 +9278,54 @@
       <c r="E123" s="42"/>
       <c r="F123" s="20"/>
       <c r="G123" s="43"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="45"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="45"/>
+      <c r="H123" s="205" t="s">
+        <v>750</v>
+      </c>
+      <c r="I123" s="170">
+        <v>7</v>
+      </c>
+      <c r="J123" s="170" t="str">
+        <f t="shared" ref="J123:J141" si="0">ADDRESS(3,I123)</f>
+        <v>$G$3</v>
+      </c>
+      <c r="K123" s="170" t="str">
+        <f t="shared" ref="K123:K141" si="1">ADDRESS(41,I123)</f>
+        <v>$G$41</v>
+      </c>
+      <c r="L123" s="170">
+        <f t="shared" ref="L123:L141" ca="1" si="2">COUNTIFS(INDIRECT("CellVille!"&amp;J123&amp;":"&amp;K123),$I$121)</f>
+        <v>0</v>
+      </c>
       <c r="M123" s="45"/>
-      <c r="N123" s="45"/>
-      <c r="O123" s="45"/>
-      <c r="P123" s="45"/>
-      <c r="Q123" s="45"/>
-      <c r="R123" s="45"/>
+      <c r="N123" s="11">
+        <v>8</v>
+      </c>
+      <c r="O123" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="P123" s="170" t="str">
+        <f>ADDRESS(N123,3)</f>
+        <v>$C$8</v>
+      </c>
+      <c r="Q123" s="170" t="str">
+        <f>ADDRESS(N123,39)</f>
+        <v>$AM$8</v>
+      </c>
+      <c r="R123" s="170">
+        <f t="shared" ref="R123:R141" ca="1" si="3">COUNTIFS(INDIRECT("CellVille!"&amp;P123&amp;":"&amp;Q123),$I$121)</f>
+        <v>0</v>
+      </c>
       <c r="S123" s="45"/>
       <c r="T123" s="45"/>
-      <c r="U123" s="45"/>
-      <c r="V123" s="45"/>
-      <c r="W123" s="45"/>
+      <c r="U123" s="45">
+        <v>4</v>
+      </c>
+      <c r="V123" s="45">
+        <v>0</v>
+      </c>
+      <c r="W123" s="45" t="str">
+        <v>H-E</v>
+      </c>
       <c r="X123" s="45"/>
       <c r="Y123" s="45"/>
       <c r="Z123" s="45"/>
@@ -9111,27 +9365,61 @@
       <c r="D124" s="48">
         <v>8</v>
       </c>
-      <c r="E124" s="19"/>
+      <c r="E124" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="F124" s="20"/>
       <c r="G124" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H124" s="170"/>
-      <c r="I124" s="170"/>
-      <c r="J124" s="170"/>
-      <c r="K124" s="170"/>
-      <c r="L124" s="170"/>
+      <c r="H124" s="205" t="s">
+        <v>147</v>
+      </c>
+      <c r="I124" s="170">
+        <v>12</v>
+      </c>
+      <c r="J124" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$L$3</v>
+      </c>
+      <c r="K124" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$L$41</v>
+      </c>
+      <c r="L124" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M124" s="170"/>
-      <c r="N124" s="170"/>
-      <c r="O124" s="170"/>
-      <c r="P124" s="170"/>
-      <c r="Q124" s="170"/>
-      <c r="R124" s="170"/>
+      <c r="N124" s="11">
+        <v>12</v>
+      </c>
+      <c r="O124" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="P124" s="170" t="str">
+        <f>ADDRESS(N124,3)</f>
+        <v>$C$12</v>
+      </c>
+      <c r="Q124" s="170" t="str">
+        <f>ADDRESS(N124,39)</f>
+        <v>$AM$12</v>
+      </c>
+      <c r="R124" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S124" s="170"/>
       <c r="T124" s="170"/>
-      <c r="U124" s="170"/>
-      <c r="V124" s="170"/>
-      <c r="W124" s="170"/>
+      <c r="U124" s="170">
+        <v>5</v>
+      </c>
+      <c r="V124" s="170">
+        <v>0</v>
+      </c>
+      <c r="W124" s="170" t="str">
+        <v>4-S</v>
+      </c>
       <c r="X124" s="170"/>
       <c r="Y124" s="170"/>
       <c r="Z124" s="170"/>
@@ -9171,27 +9459,61 @@
       <c r="D125" s="48">
         <v>8</v>
       </c>
-      <c r="E125" s="19"/>
+      <c r="E125" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="F125" s="20"/>
       <c r="G125" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="170"/>
-      <c r="I125" s="170"/>
-      <c r="J125" s="170"/>
-      <c r="K125" s="170"/>
-      <c r="L125" s="170"/>
+      <c r="H125" s="205" t="s">
+        <v>131</v>
+      </c>
+      <c r="I125" s="170">
+        <v>16</v>
+      </c>
+      <c r="J125" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$P$3</v>
+      </c>
+      <c r="K125" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$P$41</v>
+      </c>
+      <c r="L125" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M125" s="170"/>
-      <c r="N125" s="170"/>
-      <c r="O125" s="170"/>
-      <c r="P125" s="170"/>
-      <c r="Q125" s="170"/>
-      <c r="R125" s="170"/>
+      <c r="N125" s="11">
+        <v>16</v>
+      </c>
+      <c r="O125" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="P125" s="170" t="str">
+        <f>ADDRESS(N125,3)</f>
+        <v>$C$16</v>
+      </c>
+      <c r="Q125" s="170" t="str">
+        <f>ADDRESS(N125,39)</f>
+        <v>$AM$16</v>
+      </c>
+      <c r="R125" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S125" s="170"/>
       <c r="T125" s="170"/>
-      <c r="U125" s="170"/>
-      <c r="V125" s="170"/>
-      <c r="W125" s="170"/>
+      <c r="U125" s="170">
+        <v>6</v>
+      </c>
+      <c r="V125" s="170">
+        <v>0</v>
+      </c>
+      <c r="W125" s="170" t="str">
+        <v>4-N</v>
+      </c>
       <c r="X125" s="170"/>
       <c r="Y125" s="170"/>
       <c r="Z125" s="170"/>
@@ -9231,27 +9553,61 @@
       <c r="D126" s="48">
         <v>8</v>
       </c>
-      <c r="E126" s="19"/>
+      <c r="E126" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="F126" s="20"/>
       <c r="G126" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="170"/>
-      <c r="I126" s="170"/>
-      <c r="J126" s="170"/>
-      <c r="K126" s="170"/>
-      <c r="L126" s="170"/>
+      <c r="H126" s="205" t="s">
+        <v>751</v>
+      </c>
+      <c r="I126" s="170">
+        <v>19</v>
+      </c>
+      <c r="J126" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$S$3</v>
+      </c>
+      <c r="K126" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$S$41</v>
+      </c>
+      <c r="L126" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M126" s="170"/>
-      <c r="N126" s="170"/>
-      <c r="O126" s="170"/>
-      <c r="P126" s="170"/>
-      <c r="Q126" s="170"/>
-      <c r="R126" s="170"/>
+      <c r="N126" s="11">
+        <v>19</v>
+      </c>
+      <c r="O126" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="P126" s="170" t="str">
+        <f>ADDRESS(N126,3)</f>
+        <v>$C$19</v>
+      </c>
+      <c r="Q126" s="170" t="str">
+        <f>ADDRESS(N126,39)</f>
+        <v>$AM$19</v>
+      </c>
+      <c r="R126" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
       <c r="S126" s="170"/>
       <c r="T126" s="170"/>
-      <c r="U126" s="170"/>
-      <c r="V126" s="170"/>
-      <c r="W126" s="170"/>
+      <c r="U126" s="170">
+        <v>7</v>
+      </c>
+      <c r="V126" s="170">
+        <v>0</v>
+      </c>
+      <c r="W126" s="170" t="str">
+        <v>AE-E</v>
+      </c>
       <c r="X126" s="170"/>
       <c r="Y126" s="170"/>
       <c r="Z126" s="170"/>
@@ -9291,27 +9647,61 @@
       <c r="D127" s="48">
         <v>8</v>
       </c>
-      <c r="E127" s="19"/>
+      <c r="E127" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="F127" s="20"/>
       <c r="G127" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H127" s="170"/>
-      <c r="I127" s="170"/>
-      <c r="J127" s="170"/>
-      <c r="K127" s="170"/>
-      <c r="L127" s="170"/>
+      <c r="H127" s="205" t="s">
+        <v>752</v>
+      </c>
+      <c r="I127" s="170">
+        <v>22</v>
+      </c>
+      <c r="J127" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$V$3</v>
+      </c>
+      <c r="K127" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$V$41</v>
+      </c>
+      <c r="L127" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M127" s="170"/>
-      <c r="N127" s="170"/>
-      <c r="O127" s="170"/>
-      <c r="P127" s="170"/>
-      <c r="Q127" s="170"/>
-      <c r="R127" s="170"/>
+      <c r="N127" s="11">
+        <v>24</v>
+      </c>
+      <c r="O127" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P127" s="170" t="str">
+        <f>ADDRESS(N127,3)</f>
+        <v>$C$24</v>
+      </c>
+      <c r="Q127" s="170" t="str">
+        <f>ADDRESS(N127,39)</f>
+        <v>$AM$24</v>
+      </c>
+      <c r="R127" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
       <c r="S127" s="170"/>
       <c r="T127" s="170"/>
-      <c r="U127" s="170"/>
-      <c r="V127" s="170"/>
-      <c r="W127" s="170"/>
+      <c r="U127" s="170">
+        <v>8</v>
+      </c>
+      <c r="V127" s="170">
+        <v>0</v>
+      </c>
+      <c r="W127" s="170" t="str">
+        <v>37-N</v>
+      </c>
       <c r="X127" s="170"/>
       <c r="Y127" s="170"/>
       <c r="Z127" s="170"/>
@@ -9351,27 +9741,61 @@
       <c r="D128" s="48">
         <v>8</v>
       </c>
-      <c r="E128" s="19"/>
+      <c r="E128" s="19" t="s">
+        <v>737</v>
+      </c>
       <c r="F128" s="20"/>
       <c r="G128" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H128" s="170"/>
-      <c r="I128" s="170"/>
-      <c r="J128" s="170"/>
-      <c r="K128" s="170"/>
-      <c r="L128" s="170"/>
+      <c r="H128" s="205" t="s">
+        <v>136</v>
+      </c>
+      <c r="I128" s="170">
+        <v>27</v>
+      </c>
+      <c r="J128" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$AA$3</v>
+      </c>
+      <c r="K128" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$AA$41</v>
+      </c>
+      <c r="L128" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M128" s="170"/>
-      <c r="N128" s="170"/>
-      <c r="O128" s="170"/>
-      <c r="P128" s="170"/>
-      <c r="Q128" s="170"/>
-      <c r="R128" s="170"/>
+      <c r="N128" s="11">
+        <v>27</v>
+      </c>
+      <c r="O128" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="P128" s="170" t="str">
+        <f>ADDRESS(N128,3)</f>
+        <v>$C$27</v>
+      </c>
+      <c r="Q128" s="170" t="str">
+        <f>ADDRESS(N128,39)</f>
+        <v>$AM$27</v>
+      </c>
+      <c r="R128" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S128" s="170"/>
       <c r="T128" s="170"/>
-      <c r="U128" s="170"/>
-      <c r="V128" s="170"/>
-      <c r="W128" s="170"/>
+      <c r="U128" s="170">
+        <v>9</v>
+      </c>
+      <c r="V128" s="170">
+        <v>0</v>
+      </c>
+      <c r="W128" s="170" t="str">
+        <v>17-S</v>
+      </c>
       <c r="X128" s="170"/>
       <c r="Y128" s="170"/>
       <c r="Z128" s="170"/>
@@ -9411,27 +9835,61 @@
       <c r="D129" s="48">
         <v>8</v>
       </c>
-      <c r="E129" s="19"/>
+      <c r="E129" s="19" t="s">
+        <v>226</v>
+      </c>
       <c r="F129" s="20"/>
       <c r="G129" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="170"/>
-      <c r="I129" s="170"/>
-      <c r="J129" s="170"/>
-      <c r="K129" s="170"/>
-      <c r="L129" s="170"/>
+      <c r="H129" s="205" t="s">
+        <v>228</v>
+      </c>
+      <c r="I129" s="170">
+        <v>30</v>
+      </c>
+      <c r="J129" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$AD$3</v>
+      </c>
+      <c r="K129" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$AD$41</v>
+      </c>
+      <c r="L129" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M129" s="170"/>
-      <c r="N129" s="170"/>
-      <c r="O129" s="170"/>
-      <c r="P129" s="170"/>
-      <c r="Q129" s="170"/>
-      <c r="R129" s="170"/>
+      <c r="N129" s="11">
+        <v>31</v>
+      </c>
+      <c r="O129" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="P129" s="170" t="str">
+        <f>ADDRESS(N129,3)</f>
+        <v>$C$31</v>
+      </c>
+      <c r="Q129" s="170" t="str">
+        <f>ADDRESS(N129,39)</f>
+        <v>$AM$31</v>
+      </c>
+      <c r="R129" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S129" s="170"/>
       <c r="T129" s="170"/>
-      <c r="U129" s="170"/>
-      <c r="V129" s="170"/>
-      <c r="W129" s="170"/>
+      <c r="U129" s="170">
+        <v>10</v>
+      </c>
+      <c r="V129" s="170">
+        <v>0</v>
+      </c>
+      <c r="W129" s="170" t="str">
+        <v>17-N</v>
+      </c>
       <c r="X129" s="170"/>
       <c r="Y129" s="170"/>
       <c r="Z129" s="170"/>
@@ -9471,27 +9929,61 @@
       <c r="D130" s="48">
         <v>8</v>
       </c>
-      <c r="E130" s="19"/>
+      <c r="E130" s="19" t="s">
+        <v>738</v>
+      </c>
       <c r="F130" s="20"/>
       <c r="G130" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H130" s="170"/>
-      <c r="I130" s="170"/>
-      <c r="J130" s="170"/>
-      <c r="K130" s="170"/>
-      <c r="L130" s="170"/>
+      <c r="H130" s="205" t="s">
+        <v>142</v>
+      </c>
+      <c r="I130" s="170">
+        <v>33</v>
+      </c>
+      <c r="J130" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$AG$3</v>
+      </c>
+      <c r="K130" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$AG$41</v>
+      </c>
+      <c r="L130" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M130" s="170"/>
-      <c r="N130" s="170"/>
-      <c r="O130" s="170"/>
-      <c r="P130" s="170"/>
-      <c r="Q130" s="170"/>
-      <c r="R130" s="170"/>
+      <c r="N130" s="11">
+        <v>36</v>
+      </c>
+      <c r="O130" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="P130" s="170" t="str">
+        <f>ADDRESS(N130,3)</f>
+        <v>$C$36</v>
+      </c>
+      <c r="Q130" s="170" t="str">
+        <f>ADDRESS(N130,39)</f>
+        <v>$AM$36</v>
+      </c>
+      <c r="R130" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
       <c r="S130" s="170"/>
       <c r="T130" s="170"/>
-      <c r="U130" s="170"/>
-      <c r="V130" s="170"/>
-      <c r="W130" s="170"/>
+      <c r="U130" s="170">
+        <v>11</v>
+      </c>
+      <c r="V130" s="170">
+        <v>0</v>
+      </c>
+      <c r="W130" s="170" t="str">
+        <v>32-N</v>
+      </c>
       <c r="X130" s="170"/>
       <c r="Y130" s="170"/>
       <c r="Z130" s="170"/>
@@ -9531,27 +10023,61 @@
       <c r="D131" s="48">
         <v>8</v>
       </c>
-      <c r="E131" s="19"/>
+      <c r="E131" s="19" t="s">
+        <v>230</v>
+      </c>
       <c r="F131" s="20"/>
       <c r="G131" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H131" s="170"/>
-      <c r="I131" s="170"/>
-      <c r="J131" s="170"/>
-      <c r="K131" s="170"/>
-      <c r="L131" s="170"/>
+      <c r="H131" s="205" t="s">
+        <v>225</v>
+      </c>
+      <c r="I131" s="170">
+        <v>37</v>
+      </c>
+      <c r="J131" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$AK$3</v>
+      </c>
+      <c r="K131" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$AK$41</v>
+      </c>
+      <c r="L131" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M131" s="170"/>
-      <c r="N131" s="170"/>
-      <c r="O131" s="170"/>
-      <c r="P131" s="170"/>
-      <c r="Q131" s="170"/>
-      <c r="R131" s="170"/>
+      <c r="N131" s="11">
+        <v>39</v>
+      </c>
+      <c r="O131" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="P131" s="170" t="str">
+        <f>ADDRESS(N131,3)</f>
+        <v>$C$39</v>
+      </c>
+      <c r="Q131" s="170" t="str">
+        <f>ADDRESS(N131,39)</f>
+        <v>$AM$39</v>
+      </c>
+      <c r="R131" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S131" s="170"/>
       <c r="T131" s="170"/>
-      <c r="U131" s="170"/>
-      <c r="V131" s="170"/>
-      <c r="W131" s="170"/>
+      <c r="U131" s="170">
+        <v>12</v>
+      </c>
+      <c r="V131" s="170">
+        <v>0</v>
+      </c>
+      <c r="W131" s="170" t="str">
+        <v>M-W</v>
+      </c>
       <c r="X131" s="170"/>
       <c r="Y131" s="170"/>
       <c r="Z131" s="170"/>
@@ -9591,27 +10117,61 @@
       <c r="D132" s="48">
         <v>8</v>
       </c>
-      <c r="E132" s="19"/>
+      <c r="E132" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="F132" s="20"/>
       <c r="G132" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H132" s="170"/>
-      <c r="I132" s="170"/>
-      <c r="J132" s="170"/>
-      <c r="K132" s="170"/>
-      <c r="L132" s="170"/>
+      <c r="H132" s="170" t="s">
+        <v>130</v>
+      </c>
+      <c r="I132" s="170">
+        <v>5</v>
+      </c>
+      <c r="J132" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$E$3</v>
+      </c>
+      <c r="K132" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$E$41</v>
+      </c>
+      <c r="L132" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M132" s="170"/>
-      <c r="N132" s="170"/>
-      <c r="O132" s="170"/>
-      <c r="P132" s="170"/>
-      <c r="Q132" s="170"/>
-      <c r="R132" s="170"/>
+      <c r="N132" s="11">
+        <v>5</v>
+      </c>
+      <c r="O132" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="P132" s="170" t="str">
+        <f>ADDRESS(N132,3)</f>
+        <v>$C$5</v>
+      </c>
+      <c r="Q132" s="170" t="str">
+        <f>ADDRESS(N132,39)</f>
+        <v>$AM$5</v>
+      </c>
+      <c r="R132" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S132" s="170"/>
       <c r="T132" s="170"/>
-      <c r="U132" s="170"/>
-      <c r="V132" s="170"/>
-      <c r="W132" s="170"/>
+      <c r="U132" s="170">
+        <v>13</v>
+      </c>
+      <c r="V132" s="170">
+        <v>0</v>
+      </c>
+      <c r="W132" s="170" t="str">
+        <v>D-W</v>
+      </c>
       <c r="X132" s="170"/>
       <c r="Y132" s="170"/>
       <c r="Z132" s="170"/>
@@ -9651,27 +10211,61 @@
       <c r="D133" s="48">
         <v>8</v>
       </c>
-      <c r="E133" s="19"/>
+      <c r="E133" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="F133" s="20"/>
       <c r="G133" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H133" s="170"/>
-      <c r="I133" s="170"/>
-      <c r="J133" s="170"/>
-      <c r="K133" s="170"/>
-      <c r="L133" s="170"/>
+      <c r="H133" s="170" t="s">
+        <v>150</v>
+      </c>
+      <c r="I133" s="170">
+        <v>9</v>
+      </c>
+      <c r="J133" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$I$3</v>
+      </c>
+      <c r="K133" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$I$41</v>
+      </c>
+      <c r="L133" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="M133" s="170"/>
-      <c r="N133" s="170"/>
-      <c r="O133" s="170"/>
-      <c r="P133" s="170"/>
-      <c r="Q133" s="170"/>
-      <c r="R133" s="170"/>
+      <c r="N133" s="11">
+        <v>10</v>
+      </c>
+      <c r="O133" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="P133" s="170" t="str">
+        <f>ADDRESS(N133,3)</f>
+        <v>$C$10</v>
+      </c>
+      <c r="Q133" s="170" t="str">
+        <f>ADDRESS(N133,39)</f>
+        <v>$AM$10</v>
+      </c>
+      <c r="R133" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S133" s="170"/>
       <c r="T133" s="170"/>
-      <c r="U133" s="170"/>
-      <c r="V133" s="170"/>
-      <c r="W133" s="170"/>
+      <c r="U133" s="170">
+        <v>14</v>
+      </c>
+      <c r="V133" s="170">
+        <v>0</v>
+      </c>
+      <c r="W133" s="170" t="str">
+        <v>32-S</v>
+      </c>
       <c r="X133" s="170"/>
       <c r="Y133" s="170"/>
       <c r="Z133" s="170"/>
@@ -9711,27 +10305,61 @@
       <c r="D134" s="48">
         <v>8</v>
       </c>
-      <c r="E134" s="19"/>
+      <c r="E134" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="F134" s="20"/>
       <c r="G134" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H134" s="170"/>
-      <c r="I134" s="170"/>
-      <c r="J134" s="170"/>
-      <c r="K134" s="170"/>
-      <c r="L134" s="170"/>
+      <c r="H134" s="170" t="s">
+        <v>162</v>
+      </c>
+      <c r="I134" s="170">
+        <v>14</v>
+      </c>
+      <c r="J134" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$N$3</v>
+      </c>
+      <c r="K134" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$N$41</v>
+      </c>
+      <c r="L134" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M134" s="170"/>
-      <c r="N134" s="170"/>
-      <c r="O134" s="170"/>
-      <c r="P134" s="170"/>
-      <c r="Q134" s="170"/>
-      <c r="R134" s="170"/>
+      <c r="N134" s="11">
+        <v>14</v>
+      </c>
+      <c r="O134" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="P134" s="170" t="str">
+        <f>ADDRESS(N134,3)</f>
+        <v>$C$14</v>
+      </c>
+      <c r="Q134" s="170" t="str">
+        <f>ADDRESS(N134,39)</f>
+        <v>$AM$14</v>
+      </c>
+      <c r="R134" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S134" s="170"/>
       <c r="T134" s="170"/>
-      <c r="U134" s="170"/>
-      <c r="V134" s="170"/>
-      <c r="W134" s="170"/>
+      <c r="U134" s="170">
+        <v>15</v>
+      </c>
+      <c r="V134" s="170">
+        <v>0</v>
+      </c>
+      <c r="W134" s="170" t="str">
+        <v>9-S</v>
+      </c>
       <c r="X134" s="170"/>
       <c r="Y134" s="170"/>
       <c r="Z134" s="170"/>
@@ -9771,27 +10399,61 @@
       <c r="D135" s="48">
         <v>8</v>
       </c>
-      <c r="E135" s="19"/>
+      <c r="E135" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="F135" s="20"/>
       <c r="G135" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H135" s="170"/>
-      <c r="I135" s="170"/>
-      <c r="J135" s="170"/>
-      <c r="K135" s="170"/>
-      <c r="L135" s="170"/>
+      <c r="H135" s="170" t="s">
+        <v>134</v>
+      </c>
+      <c r="I135" s="170">
+        <v>18</v>
+      </c>
+      <c r="J135" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$R$3</v>
+      </c>
+      <c r="K135" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$R$41</v>
+      </c>
+      <c r="L135" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M135" s="170"/>
-      <c r="N135" s="170"/>
-      <c r="O135" s="170"/>
-      <c r="P135" s="170"/>
-      <c r="Q135" s="170"/>
-      <c r="R135" s="170"/>
+      <c r="N135" s="11">
+        <v>18</v>
+      </c>
+      <c r="O135" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="P135" s="170" t="str">
+        <f>ADDRESS(N135,3)</f>
+        <v>$C$18</v>
+      </c>
+      <c r="Q135" s="170" t="str">
+        <f>ADDRESS(N135,39)</f>
+        <v>$AM$18</v>
+      </c>
+      <c r="R135" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S135" s="170"/>
       <c r="T135" s="170"/>
-      <c r="U135" s="170"/>
-      <c r="V135" s="170"/>
-      <c r="W135" s="170"/>
+      <c r="U135" s="170">
+        <v>16</v>
+      </c>
+      <c r="V135" s="170">
+        <v>0</v>
+      </c>
+      <c r="W135" s="170" t="str">
+        <v>9-N</v>
+      </c>
       <c r="X135" s="170"/>
       <c r="Y135" s="170"/>
       <c r="Z135" s="170"/>
@@ -9804,7 +10466,9 @@
       <c r="AG135" s="170"/>
       <c r="AH135" s="170"/>
       <c r="AI135" s="170"/>
-      <c r="AJ135" s="170"/>
+      <c r="AJ135" s="170" t="s">
+        <v>144</v>
+      </c>
       <c r="AK135" s="170"/>
       <c r="AL135" s="170"/>
       <c r="AM135" s="170"/>
@@ -9831,27 +10495,61 @@
       <c r="D136" s="48">
         <v>8</v>
       </c>
-      <c r="E136" s="19"/>
+      <c r="E136" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="F136" s="20"/>
       <c r="G136" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="170"/>
-      <c r="I136" s="170"/>
-      <c r="J136" s="170"/>
-      <c r="K136" s="170"/>
-      <c r="L136" s="170"/>
+      <c r="H136" s="170" t="s">
+        <v>137</v>
+      </c>
+      <c r="I136" s="170">
+        <v>21</v>
+      </c>
+      <c r="J136" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$U$3</v>
+      </c>
+      <c r="K136" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$U$41</v>
+      </c>
+      <c r="L136" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M136" s="170"/>
-      <c r="N136" s="170"/>
-      <c r="O136" s="170"/>
-      <c r="P136" s="170"/>
-      <c r="Q136" s="170"/>
-      <c r="R136" s="170"/>
+      <c r="N136" s="11">
+        <v>21</v>
+      </c>
+      <c r="O136" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="P136" s="170" t="str">
+        <f>ADDRESS(N136,3)</f>
+        <v>$C$21</v>
+      </c>
+      <c r="Q136" s="170" t="str">
+        <f>ADDRESS(N136,39)</f>
+        <v>$AM$21</v>
+      </c>
+      <c r="R136" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S136" s="170"/>
       <c r="T136" s="170"/>
-      <c r="U136" s="170"/>
-      <c r="V136" s="170"/>
-      <c r="W136" s="170"/>
+      <c r="U136" s="170">
+        <v>17</v>
+      </c>
+      <c r="V136" s="170">
+        <v>0</v>
+      </c>
+      <c r="W136" s="170" t="str">
+        <v>Q-E</v>
+      </c>
       <c r="X136" s="170"/>
       <c r="Y136" s="170"/>
       <c r="Z136" s="170"/>
@@ -9864,7 +10562,9 @@
       <c r="AG136" s="170"/>
       <c r="AH136" s="170"/>
       <c r="AI136" s="170"/>
-      <c r="AJ136" s="170"/>
+      <c r="AJ136" s="170" t="s">
+        <v>750</v>
+      </c>
       <c r="AK136" s="170"/>
       <c r="AL136" s="170"/>
       <c r="AM136" s="170"/>
@@ -9891,27 +10591,61 @@
       <c r="D137" s="48">
         <v>8</v>
       </c>
-      <c r="E137" s="19"/>
+      <c r="E137" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="F137" s="20"/>
       <c r="G137" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H137" s="170"/>
-      <c r="I137" s="170"/>
-      <c r="J137" s="170"/>
-      <c r="K137" s="170"/>
-      <c r="L137" s="170"/>
+      <c r="H137" s="170" t="s">
+        <v>139</v>
+      </c>
+      <c r="I137" s="170">
+        <v>24</v>
+      </c>
+      <c r="J137" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$X$3</v>
+      </c>
+      <c r="K137" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$X$41</v>
+      </c>
+      <c r="L137" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M137" s="170"/>
-      <c r="N137" s="170"/>
-      <c r="O137" s="170"/>
-      <c r="P137" s="170"/>
-      <c r="Q137" s="170"/>
-      <c r="R137" s="170"/>
+      <c r="N137" s="11">
+        <v>26</v>
+      </c>
+      <c r="O137" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="P137" s="170" t="str">
+        <f>ADDRESS(N137,3)</f>
+        <v>$C$26</v>
+      </c>
+      <c r="Q137" s="170" t="str">
+        <f>ADDRESS(N137,39)</f>
+        <v>$AM$26</v>
+      </c>
+      <c r="R137" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
       <c r="S137" s="170"/>
       <c r="T137" s="170"/>
-      <c r="U137" s="170"/>
-      <c r="V137" s="170"/>
-      <c r="W137" s="170"/>
+      <c r="U137" s="170">
+        <v>18</v>
+      </c>
+      <c r="V137" s="170">
+        <v>0</v>
+      </c>
+      <c r="W137" s="170" t="str">
+        <v>AL-E</v>
+      </c>
       <c r="X137" s="170"/>
       <c r="Y137" s="170"/>
       <c r="Z137" s="170"/>
@@ -9924,7 +10658,9 @@
       <c r="AG137" s="170"/>
       <c r="AH137" s="170"/>
       <c r="AI137" s="170"/>
-      <c r="AJ137" s="170"/>
+      <c r="AJ137" s="170" t="s">
+        <v>147</v>
+      </c>
       <c r="AK137" s="170"/>
       <c r="AL137" s="170"/>
       <c r="AM137" s="170"/>
@@ -9951,27 +10687,61 @@
       <c r="D138" s="48">
         <v>8</v>
       </c>
-      <c r="E138" s="19"/>
+      <c r="E138" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="F138" s="20"/>
       <c r="G138" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H138" s="170"/>
-      <c r="I138" s="170"/>
-      <c r="J138" s="170"/>
-      <c r="K138" s="170"/>
-      <c r="L138" s="170"/>
+      <c r="H138" s="170" t="s">
+        <v>754</v>
+      </c>
+      <c r="I138" s="170">
+        <v>29</v>
+      </c>
+      <c r="J138" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$AC$3</v>
+      </c>
+      <c r="K138" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$AC$41</v>
+      </c>
+      <c r="L138" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M138" s="170"/>
-      <c r="N138" s="170"/>
-      <c r="O138" s="170"/>
-      <c r="P138" s="170"/>
-      <c r="Q138" s="170"/>
-      <c r="R138" s="170"/>
+      <c r="N138" s="11">
+        <v>29</v>
+      </c>
+      <c r="O138" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="P138" s="170" t="str">
+        <f>ADDRESS(N138,3)</f>
+        <v>$C$29</v>
+      </c>
+      <c r="Q138" s="170" t="str">
+        <f>ADDRESS(N138,39)</f>
+        <v>$AM$29</v>
+      </c>
+      <c r="R138" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
       <c r="S138" s="170"/>
       <c r="T138" s="170"/>
-      <c r="U138" s="170"/>
-      <c r="V138" s="170"/>
-      <c r="W138" s="170"/>
+      <c r="U138" s="170">
+        <v>19</v>
+      </c>
+      <c r="V138" s="170">
+        <v>0</v>
+      </c>
+      <c r="W138" s="170" t="str">
+        <v>25-S</v>
+      </c>
       <c r="X138" s="170"/>
       <c r="Y138" s="170"/>
       <c r="Z138" s="170"/>
@@ -9984,7 +10754,9 @@
       <c r="AG138" s="170"/>
       <c r="AH138" s="170"/>
       <c r="AI138" s="170"/>
-      <c r="AJ138" s="170"/>
+      <c r="AJ138" s="170" t="s">
+        <v>131</v>
+      </c>
       <c r="AK138" s="170"/>
       <c r="AL138" s="170"/>
       <c r="AM138" s="170"/>
@@ -10011,27 +10783,61 @@
       <c r="D139" s="48">
         <v>8</v>
       </c>
-      <c r="E139" s="19"/>
+      <c r="E139" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="F139" s="20"/>
       <c r="G139" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H139" s="170"/>
-      <c r="I139" s="170"/>
-      <c r="J139" s="170"/>
-      <c r="K139" s="170"/>
-      <c r="L139" s="170"/>
+      <c r="H139" s="170" t="s">
+        <v>737</v>
+      </c>
+      <c r="I139" s="170">
+        <v>32</v>
+      </c>
+      <c r="J139" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$AF$3</v>
+      </c>
+      <c r="K139" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$AF$41</v>
+      </c>
+      <c r="L139" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M139" s="170"/>
-      <c r="N139" s="170"/>
-      <c r="O139" s="170"/>
-      <c r="P139" s="170"/>
-      <c r="Q139" s="170"/>
-      <c r="R139" s="170"/>
+      <c r="N139" s="11">
+        <v>33</v>
+      </c>
+      <c r="O139" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="P139" s="170" t="str">
+        <f>ADDRESS(N139,3)</f>
+        <v>$C$33</v>
+      </c>
+      <c r="Q139" s="170" t="str">
+        <f>ADDRESS(N139,39)</f>
+        <v>$AM$33</v>
+      </c>
+      <c r="R139" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S139" s="170"/>
       <c r="T139" s="170"/>
-      <c r="U139" s="170"/>
-      <c r="V139" s="170"/>
-      <c r="W139" s="170"/>
+      <c r="U139" s="170">
+        <v>20</v>
+      </c>
+      <c r="V139" s="170">
+        <v>0</v>
+      </c>
+      <c r="W139" s="170" t="str">
+        <v>40-N</v>
+      </c>
       <c r="X139" s="170"/>
       <c r="Y139" s="170"/>
       <c r="Z139" s="170"/>
@@ -10044,7 +10850,9 @@
       <c r="AG139" s="170"/>
       <c r="AH139" s="170"/>
       <c r="AI139" s="170"/>
-      <c r="AJ139" s="170"/>
+      <c r="AJ139" s="170" t="s">
+        <v>751</v>
+      </c>
       <c r="AK139" s="170"/>
       <c r="AL139" s="170"/>
       <c r="AM139" s="170"/>
@@ -10071,27 +10879,61 @@
       <c r="D140" s="48">
         <v>8</v>
       </c>
-      <c r="E140" s="19"/>
+      <c r="E140" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="F140" s="20"/>
       <c r="G140" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H140" s="170"/>
-      <c r="I140" s="170"/>
-      <c r="J140" s="170"/>
-      <c r="K140" s="170"/>
-      <c r="L140" s="170"/>
+      <c r="H140" s="170" t="s">
+        <v>755</v>
+      </c>
+      <c r="I140" s="170">
+        <v>35</v>
+      </c>
+      <c r="J140" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$AI$3</v>
+      </c>
+      <c r="K140" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$AI$41</v>
+      </c>
+      <c r="L140" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M140" s="170"/>
-      <c r="N140" s="170"/>
-      <c r="O140" s="170"/>
-      <c r="P140" s="170"/>
-      <c r="Q140" s="170"/>
-      <c r="R140" s="170"/>
+      <c r="N140" s="11">
+        <v>38</v>
+      </c>
+      <c r="O140" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="P140" s="170" t="str">
+        <f>ADDRESS(N140,3)</f>
+        <v>$C$38</v>
+      </c>
+      <c r="Q140" s="170" t="str">
+        <f>ADDRESS(N140,39)</f>
+        <v>$AM$38</v>
+      </c>
+      <c r="R140" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S140" s="170"/>
       <c r="T140" s="170"/>
-      <c r="U140" s="170"/>
-      <c r="V140" s="170"/>
-      <c r="W140" s="170"/>
+      <c r="U140" s="170">
+        <v>21</v>
+      </c>
+      <c r="V140" s="170">
+        <v>0</v>
+      </c>
+      <c r="W140" s="170" t="str">
+        <v>37-S</v>
+      </c>
       <c r="X140" s="170"/>
       <c r="Y140" s="170"/>
       <c r="Z140" s="170"/>
@@ -10104,7 +10946,9 @@
       <c r="AG140" s="170"/>
       <c r="AH140" s="170"/>
       <c r="AI140" s="170"/>
-      <c r="AJ140" s="170"/>
+      <c r="AJ140" s="170" t="s">
+        <v>752</v>
+      </c>
       <c r="AK140" s="170"/>
       <c r="AL140" s="170"/>
       <c r="AM140" s="170"/>
@@ -10131,27 +10975,61 @@
       <c r="D141" s="48">
         <v>8</v>
       </c>
-      <c r="E141" s="19"/>
+      <c r="E141" s="19" t="s">
+        <v>739</v>
+      </c>
       <c r="F141" s="20"/>
       <c r="G141" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H141" s="170"/>
-      <c r="I141" s="170"/>
-      <c r="J141" s="170"/>
-      <c r="K141" s="170"/>
-      <c r="L141" s="170"/>
+      <c r="H141" s="170" t="s">
+        <v>143</v>
+      </c>
+      <c r="I141" s="170">
+        <v>39</v>
+      </c>
+      <c r="J141" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>$AM$3</v>
+      </c>
+      <c r="K141" s="170" t="str">
+        <f t="shared" si="1"/>
+        <v>$AM$41</v>
+      </c>
+      <c r="L141" s="170">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M141" s="170"/>
-      <c r="N141" s="170"/>
-      <c r="O141" s="170"/>
-      <c r="P141" s="170"/>
-      <c r="Q141" s="170"/>
-      <c r="R141" s="170"/>
+      <c r="N141" s="11">
+        <v>41</v>
+      </c>
+      <c r="O141" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="P141" s="170" t="str">
+        <f>ADDRESS(N141,3)</f>
+        <v>$C$41</v>
+      </c>
+      <c r="Q141" s="170" t="str">
+        <f>ADDRESS(N141,39)</f>
+        <v>$AM$41</v>
+      </c>
+      <c r="R141" s="170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S141" s="170"/>
       <c r="T141" s="170"/>
-      <c r="U141" s="170"/>
-      <c r="V141" s="170"/>
-      <c r="W141" s="170"/>
+      <c r="U141" s="170">
+        <v>22</v>
+      </c>
+      <c r="V141" s="170">
+        <v>0</v>
+      </c>
+      <c r="W141" s="170" t="str">
+        <v>9-N</v>
+      </c>
       <c r="X141" s="170"/>
       <c r="Y141" s="170"/>
       <c r="Z141" s="170"/>
@@ -10164,7 +11042,9 @@
       <c r="AG141" s="170"/>
       <c r="AH141" s="170"/>
       <c r="AI141" s="170"/>
-      <c r="AJ141" s="170"/>
+      <c r="AJ141" s="170" t="s">
+        <v>136</v>
+      </c>
       <c r="AK141" s="170"/>
       <c r="AL141" s="170"/>
       <c r="AM141" s="170"/>
@@ -10191,7 +11071,9 @@
       <c r="D142" s="48">
         <v>8</v>
       </c>
-      <c r="E142" s="19"/>
+      <c r="E142" s="19" t="s">
+        <v>740</v>
+      </c>
       <c r="F142" s="20"/>
       <c r="G142" s="53" t="s">
         <v>15</v>
@@ -10224,7 +11106,9 @@
       <c r="AG142" s="170"/>
       <c r="AH142" s="170"/>
       <c r="AI142" s="170"/>
-      <c r="AJ142" s="170"/>
+      <c r="AJ142" s="170" t="s">
+        <v>228</v>
+      </c>
       <c r="AK142" s="170"/>
       <c r="AL142" s="170"/>
       <c r="AM142" s="170"/>
@@ -10251,7 +11135,9 @@
       <c r="D143" s="48">
         <v>8</v>
       </c>
-      <c r="E143" s="19"/>
+      <c r="E143" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="F143" s="20"/>
       <c r="G143" s="53" t="s">
         <v>4</v>
@@ -10284,7 +11170,9 @@
       <c r="AG143" s="170"/>
       <c r="AH143" s="170"/>
       <c r="AI143" s="170"/>
-      <c r="AJ143" s="170"/>
+      <c r="AJ143" s="170" t="s">
+        <v>142</v>
+      </c>
       <c r="AK143" s="170"/>
       <c r="AL143" s="170"/>
       <c r="AM143" s="170"/>
@@ -10304,6 +11192,9 @@
     <row r="144" spans="2:51" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="F144" s="20"/>
       <c r="K144" s="67"/>
+      <c r="AJ144" s="11" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="145" spans="1:62" s="71" customFormat="1" ht="23.4">
       <c r="A145" s="1"/>
@@ -10316,7 +11207,7 @@
       <c r="D145" s="68"/>
       <c r="E145" s="19" t="str">
         <f>IF(ISERROR(E124),"",E124)&amp;";"&amp;IF(ISERROR(E125),"",E125)&amp;";"&amp;IF(ISERROR(E126),"",E126)&amp;";"&amp;IF(ISERROR(E127),"",E127)&amp;";"&amp;IF(ISERROR(E128),"",E128)&amp;";"&amp;IF(ISERROR(E129),"",E129)&amp;";"&amp;IF(ISERROR(E130),"",E130)&amp;";"&amp;IF(ISERROR(E131),"",E131)&amp;";"&amp;IF(ISERROR(E132),"",E132)&amp;";"&amp;IF(ISERROR(E133),"",E133)&amp;";"&amp;IF(ISERROR(E134),"",E134)&amp;";"&amp;IF(ISERROR(E135),"",E135)&amp;";"&amp;IF(ISERROR(E136),"",E136)&amp;";"&amp;IF(ISERROR(E137),"",E137)&amp;";"&amp;IF(ISERROR(E138),"",E138)&amp;";"&amp;IF(ISERROR(E139),"",E139)&amp;";"&amp;IF(ISERROR(E140),"",E140)&amp;";"&amp;IF(ISERROR(E141),"",E141)&amp;";"&amp;IF(ISERROR(E142),"",E142)&amp;";"&amp;IF(ISERROR(E143),"",E143)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>13-N;H-E;4-S;4-N;AE-E;37-N;17-S;17-N;32-N;M-W;D-W;32-S;9-S;9-N;Q-E;AL-E;25-S;40-N;37-S;9-N</v>
       </c>
       <c r="F145" s="20"/>
       <c r="G145" s="1"/>
@@ -17798,6 +18689,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -17810,11 +18706,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18171,12 +19062,426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C86F8-9B23-4861-8ACF-41D3529592B7}">
+  <dimension ref="A1:AM30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="205"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="207" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="206" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1" s="206"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="207" t="s">
+        <v>747</v>
+      </c>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="207" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" s="206" t="str" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
+        <v>28-Oct-2025</v>
+      </c>
+      <c r="C3" s="206"/>
+    </row>
+    <row r="7" spans="1:39" ht="14.4" thickBot="1"/>
+    <row r="8" spans="1:39">
+      <c r="E8" s="208" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208" t="s">
+        <v>319</v>
+      </c>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
+      <c r="N8" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="O8" s="208"/>
+      <c r="P8" s="208"/>
+      <c r="Q8" s="208"/>
+      <c r="R8" s="208" t="s">
+        <v>321</v>
+      </c>
+      <c r="S8" s="208"/>
+      <c r="T8" s="208"/>
+      <c r="U8" s="208" t="s">
+        <v>322</v>
+      </c>
+      <c r="V8" s="208"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="208" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="208"/>
+      <c r="AA8" s="208"/>
+      <c r="AB8" s="208"/>
+      <c r="AC8" s="208" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD8" s="208"/>
+      <c r="AE8" s="208"/>
+      <c r="AF8" s="208" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
+      <c r="AI8" s="208" t="s">
+        <v>326</v>
+      </c>
+      <c r="AJ8" s="208"/>
+      <c r="AK8" s="208"/>
+      <c r="AL8" s="208"/>
+      <c r="AM8" s="208" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="E11" s="205" t="str" cm="1">
+        <f t="array" ref="E11:E20">_xlfn.TOCOL(E8:AM8,1)</f>
+        <v>D</v>
+      </c>
+      <c r="F11" s="205" cm="1">
+        <f t="array" aca="1" ref="F11:F20" ca="1">COLUMN(INDIRECT(_xlfn.ANCHORARRAY(E11)&amp;1))</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="205">
+        <f ca="1">F11-1</f>
+        <v>3</v>
+      </c>
+      <c r="I11" s="205" t="s">
+        <v>758</v>
+      </c>
+      <c r="J11" s="205" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="E12" s="205" t="str">
+        <v>H</v>
+      </c>
+      <c r="F12" s="205">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="205">
+        <f t="shared" ref="G12:G20" ca="1" si="0">F12-1</f>
+        <v>7</v>
+      </c>
+      <c r="I12" s="205" t="s">
+        <v>759</v>
+      </c>
+      <c r="J12" s="205" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="E13" s="205" t="str">
+        <v>M</v>
+      </c>
+      <c r="F13" s="205">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="G13" s="205">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I13" s="205" t="s">
+        <v>760</v>
+      </c>
+      <c r="J13" s="205" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="E14" s="205" t="str">
+        <v>Q</v>
+      </c>
+      <c r="F14" s="205">
+        <f ca="1"/>
+        <v>17</v>
+      </c>
+      <c r="G14" s="205">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I14" s="205" t="s">
+        <v>761</v>
+      </c>
+      <c r="J14" s="205" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="E15" s="205" t="str">
+        <v>T</v>
+      </c>
+      <c r="F15" s="205">
+        <f ca="1"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="205">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I15" s="205" t="s">
+        <v>762</v>
+      </c>
+      <c r="J15" s="205" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="E16" s="205" t="str">
+        <v>W</v>
+      </c>
+      <c r="F16" s="205">
+        <f ca="1"/>
+        <v>23</v>
+      </c>
+      <c r="G16" s="205">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I16" s="205" t="s">
+        <v>763</v>
+      </c>
+      <c r="J16" s="205" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" s="205" t="str">
+        <v>AB</v>
+      </c>
+      <c r="F17" s="205">
+        <f ca="1"/>
+        <v>28</v>
+      </c>
+      <c r="G17" s="205">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I17" s="205" t="s">
+        <v>764</v>
+      </c>
+      <c r="J17" s="205" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" s="205" t="str">
+        <v>AE</v>
+      </c>
+      <c r="F18" s="205">
+        <f ca="1"/>
+        <v>31</v>
+      </c>
+      <c r="G18" s="205">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I18" s="205" t="s">
+        <v>765</v>
+      </c>
+      <c r="J18" s="205" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" s="205" t="str">
+        <v>AH</v>
+      </c>
+      <c r="F19" s="205">
+        <f ca="1"/>
+        <v>34</v>
+      </c>
+      <c r="G19" s="205">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I19" s="205" t="s">
+        <v>766</v>
+      </c>
+      <c r="J19" s="205" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10">
+      <c r="E20" s="205" t="str">
+        <v>AL</v>
+      </c>
+      <c r="F20" s="205">
+        <f ca="1"/>
+        <v>38</v>
+      </c>
+      <c r="G20" s="205">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I20" s="205" t="s">
+        <v>767</v>
+      </c>
+      <c r="J20" s="205" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="G21" s="205">
+        <f ca="1">F11+1</f>
+        <v>5</v>
+      </c>
+      <c r="I21" s="205" t="s">
+        <v>753</v>
+      </c>
+      <c r="J21" s="205" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="G22" s="205">
+        <f ca="1">F12+1</f>
+        <v>9</v>
+      </c>
+      <c r="I22" s="205" t="s">
+        <v>756</v>
+      </c>
+      <c r="J22" s="205" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="G23" s="205">
+        <f ca="1">F13+1</f>
+        <v>14</v>
+      </c>
+      <c r="I23" s="205" t="s">
+        <v>757</v>
+      </c>
+      <c r="J23" s="205" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="G24" s="205">
+        <f ca="1">F14+1</f>
+        <v>18</v>
+      </c>
+      <c r="I24" s="205" t="s">
+        <v>768</v>
+      </c>
+      <c r="J24" s="205" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10">
+      <c r="G25" s="205">
+        <f ca="1">F15+1</f>
+        <v>21</v>
+      </c>
+      <c r="I25" s="205" t="s">
+        <v>769</v>
+      </c>
+      <c r="J25" s="205" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10">
+      <c r="G26" s="205">
+        <f ca="1">F16+1</f>
+        <v>24</v>
+      </c>
+      <c r="I26" s="205" t="s">
+        <v>770</v>
+      </c>
+      <c r="J26" s="205" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="G27" s="205">
+        <f ca="1">F17+1</f>
+        <v>29</v>
+      </c>
+      <c r="I27" s="205" t="s">
+        <v>771</v>
+      </c>
+      <c r="J27" s="205" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10">
+      <c r="G28" s="205">
+        <f ca="1">F18+1</f>
+        <v>32</v>
+      </c>
+      <c r="I28" s="205" t="s">
+        <v>772</v>
+      </c>
+      <c r="J28" s="205" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10">
+      <c r="G29" s="205">
+        <f ca="1">F19+1</f>
+        <v>35</v>
+      </c>
+      <c r="I29" s="205" t="s">
+        <v>773</v>
+      </c>
+      <c r="J29" s="205" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="G30" s="205">
+        <f ca="1">F20+1</f>
+        <v>39</v>
+      </c>
+      <c r="I30" s="205" t="s">
+        <v>774</v>
+      </c>
+      <c r="J30" s="205" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AFF65A-FECA-460F-9551-F9FBFBAF44DF}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:AU45"/>
+  <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46:Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
@@ -18251,10 +19556,10 @@
       <c r="AM1" s="79"/>
       <c r="AN1" s="79"/>
       <c r="AO1" s="80"/>
-      <c r="AQ1" s="197" t="s">
+      <c r="AQ1" s="203" t="s">
         <v>328</v>
       </c>
-      <c r="AR1" s="198"/>
+      <c r="AR1" s="204"/>
     </row>
     <row r="2" spans="1:45" ht="16.95" customHeight="1" thickBot="1">
       <c r="A2" s="82"/>
@@ -21881,15 +23186,200 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:47" ht="16.95" customHeight="1">
+      <c r="P46" s="81">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="81" t="str">
+        <f>P46&amp;"-N"</f>
+        <v>4-N</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" ht="16.95" customHeight="1">
+      <c r="K47" s="81">
+        <f>COUNTIFS(N3:N41,Case!G122)</f>
+        <v>3</v>
+      </c>
+      <c r="P47" s="81">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="81" t="str">
+        <f t="shared" ref="Q47:Q55" si="0">P47&amp;"-N"</f>
+        <v>9-N</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" ht="16.95" customHeight="1">
+      <c r="P48" s="81">
+        <v>13</v>
+      </c>
+      <c r="Q48" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>13-N</v>
+      </c>
+    </row>
+    <row r="49" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P49" s="81">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>17-N</v>
+      </c>
+    </row>
+    <row r="50" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P50" s="81">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>20-N</v>
+      </c>
+    </row>
+    <row r="51" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P51" s="81">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>25-N</v>
+      </c>
+    </row>
+    <row r="52" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P52" s="81">
+        <v>28</v>
+      </c>
+      <c r="Q52" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>28-N</v>
+      </c>
+    </row>
+    <row r="53" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P53" s="81">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>32-N</v>
+      </c>
+    </row>
+    <row r="54" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P54" s="81">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>37-N</v>
+      </c>
+    </row>
+    <row r="55" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P55" s="81">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>40-N</v>
+      </c>
+    </row>
+    <row r="56" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P56" s="81">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="81" t="str">
+        <f>P56&amp;"-S"</f>
+        <v>4-S</v>
+      </c>
+    </row>
+    <row r="57" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P57" s="81">
+        <v>9</v>
+      </c>
+      <c r="Q57" s="81" t="str">
+        <f t="shared" ref="Q57:Q65" si="1">P57&amp;"-S"</f>
+        <v>9-S</v>
+      </c>
+    </row>
+    <row r="58" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P58" s="81">
+        <v>13</v>
+      </c>
+      <c r="Q58" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v>13-S</v>
+      </c>
+    </row>
+    <row r="59" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P59" s="81">
+        <v>17</v>
+      </c>
+      <c r="Q59" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v>17-S</v>
+      </c>
+    </row>
+    <row r="60" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P60" s="81">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v>20-S</v>
+      </c>
+    </row>
+    <row r="61" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P61" s="81">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v>25-S</v>
+      </c>
+    </row>
+    <row r="62" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P62" s="81">
+        <v>28</v>
+      </c>
+      <c r="Q62" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v>28-S</v>
+      </c>
+    </row>
+    <row r="63" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P63" s="81">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v>32-S</v>
+      </c>
+    </row>
+    <row r="64" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P64" s="81">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v>37-S</v>
+      </c>
+    </row>
+    <row r="65" spans="16:17" ht="16.95" customHeight="1">
+      <c r="P65" s="81">
+        <v>40</v>
+      </c>
+      <c r="Q65" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v>40-S</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649FC809-6C3F-4474-AABC-EFED5043D93C}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C25"/>
@@ -22083,7 +23573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A3086-7997-4A71-AB5E-2F045CDD57B9}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D42"/>
@@ -22500,7 +23990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F83D79C-7B68-4C11-98B8-F99997937AEE}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:D380"/>
@@ -26670,12 +28160,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB505C8-B5A5-43E7-BDB1-CEB8314A9C64}">
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -26694,20 +28184,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="59.25" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="188"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="194"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1"/>
     <row r="4" spans="2:16" ht="33" customHeight="1">
@@ -26750,52 +28240,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
     </row>
     <row r="9" spans="2:16" ht="162" customHeight="1">
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
     </row>
     <row r="10" spans="2:16" ht="245.4" customHeight="1">
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="198" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -26875,15 +28365,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="193" t="s">
+      <c r="G16" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="195"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="201"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -26902,15 +28392,15 @@
         <f>IF(ISBLANK(Case!E17),0,IF(E17=Case!E17,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="196" t="s">
+      <c r="G17" s="202" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="196"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="202"/>
+      <c r="M17" s="202"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -27073,11 +28563,11 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="L26" s="199">
+      <c r="L26" s="186">
         <f>SUMPRODUCT(--(F:F=1),D:D)</f>
-        <v>460</v>
-      </c>
-      <c r="M26" s="200"/>
+        <v>620</v>
+      </c>
+      <c r="M26" s="187"/>
     </row>
     <row r="27" spans="2:13" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="B27" s="28" t="s">
@@ -27087,8 +28577,8 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="202"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="189"/>
     </row>
     <row r="28" spans="2:13" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="B28" s="29"/>
@@ -27096,8 +28586,8 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="L28" s="203"/>
-      <c r="M28" s="204"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="191"/>
     </row>
     <row r="29" spans="2:13" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="B29" s="31" t="s">
@@ -29155,7 +30645,7 @@
       </c>
       <c r="F124" s="20">
         <f>IF(ISBLANK(Case!E124),0,IF(E124=Case!E124,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="59" t="s">
         <v>1</v>
@@ -29185,7 +30675,7 @@
       </c>
       <c r="F125" s="20">
         <f>IF(ISBLANK(Case!E125),0,IF(E125=Case!E125,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="39" t="s">
         <v>18</v>
@@ -29215,7 +30705,7 @@
       </c>
       <c r="F126" s="20">
         <f>IF(ISBLANK(Case!E126),0,IF(E126=Case!E126,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="49" t="s">
         <v>11</v>
@@ -29245,7 +30735,7 @@
       </c>
       <c r="F127" s="20">
         <f>IF(ISBLANK(Case!E127),0,IF(E127=Case!E127,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="51" t="s">
         <v>5</v>
@@ -29275,7 +30765,7 @@
       </c>
       <c r="F128" s="20">
         <f>IF(ISBLANK(Case!E128),0,IF(E128=Case!E128,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="57" t="s">
         <v>17</v>
@@ -29305,7 +30795,7 @@
       </c>
       <c r="F129" s="20">
         <f>IF(ISBLANK(Case!E129),0,IF(E129=Case!E129,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="59" t="s">
         <v>12</v>
@@ -29335,7 +30825,7 @@
       </c>
       <c r="F130" s="20">
         <f>IF(ISBLANK(Case!E130),0,IF(E130=Case!E130,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="55" t="s">
         <v>10</v>
@@ -29365,7 +30855,7 @@
       </c>
       <c r="F131" s="20">
         <f>IF(ISBLANK(Case!E131),0,IF(E131=Case!E131,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="53" t="s">
         <v>8</v>
@@ -29395,7 +30885,7 @@
       </c>
       <c r="F132" s="20">
         <f>IF(ISBLANK(Case!E132),0,IF(E132=Case!E132,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="51" t="s">
         <v>21</v>
@@ -29425,7 +30915,7 @@
       </c>
       <c r="F133" s="20">
         <f>IF(ISBLANK(Case!E133),0,IF(E133=Case!E133,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="39" t="s">
         <v>2</v>
@@ -29455,7 +30945,7 @@
       </c>
       <c r="F134" s="20">
         <f>IF(ISBLANK(Case!E134),0,IF(E134=Case!E134,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="49" t="s">
         <v>13</v>
@@ -29485,7 +30975,7 @@
       </c>
       <c r="F135" s="20">
         <f>IF(ISBLANK(Case!E135),0,IF(E135=Case!E135,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" s="55" t="s">
         <v>9</v>
@@ -29515,7 +31005,7 @@
       </c>
       <c r="F136" s="20">
         <f>IF(ISBLANK(Case!E136),0,IF(E136=Case!E136,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="39" t="s">
         <v>20</v>
@@ -29545,7 +31035,7 @@
       </c>
       <c r="F137" s="20">
         <f>IF(ISBLANK(Case!E137),0,IF(E137=Case!E137,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="57" t="s">
         <v>19</v>
@@ -29575,7 +31065,7 @@
       </c>
       <c r="F138" s="20">
         <f>IF(ISBLANK(Case!E138),0,IF(E138=Case!E138,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="65" t="s">
         <v>16</v>
@@ -29605,7 +31095,7 @@
       </c>
       <c r="F139" s="20">
         <f>IF(ISBLANK(Case!E139),0,IF(E139=Case!E139,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="39" t="s">
         <v>3</v>
@@ -29635,7 +31125,7 @@
       </c>
       <c r="F140" s="20">
         <f>IF(ISBLANK(Case!E140),0,IF(E140=Case!E140,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="61" t="s">
         <v>23</v>
@@ -29665,7 +31155,7 @@
       </c>
       <c r="F141" s="20">
         <f>IF(ISBLANK(Case!E141),0,IF(E141=Case!E141,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" s="53" t="s">
         <v>22</v>
@@ -29695,7 +31185,7 @@
       </c>
       <c r="F142" s="20">
         <f>IF(ISBLANK(Case!E142),0,IF(E142=Case!E142,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="53" t="s">
         <v>15</v>
@@ -29725,7 +31215,7 @@
       </c>
       <c r="F143" s="20">
         <f>IF(ISBLANK(Case!E143),0,IF(E143=Case!E143,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" s="53" t="s">
         <v>4</v>
@@ -33877,13 +35367,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -33896,6 +35379,13 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700AFD70-AA34-434E-BC5F-BCE17BFA2059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D26471B-0251-4230-B9E6-5192DBAB483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
   </bookViews>
@@ -3784,6 +3784,12 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="66" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3803,24 +3809,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3862,10 +3850,22 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="64" fillId="11" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="66" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4809,8 +4809,8 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:BJ327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P309" sqref="P309"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G246" sqref="B243:G246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -4835,39 +4835,39 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15" customHeight="1"/>
     <row r="2" spans="2:51" ht="59.25" customHeight="1">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="194"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="192"/>
     </row>
     <row r="3" spans="2:51" ht="15" customHeight="1"/>
     <row r="4" spans="2:51" ht="33" customHeight="1">
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="185"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="189"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="183" t="s">
+      <c r="L4" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="185"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="2:51" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -4915,10 +4915,10 @@
       <c r="AY5"/>
     </row>
     <row r="6" spans="2:51" ht="33" customHeight="1">
-      <c r="L6" s="183" t="s">
+      <c r="L6" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="185"/>
+      <c r="M6" s="189"/>
     </row>
     <row r="7" spans="2:51" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -4926,52 +4926,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:51" ht="21.75" customHeight="1">
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="2:51" ht="162" customHeight="1">
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="2:51" ht="245.4" customHeight="1">
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="196" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
     </row>
     <row r="11" spans="2:51" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -4988,20 +4988,20 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:51" ht="21.75" customHeight="1">
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="185"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
     </row>
     <row r="13" spans="2:51" ht="15" customHeight="1">
       <c r="B13" s="8"/>
@@ -5051,15 +5051,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="199" t="s">
+      <c r="G16" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="201"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="199"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -5073,15 +5073,15 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="202" t="s">
+      <c r="G17" s="200" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="179" t="s">
+      <c r="G18" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="16" t="s">
@@ -5117,15 +5117,15 @@
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="179" t="s">
+      <c r="G19" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="16" t="s">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="179" t="s">
+      <c r="G20" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="16" t="s">
@@ -5161,34 +5161,34 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="180" t="s">
+      <c r="G21" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="182"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="185"/>
+      <c r="M21" s="186"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="183" t="s">
+      <c r="B23" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="185"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="189"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="24"/>
@@ -9195,7 +9195,7 @@
       <c r="G122" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H122" s="205" t="s">
+      <c r="H122" s="179" t="s">
         <v>144</v>
       </c>
       <c r="I122" s="170">
@@ -9221,11 +9221,11 @@
         <v>132</v>
       </c>
       <c r="P122" s="170" t="str">
-        <f>ADDRESS(N122,3)</f>
+        <f t="shared" ref="P122:P141" si="0">ADDRESS(N122,3)</f>
         <v>$C$3</v>
       </c>
       <c r="Q122" s="170" t="str">
-        <f>ADDRESS(N122,39)</f>
+        <f t="shared" ref="Q122:Q141" si="1">ADDRESS(N122,39)</f>
         <v>$AM$3</v>
       </c>
       <c r="R122" s="170">
@@ -9278,22 +9278,22 @@
       <c r="E123" s="42"/>
       <c r="F123" s="20"/>
       <c r="G123" s="43"/>
-      <c r="H123" s="205" t="s">
+      <c r="H123" s="179" t="s">
         <v>750</v>
       </c>
       <c r="I123" s="170">
         <v>7</v>
       </c>
       <c r="J123" s="170" t="str">
-        <f t="shared" ref="J123:J141" si="0">ADDRESS(3,I123)</f>
+        <f t="shared" ref="J123:J141" si="2">ADDRESS(3,I123)</f>
         <v>$G$3</v>
       </c>
       <c r="K123" s="170" t="str">
-        <f t="shared" ref="K123:K141" si="1">ADDRESS(41,I123)</f>
+        <f t="shared" ref="K123:K141" si="3">ADDRESS(41,I123)</f>
         <v>$G$41</v>
       </c>
       <c r="L123" s="170">
-        <f t="shared" ref="L123:L141" ca="1" si="2">COUNTIFS(INDIRECT("CellVille!"&amp;J123&amp;":"&amp;K123),$I$121)</f>
+        <f t="shared" ref="L123:L141" ca="1" si="4">COUNTIFS(INDIRECT("CellVille!"&amp;J123&amp;":"&amp;K123),$I$121)</f>
         <v>0</v>
       </c>
       <c r="M123" s="45"/>
@@ -9304,15 +9304,15 @@
         <v>141</v>
       </c>
       <c r="P123" s="170" t="str">
-        <f>ADDRESS(N123,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$8</v>
       </c>
       <c r="Q123" s="170" t="str">
-        <f>ADDRESS(N123,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$8</v>
       </c>
       <c r="R123" s="170">
-        <f t="shared" ref="R123:R141" ca="1" si="3">COUNTIFS(INDIRECT("CellVille!"&amp;P123&amp;":"&amp;Q123),$I$121)</f>
+        <f t="shared" ref="R123:R141" ca="1" si="5">COUNTIFS(INDIRECT("CellVille!"&amp;P123&amp;":"&amp;Q123),$I$121)</f>
         <v>0</v>
       </c>
       <c r="S123" s="45"/>
@@ -9372,22 +9372,22 @@
       <c r="G124" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H124" s="205" t="s">
+      <c r="H124" s="179" t="s">
         <v>147</v>
       </c>
       <c r="I124" s="170">
         <v>12</v>
       </c>
       <c r="J124" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$L$3</v>
       </c>
       <c r="K124" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$L$41</v>
       </c>
       <c r="L124" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M124" s="170"/>
@@ -9398,15 +9398,15 @@
         <v>140</v>
       </c>
       <c r="P124" s="170" t="str">
-        <f>ADDRESS(N124,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$12</v>
       </c>
       <c r="Q124" s="170" t="str">
-        <f>ADDRESS(N124,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$12</v>
       </c>
       <c r="R124" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S124" s="170"/>
@@ -9466,22 +9466,22 @@
       <c r="G125" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="205" t="s">
+      <c r="H125" s="179" t="s">
         <v>131</v>
       </c>
       <c r="I125" s="170">
         <v>16</v>
       </c>
       <c r="J125" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$P$3</v>
       </c>
       <c r="K125" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$P$41</v>
       </c>
       <c r="L125" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M125" s="170"/>
@@ -9492,15 +9492,15 @@
         <v>230</v>
       </c>
       <c r="P125" s="170" t="str">
-        <f>ADDRESS(N125,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$16</v>
       </c>
       <c r="Q125" s="170" t="str">
-        <f>ADDRESS(N125,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$16</v>
       </c>
       <c r="R125" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S125" s="170"/>
@@ -9560,22 +9560,22 @@
       <c r="G126" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="205" t="s">
+      <c r="H126" s="179" t="s">
         <v>751</v>
       </c>
       <c r="I126" s="170">
         <v>19</v>
       </c>
       <c r="J126" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$S$3</v>
       </c>
       <c r="K126" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$S$41</v>
       </c>
       <c r="L126" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M126" s="170"/>
@@ -9586,15 +9586,15 @@
         <v>775</v>
       </c>
       <c r="P126" s="170" t="str">
-        <f>ADDRESS(N126,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$19</v>
       </c>
       <c r="Q126" s="170" t="str">
-        <f>ADDRESS(N126,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$19</v>
       </c>
       <c r="R126" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="S126" s="170"/>
@@ -9654,22 +9654,22 @@
       <c r="G127" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H127" s="205" t="s">
+      <c r="H127" s="179" t="s">
         <v>752</v>
       </c>
       <c r="I127" s="170">
         <v>22</v>
       </c>
       <c r="J127" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$V$3</v>
       </c>
       <c r="K127" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$V$41</v>
       </c>
       <c r="L127" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="M127" s="170"/>
@@ -9680,15 +9680,15 @@
         <v>133</v>
       </c>
       <c r="P127" s="170" t="str">
-        <f>ADDRESS(N127,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$24</v>
       </c>
       <c r="Q127" s="170" t="str">
-        <f>ADDRESS(N127,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$24</v>
       </c>
       <c r="R127" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="S127" s="170"/>
@@ -9748,22 +9748,22 @@
       <c r="G128" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H128" s="205" t="s">
+      <c r="H128" s="179" t="s">
         <v>136</v>
       </c>
       <c r="I128" s="170">
         <v>27</v>
       </c>
       <c r="J128" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$AA$3</v>
       </c>
       <c r="K128" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$AA$41</v>
       </c>
       <c r="L128" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M128" s="170"/>
@@ -9774,15 +9774,15 @@
         <v>776</v>
       </c>
       <c r="P128" s="170" t="str">
-        <f>ADDRESS(N128,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$27</v>
       </c>
       <c r="Q128" s="170" t="str">
-        <f>ADDRESS(N128,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$27</v>
       </c>
       <c r="R128" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S128" s="170"/>
@@ -9842,22 +9842,22 @@
       <c r="G129" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="205" t="s">
+      <c r="H129" s="179" t="s">
         <v>228</v>
       </c>
       <c r="I129" s="170">
         <v>30</v>
       </c>
       <c r="J129" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$AD$3</v>
       </c>
       <c r="K129" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$AD$41</v>
       </c>
       <c r="L129" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M129" s="170"/>
@@ -9868,15 +9868,15 @@
         <v>146</v>
       </c>
       <c r="P129" s="170" t="str">
-        <f>ADDRESS(N129,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$31</v>
       </c>
       <c r="Q129" s="170" t="str">
-        <f>ADDRESS(N129,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$31</v>
       </c>
       <c r="R129" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S129" s="170"/>
@@ -9936,22 +9936,22 @@
       <c r="G130" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H130" s="205" t="s">
+      <c r="H130" s="179" t="s">
         <v>142</v>
       </c>
       <c r="I130" s="170">
         <v>33</v>
       </c>
       <c r="J130" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$AG$3</v>
       </c>
       <c r="K130" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$AG$41</v>
       </c>
       <c r="L130" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M130" s="170"/>
@@ -9962,15 +9962,15 @@
         <v>226</v>
       </c>
       <c r="P130" s="170" t="str">
-        <f>ADDRESS(N130,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$36</v>
       </c>
       <c r="Q130" s="170" t="str">
-        <f>ADDRESS(N130,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$36</v>
       </c>
       <c r="R130" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="S130" s="170"/>
@@ -10030,22 +10030,22 @@
       <c r="G131" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H131" s="205" t="s">
+      <c r="H131" s="179" t="s">
         <v>225</v>
       </c>
       <c r="I131" s="170">
         <v>37</v>
       </c>
       <c r="J131" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$AK$3</v>
       </c>
       <c r="K131" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$AK$41</v>
       </c>
       <c r="L131" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="M131" s="170"/>
@@ -10056,15 +10056,15 @@
         <v>739</v>
       </c>
       <c r="P131" s="170" t="str">
-        <f>ADDRESS(N131,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$39</v>
       </c>
       <c r="Q131" s="170" t="str">
-        <f>ADDRESS(N131,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$39</v>
       </c>
       <c r="R131" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S131" s="170"/>
@@ -10131,15 +10131,15 @@
         <v>5</v>
       </c>
       <c r="J132" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$E$3</v>
       </c>
       <c r="K132" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$E$41</v>
       </c>
       <c r="L132" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="M132" s="170"/>
@@ -10150,15 +10150,15 @@
         <v>138</v>
       </c>
       <c r="P132" s="170" t="str">
-        <f>ADDRESS(N132,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$5</v>
       </c>
       <c r="Q132" s="170" t="str">
-        <f>ADDRESS(N132,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$5</v>
       </c>
       <c r="R132" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S132" s="170"/>
@@ -10225,15 +10225,15 @@
         <v>9</v>
       </c>
       <c r="J133" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$I$3</v>
       </c>
       <c r="K133" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$I$41</v>
       </c>
       <c r="L133" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="M133" s="170"/>
@@ -10244,15 +10244,15 @@
         <v>145</v>
       </c>
       <c r="P133" s="170" t="str">
-        <f>ADDRESS(N133,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$10</v>
       </c>
       <c r="Q133" s="170" t="str">
-        <f>ADDRESS(N133,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$10</v>
       </c>
       <c r="R133" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S133" s="170"/>
@@ -10319,15 +10319,15 @@
         <v>14</v>
       </c>
       <c r="J134" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$N$3</v>
       </c>
       <c r="K134" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$N$41</v>
       </c>
       <c r="L134" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M134" s="170"/>
@@ -10338,15 +10338,15 @@
         <v>777</v>
       </c>
       <c r="P134" s="170" t="str">
-        <f>ADDRESS(N134,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$14</v>
       </c>
       <c r="Q134" s="170" t="str">
-        <f>ADDRESS(N134,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$14</v>
       </c>
       <c r="R134" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S134" s="170"/>
@@ -10413,15 +10413,15 @@
         <v>18</v>
       </c>
       <c r="J135" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$R$3</v>
       </c>
       <c r="K135" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$R$41</v>
       </c>
       <c r="L135" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="M135" s="170"/>
@@ -10432,15 +10432,15 @@
         <v>738</v>
       </c>
       <c r="P135" s="170" t="str">
-        <f>ADDRESS(N135,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$18</v>
       </c>
       <c r="Q135" s="170" t="str">
-        <f>ADDRESS(N135,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$18</v>
       </c>
       <c r="R135" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S135" s="170"/>
@@ -10509,15 +10509,15 @@
         <v>21</v>
       </c>
       <c r="J136" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$U$3</v>
       </c>
       <c r="K136" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$U$41</v>
       </c>
       <c r="L136" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M136" s="170"/>
@@ -10528,15 +10528,15 @@
         <v>229</v>
       </c>
       <c r="P136" s="170" t="str">
-        <f>ADDRESS(N136,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$21</v>
       </c>
       <c r="Q136" s="170" t="str">
-        <f>ADDRESS(N136,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$21</v>
       </c>
       <c r="R136" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S136" s="170"/>
@@ -10605,15 +10605,15 @@
         <v>24</v>
       </c>
       <c r="J137" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$X$3</v>
       </c>
       <c r="K137" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$X$41</v>
       </c>
       <c r="L137" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="M137" s="170"/>
@@ -10624,15 +10624,15 @@
         <v>148</v>
       </c>
       <c r="P137" s="170" t="str">
-        <f>ADDRESS(N137,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$26</v>
       </c>
       <c r="Q137" s="170" t="str">
-        <f>ADDRESS(N137,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$26</v>
       </c>
       <c r="R137" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="S137" s="170"/>
@@ -10701,15 +10701,15 @@
         <v>29</v>
       </c>
       <c r="J138" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$AC$3</v>
       </c>
       <c r="K138" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$AC$41</v>
       </c>
       <c r="L138" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="M138" s="170"/>
@@ -10720,15 +10720,15 @@
         <v>227</v>
       </c>
       <c r="P138" s="170" t="str">
-        <f>ADDRESS(N138,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$29</v>
       </c>
       <c r="Q138" s="170" t="str">
-        <f>ADDRESS(N138,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$29</v>
       </c>
       <c r="R138" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="S138" s="170"/>
@@ -10797,15 +10797,15 @@
         <v>32</v>
       </c>
       <c r="J139" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$AF$3</v>
       </c>
       <c r="K139" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$AF$41</v>
       </c>
       <c r="L139" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="M139" s="170"/>
@@ -10816,15 +10816,15 @@
         <v>135</v>
       </c>
       <c r="P139" s="170" t="str">
-        <f>ADDRESS(N139,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$33</v>
       </c>
       <c r="Q139" s="170" t="str">
-        <f>ADDRESS(N139,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$33</v>
       </c>
       <c r="R139" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S139" s="170"/>
@@ -10893,15 +10893,15 @@
         <v>35</v>
       </c>
       <c r="J140" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$AI$3</v>
       </c>
       <c r="K140" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$AI$41</v>
       </c>
       <c r="L140" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M140" s="170"/>
@@ -10912,15 +10912,15 @@
         <v>740</v>
       </c>
       <c r="P140" s="170" t="str">
-        <f>ADDRESS(N140,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$38</v>
       </c>
       <c r="Q140" s="170" t="str">
-        <f>ADDRESS(N140,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$38</v>
       </c>
       <c r="R140" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S140" s="170"/>
@@ -10989,15 +10989,15 @@
         <v>39</v>
       </c>
       <c r="J141" s="170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>$AM$3</v>
       </c>
       <c r="K141" s="170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>$AM$41</v>
       </c>
       <c r="L141" s="170">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M141" s="170"/>
@@ -11008,15 +11008,15 @@
         <v>778</v>
       </c>
       <c r="P141" s="170" t="str">
-        <f>ADDRESS(N141,3)</f>
+        <f t="shared" si="0"/>
         <v>$C$41</v>
       </c>
       <c r="Q141" s="170" t="str">
-        <f>ADDRESS(N141,39)</f>
+        <f t="shared" si="1"/>
         <v>$AM$41</v>
       </c>
       <c r="R141" s="170">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S141" s="170"/>
@@ -11276,20 +11276,20 @@
       <c r="K147" s="67"/>
     </row>
     <row r="148" spans="1:62" ht="23.4">
-      <c r="B148" s="183" t="s">
+      <c r="B148" s="187" t="s">
         <v>163</v>
       </c>
-      <c r="C148" s="184"/>
-      <c r="D148" s="184"/>
-      <c r="E148" s="184"/>
-      <c r="F148" s="184"/>
-      <c r="G148" s="184"/>
-      <c r="H148" s="184"/>
-      <c r="I148" s="184"/>
-      <c r="J148" s="184"/>
-      <c r="K148" s="184"/>
-      <c r="L148" s="184"/>
-      <c r="M148" s="185"/>
+      <c r="C148" s="188"/>
+      <c r="D148" s="188"/>
+      <c r="E148" s="188"/>
+      <c r="F148" s="188"/>
+      <c r="G148" s="188"/>
+      <c r="H148" s="188"/>
+      <c r="I148" s="188"/>
+      <c r="J148" s="188"/>
+      <c r="K148" s="188"/>
+      <c r="L148" s="188"/>
+      <c r="M148" s="189"/>
     </row>
     <row r="149" spans="1:62" ht="15" customHeight="1" thickBot="1">
       <c r="B149" s="24"/>
@@ -15094,20 +15094,20 @@
       <c r="K232" s="67"/>
     </row>
     <row r="233" spans="1:62" ht="23.4">
-      <c r="B233" s="183" t="s">
+      <c r="B233" s="187" t="s">
         <v>211</v>
       </c>
-      <c r="C233" s="184"/>
-      <c r="D233" s="184"/>
-      <c r="E233" s="184"/>
-      <c r="F233" s="184"/>
-      <c r="G233" s="184"/>
-      <c r="H233" s="184"/>
-      <c r="I233" s="184"/>
-      <c r="J233" s="184"/>
-      <c r="K233" s="184"/>
-      <c r="L233" s="184"/>
-      <c r="M233" s="185"/>
+      <c r="C233" s="188"/>
+      <c r="D233" s="188"/>
+      <c r="E233" s="188"/>
+      <c r="F233" s="188"/>
+      <c r="G233" s="188"/>
+      <c r="H233" s="188"/>
+      <c r="I233" s="188"/>
+      <c r="J233" s="188"/>
+      <c r="K233" s="188"/>
+      <c r="L233" s="188"/>
+      <c r="M233" s="189"/>
     </row>
     <row r="234" spans="1:62" ht="15" customHeight="1" thickBot="1">
       <c r="B234" s="24"/>
@@ -18689,11 +18689,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -18706,6 +18701,11 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19071,401 +19071,401 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="205"/>
+    <col min="1" max="16384" width="8.796875" style="179"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="181" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="180" t="s">
         <v>748</v>
       </c>
-      <c r="C1" s="206"/>
+      <c r="C1" s="180"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="181" t="s">
         <v>747</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="181" t="s">
         <v>746</v>
       </c>
-      <c r="B3" s="206" t="str" cm="1">
+      <c r="B3" s="180" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
         <v>28-Oct-2025</v>
       </c>
-      <c r="C3" s="206"/>
+      <c r="C3" s="180"/>
     </row>
     <row r="7" spans="1:39" ht="14.4" thickBot="1"/>
     <row r="8" spans="1:39">
-      <c r="E8" s="208" t="s">
+      <c r="E8" s="182" t="s">
         <v>318</v>
       </c>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208" t="s">
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182" t="s">
         <v>319</v>
       </c>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="208"/>
-      <c r="N8" s="208" t="s">
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182" t="s">
         <v>320</v>
       </c>
-      <c r="O8" s="208"/>
-      <c r="P8" s="208"/>
-      <c r="Q8" s="208"/>
-      <c r="R8" s="208" t="s">
+      <c r="O8" s="182"/>
+      <c r="P8" s="182"/>
+      <c r="Q8" s="182"/>
+      <c r="R8" s="182" t="s">
         <v>321</v>
       </c>
-      <c r="S8" s="208"/>
-      <c r="T8" s="208"/>
-      <c r="U8" s="208" t="s">
+      <c r="S8" s="182"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182" t="s">
         <v>322</v>
       </c>
-      <c r="V8" s="208"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="208" t="s">
+      <c r="V8" s="182"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="182" t="s">
         <v>323</v>
       </c>
-      <c r="Y8" s="208"/>
-      <c r="Z8" s="208"/>
-      <c r="AA8" s="208"/>
-      <c r="AB8" s="208"/>
-      <c r="AC8" s="208" t="s">
+      <c r="Y8" s="182"/>
+      <c r="Z8" s="182"/>
+      <c r="AA8" s="182"/>
+      <c r="AB8" s="182"/>
+      <c r="AC8" s="182" t="s">
         <v>324</v>
       </c>
-      <c r="AD8" s="208"/>
-      <c r="AE8" s="208"/>
-      <c r="AF8" s="208" t="s">
+      <c r="AD8" s="182"/>
+      <c r="AE8" s="182"/>
+      <c r="AF8" s="182" t="s">
         <v>325</v>
       </c>
-      <c r="AG8" s="208"/>
-      <c r="AH8" s="208"/>
-      <c r="AI8" s="208" t="s">
+      <c r="AG8" s="182"/>
+      <c r="AH8" s="182"/>
+      <c r="AI8" s="182" t="s">
         <v>326</v>
       </c>
-      <c r="AJ8" s="208"/>
-      <c r="AK8" s="208"/>
-      <c r="AL8" s="208"/>
-      <c r="AM8" s="208" t="s">
+      <c r="AJ8" s="182"/>
+      <c r="AK8" s="182"/>
+      <c r="AL8" s="182"/>
+      <c r="AM8" s="182" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="E11" s="205" t="str" cm="1">
+      <c r="E11" s="179" t="str" cm="1">
         <f t="array" ref="E11:E20">_xlfn.TOCOL(E8:AM8,1)</f>
         <v>D</v>
       </c>
-      <c r="F11" s="205" cm="1">
+      <c r="F11" s="179" cm="1">
         <f t="array" aca="1" ref="F11:F20" ca="1">COLUMN(INDIRECT(_xlfn.ANCHORARRAY(E11)&amp;1))</f>
         <v>4</v>
       </c>
-      <c r="G11" s="205">
+      <c r="G11" s="179">
         <f ca="1">F11-1</f>
         <v>3</v>
       </c>
-      <c r="I11" s="205" t="s">
+      <c r="I11" s="179" t="s">
         <v>758</v>
       </c>
-      <c r="J11" s="205" t="s">
+      <c r="J11" s="179" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="E12" s="205" t="str">
+      <c r="E12" s="179" t="str">
         <v>H</v>
       </c>
-      <c r="F12" s="205">
+      <c r="F12" s="179">
         <f ca="1"/>
         <v>8</v>
       </c>
-      <c r="G12" s="205">
+      <c r="G12" s="179">
         <f t="shared" ref="G12:G20" ca="1" si="0">F12-1</f>
         <v>7</v>
       </c>
-      <c r="I12" s="205" t="s">
+      <c r="I12" s="179" t="s">
         <v>759</v>
       </c>
-      <c r="J12" s="205" t="s">
+      <c r="J12" s="179" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="E13" s="205" t="str">
+      <c r="E13" s="179" t="str">
         <v>M</v>
       </c>
-      <c r="F13" s="205">
+      <c r="F13" s="179">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="G13" s="205">
+      <c r="G13" s="179">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="I13" s="205" t="s">
+      <c r="I13" s="179" t="s">
         <v>760</v>
       </c>
-      <c r="J13" s="205" t="s">
+      <c r="J13" s="179" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="E14" s="205" t="str">
+      <c r="E14" s="179" t="str">
         <v>Q</v>
       </c>
-      <c r="F14" s="205">
+      <c r="F14" s="179">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="G14" s="205">
+      <c r="G14" s="179">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="I14" s="205" t="s">
+      <c r="I14" s="179" t="s">
         <v>761</v>
       </c>
-      <c r="J14" s="205" t="s">
+      <c r="J14" s="179" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="E15" s="205" t="str">
+      <c r="E15" s="179" t="str">
         <v>T</v>
       </c>
-      <c r="F15" s="205">
+      <c r="F15" s="179">
         <f ca="1"/>
         <v>20</v>
       </c>
-      <c r="G15" s="205">
+      <c r="G15" s="179">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="I15" s="205" t="s">
+      <c r="I15" s="179" t="s">
         <v>762</v>
       </c>
-      <c r="J15" s="205" t="s">
+      <c r="J15" s="179" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="E16" s="205" t="str">
+      <c r="E16" s="179" t="str">
         <v>W</v>
       </c>
-      <c r="F16" s="205">
+      <c r="F16" s="179">
         <f ca="1"/>
         <v>23</v>
       </c>
-      <c r="G16" s="205">
+      <c r="G16" s="179">
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="I16" s="205" t="s">
+      <c r="I16" s="179" t="s">
         <v>763</v>
       </c>
-      <c r="J16" s="205" t="s">
+      <c r="J16" s="179" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="205" t="str">
+      <c r="E17" s="179" t="str">
         <v>AB</v>
       </c>
-      <c r="F17" s="205">
+      <c r="F17" s="179">
         <f ca="1"/>
         <v>28</v>
       </c>
-      <c r="G17" s="205">
+      <c r="G17" s="179">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="I17" s="205" t="s">
+      <c r="I17" s="179" t="s">
         <v>764</v>
       </c>
-      <c r="J17" s="205" t="s">
+      <c r="J17" s="179" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="205" t="str">
+      <c r="E18" s="179" t="str">
         <v>AE</v>
       </c>
-      <c r="F18" s="205">
+      <c r="F18" s="179">
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="G18" s="205">
+      <c r="G18" s="179">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="I18" s="205" t="s">
+      <c r="I18" s="179" t="s">
         <v>765</v>
       </c>
-      <c r="J18" s="205" t="s">
+      <c r="J18" s="179" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="205" t="str">
+      <c r="E19" s="179" t="str">
         <v>AH</v>
       </c>
-      <c r="F19" s="205">
+      <c r="F19" s="179">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="G19" s="205">
+      <c r="G19" s="179">
         <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
-      <c r="I19" s="205" t="s">
+      <c r="I19" s="179" t="s">
         <v>766</v>
       </c>
-      <c r="J19" s="205" t="s">
+      <c r="J19" s="179" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="205" t="str">
+      <c r="E20" s="179" t="str">
         <v>AL</v>
       </c>
-      <c r="F20" s="205">
+      <c r="F20" s="179">
         <f ca="1"/>
         <v>38</v>
       </c>
-      <c r="G20" s="205">
+      <c r="G20" s="179">
         <f t="shared" ca="1" si="0"/>
         <v>37</v>
       </c>
-      <c r="I20" s="205" t="s">
+      <c r="I20" s="179" t="s">
         <v>767</v>
       </c>
-      <c r="J20" s="205" t="s">
+      <c r="J20" s="179" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="G21" s="205">
-        <f ca="1">F11+1</f>
+      <c r="G21" s="179">
+        <f t="shared" ref="G21:G30" ca="1" si="1">F11+1</f>
         <v>5</v>
       </c>
-      <c r="I21" s="205" t="s">
+      <c r="I21" s="179" t="s">
         <v>753</v>
       </c>
-      <c r="J21" s="205" t="s">
+      <c r="J21" s="179" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="5:10">
-      <c r="G22" s="205">
-        <f ca="1">F12+1</f>
+      <c r="G22" s="179">
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="I22" s="205" t="s">
+      <c r="I22" s="179" t="s">
         <v>756</v>
       </c>
-      <c r="J22" s="205" t="s">
+      <c r="J22" s="179" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="G23" s="205">
-        <f ca="1">F13+1</f>
+      <c r="G23" s="179">
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="I23" s="205" t="s">
+      <c r="I23" s="179" t="s">
         <v>757</v>
       </c>
-      <c r="J23" s="205" t="s">
+      <c r="J23" s="179" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="5:10">
-      <c r="G24" s="205">
-        <f ca="1">F14+1</f>
+      <c r="G24" s="179">
+        <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-      <c r="I24" s="205" t="s">
+      <c r="I24" s="179" t="s">
         <v>768</v>
       </c>
-      <c r="J24" s="205" t="s">
+      <c r="J24" s="179" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="G25" s="205">
-        <f ca="1">F15+1</f>
+      <c r="G25" s="179">
+        <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
-      <c r="I25" s="205" t="s">
+      <c r="I25" s="179" t="s">
         <v>769</v>
       </c>
-      <c r="J25" s="205" t="s">
+      <c r="J25" s="179" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="5:10">
-      <c r="G26" s="205">
-        <f ca="1">F16+1</f>
+      <c r="G26" s="179">
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
-      <c r="I26" s="205" t="s">
+      <c r="I26" s="179" t="s">
         <v>770</v>
       </c>
-      <c r="J26" s="205" t="s">
+      <c r="J26" s="179" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="G27" s="205">
-        <f ca="1">F17+1</f>
+      <c r="G27" s="179">
+        <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
-      <c r="I27" s="205" t="s">
+      <c r="I27" s="179" t="s">
         <v>771</v>
       </c>
-      <c r="J27" s="205" t="s">
+      <c r="J27" s="179" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="28" spans="5:10">
-      <c r="G28" s="205">
-        <f ca="1">F18+1</f>
+      <c r="G28" s="179">
+        <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
-      <c r="I28" s="205" t="s">
+      <c r="I28" s="179" t="s">
         <v>772</v>
       </c>
-      <c r="J28" s="205" t="s">
+      <c r="J28" s="179" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="29" spans="5:10">
-      <c r="G29" s="205">
-        <f ca="1">F19+1</f>
+      <c r="G29" s="179">
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
-      <c r="I29" s="205" t="s">
+      <c r="I29" s="179" t="s">
         <v>773</v>
       </c>
-      <c r="J29" s="205" t="s">
+      <c r="J29" s="179" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="30" spans="5:10">
-      <c r="G30" s="205">
-        <f ca="1">F20+1</f>
+      <c r="G30" s="179">
+        <f t="shared" ca="1" si="1"/>
         <v>39</v>
       </c>
-      <c r="I30" s="205" t="s">
+      <c r="I30" s="179" t="s">
         <v>774</v>
       </c>
-      <c r="J30" s="205" t="s">
+      <c r="J30" s="179" t="s">
         <v>143</v>
       </c>
     </row>
@@ -19556,10 +19556,10 @@
       <c r="AM1" s="79"/>
       <c r="AN1" s="79"/>
       <c r="AO1" s="80"/>
-      <c r="AQ1" s="203" t="s">
+      <c r="AQ1" s="201" t="s">
         <v>328</v>
       </c>
-      <c r="AR1" s="204"/>
+      <c r="AR1" s="202"/>
     </row>
     <row r="2" spans="1:45" ht="16.95" customHeight="1" thickBot="1">
       <c r="A2" s="82"/>
@@ -23397,10 +23397,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.8" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="187" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="185"/>
+      <c r="B1" s="189"/>
       <c r="C1" s="153"/>
     </row>
     <row r="2" spans="1:3" ht="16.8" customHeight="1">
@@ -23593,10 +23593,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="187" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="185"/>
+      <c r="B1" s="189"/>
       <c r="C1" s="153"/>
       <c r="D1" s="153"/>
     </row>
@@ -24009,11 +24009,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="187" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="185"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="189"/>
       <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" ht="36.6" customHeight="1">
@@ -28164,8 +28164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB505C8-B5A5-43E7-BDB1-CEB8314A9C64}">
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -28184,39 +28184,39 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="59.25" customHeight="1">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="194"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="192"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1"/>
     <row r="4" spans="2:16" ht="33" customHeight="1">
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="185"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="189"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="183" t="s">
+      <c r="L4" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="185"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="2:16" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -28229,10 +28229,10 @@
       <c r="P5"/>
     </row>
     <row r="6" spans="2:16" ht="33" customHeight="1">
-      <c r="L6" s="183" t="s">
+      <c r="L6" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="185"/>
+      <c r="M6" s="189"/>
     </row>
     <row r="7" spans="2:16" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -28240,52 +28240,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="2:16" ht="162" customHeight="1">
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="2:16" ht="245.4" customHeight="1">
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="196" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -28302,20 +28302,20 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="185"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1">
       <c r="B13" s="8"/>
@@ -28365,15 +28365,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="199" t="s">
+      <c r="G16" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="201"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="199"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -28392,15 +28392,15 @@
         <f>IF(ISBLANK(Case!E17),0,IF(E17=Case!E17,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="202" t="s">
+      <c r="G17" s="200" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -28419,15 +28419,15 @@
         <f>IF(ISBLANK(Case!E18),0,IF(E18=Case!E18,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="179" t="s">
+      <c r="G18" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="16" t="s">
@@ -28446,15 +28446,15 @@
         <f>IF(ISBLANK(Case!E19),0,IF(E19=Case!E19,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="179" t="s">
+      <c r="G19" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="16" t="s">
@@ -28473,15 +28473,15 @@
         <f>IF(ISBLANK(Case!E20),0,IF(E20=Case!E20,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="179" t="s">
+      <c r="G20" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="16" t="s">
@@ -28500,34 +28500,34 @@
         <f>IF(ISBLANK(Case!E21),0,IF(E21=Case!E21,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="180" t="s">
+      <c r="G21" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="182"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="185"/>
+      <c r="M21" s="186"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="183" t="s">
+      <c r="B23" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="185"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="189"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="24"/>
@@ -28553,21 +28553,21 @@
       <c r="D25" s="20"/>
       <c r="E25" s="28"/>
       <c r="F25" s="20"/>
-      <c r="L25" s="183" t="s">
+      <c r="L25" s="187" t="s">
         <v>735</v>
       </c>
-      <c r="M25" s="185"/>
+      <c r="M25" s="189"/>
     </row>
     <row r="26" spans="2:13" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="29"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="L26" s="186">
+      <c r="L26" s="203">
         <f>SUMPRODUCT(--(F:F=1),D:D)</f>
         <v>620</v>
       </c>
-      <c r="M26" s="187"/>
+      <c r="M26" s="204"/>
     </row>
     <row r="27" spans="2:13" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="B27" s="28" t="s">
@@ -28577,8 +28577,8 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="189"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="206"/>
     </row>
     <row r="28" spans="2:13" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="B28" s="29"/>
@@ -28586,8 +28586,8 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="191"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="208"/>
     </row>
     <row r="29" spans="2:13" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="B29" s="31" t="s">
@@ -31279,20 +31279,20 @@
       <c r="K147" s="67"/>
     </row>
     <row r="148" spans="1:27" ht="23.4">
-      <c r="B148" s="183" t="s">
+      <c r="B148" s="187" t="s">
         <v>163</v>
       </c>
-      <c r="C148" s="184"/>
-      <c r="D148" s="184"/>
-      <c r="E148" s="184"/>
-      <c r="F148" s="184"/>
-      <c r="G148" s="184"/>
-      <c r="H148" s="184"/>
-      <c r="I148" s="184"/>
-      <c r="J148" s="184"/>
-      <c r="K148" s="184"/>
-      <c r="L148" s="184"/>
-      <c r="M148" s="185"/>
+      <c r="C148" s="188"/>
+      <c r="D148" s="188"/>
+      <c r="E148" s="188"/>
+      <c r="F148" s="188"/>
+      <c r="G148" s="188"/>
+      <c r="H148" s="188"/>
+      <c r="I148" s="188"/>
+      <c r="J148" s="188"/>
+      <c r="K148" s="188"/>
+      <c r="L148" s="188"/>
+      <c r="M148" s="189"/>
     </row>
     <row r="149" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="B149" s="24"/>
@@ -33246,20 +33246,20 @@
       <c r="K232" s="67"/>
     </row>
     <row r="233" spans="1:27" ht="23.4">
-      <c r="B233" s="183" t="s">
+      <c r="B233" s="187" t="s">
         <v>211</v>
       </c>
-      <c r="C233" s="184"/>
-      <c r="D233" s="184"/>
-      <c r="E233" s="184"/>
-      <c r="F233" s="184"/>
-      <c r="G233" s="184"/>
-      <c r="H233" s="184"/>
-      <c r="I233" s="184"/>
-      <c r="J233" s="184"/>
-      <c r="K233" s="184"/>
-      <c r="L233" s="184"/>
-      <c r="M233" s="185"/>
+      <c r="C233" s="188"/>
+      <c r="D233" s="188"/>
+      <c r="E233" s="188"/>
+      <c r="F233" s="188"/>
+      <c r="G233" s="188"/>
+      <c r="H233" s="188"/>
+      <c r="I233" s="188"/>
+      <c r="J233" s="188"/>
+      <c r="K233" s="188"/>
+      <c r="L233" s="188"/>
+      <c r="M233" s="189"/>
     </row>
     <row r="234" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="B234" s="24"/>
@@ -35367,6 +35367,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -35379,13 +35386,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D26471B-0251-4230-B9E6-5192DBAB483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987D073-7C6F-4AD2-A96E-98BED69DBA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
   </bookViews>
@@ -22,6 +22,8 @@
     <sheet name="Answers" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_nA">Case!$Y$122:$Y$161</definedName>
+    <definedName name="_nR">Case!$X$122:$X$161</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="779">
   <si>
     <t>Juan José Cifuentes</t>
   </si>
@@ -3793,14 +3795,14 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3809,15 +3811,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3843,6 +3836,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4809,8 +4811,8 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:BJ327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G246" sqref="B243:G246"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -4828,27 +4830,29 @@
     <col min="14" max="14" width="15.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.59765625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="50" width="6.69921875" style="1" customWidth="1"/>
+    <col min="17" max="24" width="6.69921875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.8984375" style="1" customWidth="1"/>
+    <col min="26" max="50" width="6.69921875" style="1" customWidth="1"/>
     <col min="51" max="51" width="64.3984375" style="1" customWidth="1"/>
     <col min="52" max="16384" width="15.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="15" customHeight="1"/>
     <row r="2" spans="2:51" ht="59.25" customHeight="1">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="192"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="186"/>
     </row>
     <row r="3" spans="2:51" ht="15" customHeight="1"/>
     <row r="4" spans="2:51" ht="33" customHeight="1">
@@ -4926,52 +4930,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:51" ht="21.75" customHeight="1">
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
     </row>
     <row r="9" spans="2:51" ht="162" customHeight="1">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
     </row>
     <row r="10" spans="2:51" ht="245.4" customHeight="1">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="193" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
     </row>
     <row r="11" spans="2:51" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -5051,15 +5055,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="197" t="s">
+      <c r="G16" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="199"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="196"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -5073,15 +5077,15 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="200" t="s">
+      <c r="G17" s="197" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -5161,15 +5165,15 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="184" t="s">
+      <c r="G21" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="185"/>
-      <c r="M21" s="186"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="200"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
@@ -9245,8 +9249,13 @@
       <c r="W122" s="170" t="str">
         <v>13-N</v>
       </c>
-      <c r="X122" s="170"/>
-      <c r="Y122" s="170"/>
+      <c r="X122" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y122" s="170" t="str">
+        <f>"CellVille!"&amp;P122&amp;":"&amp;Q122</f>
+        <v>CellVille!$C$3:$AM$3</v>
+      </c>
       <c r="Z122" s="170"/>
       <c r="AA122" s="170"/>
       <c r="AB122" s="170"/>
@@ -9323,11 +9332,16 @@
       <c r="V123" s="45">
         <v>0</v>
       </c>
-      <c r="W123" s="45" t="str">
+      <c r="W123" s="170" t="str">
         <v>H-E</v>
       </c>
-      <c r="X123" s="45"/>
-      <c r="Y123" s="45"/>
+      <c r="X123" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y123" s="170" t="str">
+        <f>"CellVille!"&amp;P123&amp;":"&amp;Q123</f>
+        <v>CellVille!$C$8:$AM$8</v>
+      </c>
       <c r="Z123" s="45"/>
       <c r="AA123" s="45"/>
       <c r="AB123" s="45"/>
@@ -9420,8 +9434,13 @@
       <c r="W124" s="170" t="str">
         <v>4-S</v>
       </c>
-      <c r="X124" s="170"/>
-      <c r="Y124" s="170"/>
+      <c r="X124" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y124" s="170" t="str">
+        <f>"CellVille!"&amp;P124&amp;":"&amp;Q124</f>
+        <v>CellVille!$C$12:$AM$12</v>
+      </c>
       <c r="Z124" s="170"/>
       <c r="AA124" s="170"/>
       <c r="AB124" s="170"/>
@@ -9514,8 +9533,13 @@
       <c r="W125" s="170" t="str">
         <v>4-N</v>
       </c>
-      <c r="X125" s="170"/>
-      <c r="Y125" s="170"/>
+      <c r="X125" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y125" s="170" t="str">
+        <f>"CellVille!"&amp;P125&amp;":"&amp;Q125</f>
+        <v>CellVille!$C$16:$AM$16</v>
+      </c>
       <c r="Z125" s="170"/>
       <c r="AA125" s="170"/>
       <c r="AB125" s="170"/>
@@ -9608,8 +9632,13 @@
       <c r="W126" s="170" t="str">
         <v>AE-E</v>
       </c>
-      <c r="X126" s="170"/>
-      <c r="Y126" s="170"/>
+      <c r="X126" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y126" s="170" t="str">
+        <f>"CellVille!"&amp;P126&amp;":"&amp;Q126</f>
+        <v>CellVille!$C$19:$AM$19</v>
+      </c>
       <c r="Z126" s="170"/>
       <c r="AA126" s="170"/>
       <c r="AB126" s="170"/>
@@ -9702,8 +9731,13 @@
       <c r="W127" s="170" t="str">
         <v>37-N</v>
       </c>
-      <c r="X127" s="170"/>
-      <c r="Y127" s="170"/>
+      <c r="X127" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y127" s="170" t="str">
+        <f>"CellVille!"&amp;P127&amp;":"&amp;Q127</f>
+        <v>CellVille!$C$24:$AM$24</v>
+      </c>
       <c r="Z127" s="170"/>
       <c r="AA127" s="170"/>
       <c r="AB127" s="170"/>
@@ -9796,8 +9830,13 @@
       <c r="W128" s="170" t="str">
         <v>17-S</v>
       </c>
-      <c r="X128" s="170"/>
-      <c r="Y128" s="170"/>
+      <c r="X128" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y128" s="170" t="str">
+        <f>"CellVille!"&amp;P128&amp;":"&amp;Q128</f>
+        <v>CellVille!$C$27:$AM$27</v>
+      </c>
       <c r="Z128" s="170"/>
       <c r="AA128" s="170"/>
       <c r="AB128" s="170"/>
@@ -9890,8 +9929,13 @@
       <c r="W129" s="170" t="str">
         <v>17-N</v>
       </c>
-      <c r="X129" s="170"/>
-      <c r="Y129" s="170"/>
+      <c r="X129" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y129" s="170" t="str">
+        <f>"CellVille!"&amp;P129&amp;":"&amp;Q129</f>
+        <v>CellVille!$C$31:$AM$31</v>
+      </c>
       <c r="Z129" s="170"/>
       <c r="AA129" s="170"/>
       <c r="AB129" s="170"/>
@@ -9984,8 +10028,13 @@
       <c r="W130" s="170" t="str">
         <v>32-N</v>
       </c>
-      <c r="X130" s="170"/>
-      <c r="Y130" s="170"/>
+      <c r="X130" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y130" s="170" t="str">
+        <f>"CellVille!"&amp;P130&amp;":"&amp;Q130</f>
+        <v>CellVille!$C$36:$AM$36</v>
+      </c>
       <c r="Z130" s="170"/>
       <c r="AA130" s="170"/>
       <c r="AB130" s="170"/>
@@ -10078,8 +10127,13 @@
       <c r="W131" s="170" t="str">
         <v>M-W</v>
       </c>
-      <c r="X131" s="170"/>
-      <c r="Y131" s="170"/>
+      <c r="X131" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y131" s="170" t="str">
+        <f>"CellVille!"&amp;P131&amp;":"&amp;Q131</f>
+        <v>CellVille!$C$39:$AM$39</v>
+      </c>
       <c r="Z131" s="170"/>
       <c r="AA131" s="170"/>
       <c r="AB131" s="170"/>
@@ -10172,8 +10226,13 @@
       <c r="W132" s="170" t="str">
         <v>D-W</v>
       </c>
-      <c r="X132" s="170"/>
-      <c r="Y132" s="170"/>
+      <c r="X132" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y132" s="170" t="str">
+        <f>"CellVille!"&amp;P132&amp;":"&amp;Q132</f>
+        <v>CellVille!$C$5:$AM$5</v>
+      </c>
       <c r="Z132" s="170"/>
       <c r="AA132" s="170"/>
       <c r="AB132" s="170"/>
@@ -10266,8 +10325,13 @@
       <c r="W133" s="170" t="str">
         <v>32-S</v>
       </c>
-      <c r="X133" s="170"/>
-      <c r="Y133" s="170"/>
+      <c r="X133" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y133" s="170" t="str">
+        <f>"CellVille!"&amp;P133&amp;":"&amp;Q133</f>
+        <v>CellVille!$C$10:$AM$10</v>
+      </c>
       <c r="Z133" s="170"/>
       <c r="AA133" s="170"/>
       <c r="AB133" s="170"/>
@@ -10360,8 +10424,13 @@
       <c r="W134" s="170" t="str">
         <v>9-S</v>
       </c>
-      <c r="X134" s="170"/>
-      <c r="Y134" s="170"/>
+      <c r="X134" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y134" s="170" t="str">
+        <f>"CellVille!"&amp;P134&amp;":"&amp;Q134</f>
+        <v>CellVille!$C$14:$AM$14</v>
+      </c>
       <c r="Z134" s="170"/>
       <c r="AA134" s="170"/>
       <c r="AB134" s="170"/>
@@ -10454,8 +10523,13 @@
       <c r="W135" s="170" t="str">
         <v>9-N</v>
       </c>
-      <c r="X135" s="170"/>
-      <c r="Y135" s="170"/>
+      <c r="X135" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y135" s="170" t="str">
+        <f>"CellVille!"&amp;P135&amp;":"&amp;Q135</f>
+        <v>CellVille!$C$18:$AM$18</v>
+      </c>
       <c r="Z135" s="170"/>
       <c r="AA135" s="170"/>
       <c r="AB135" s="170"/>
@@ -10550,8 +10624,13 @@
       <c r="W136" s="170" t="str">
         <v>Q-E</v>
       </c>
-      <c r="X136" s="170"/>
-      <c r="Y136" s="170"/>
+      <c r="X136" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y136" s="170" t="str">
+        <f>"CellVille!"&amp;P136&amp;":"&amp;Q136</f>
+        <v>CellVille!$C$21:$AM$21</v>
+      </c>
       <c r="Z136" s="170"/>
       <c r="AA136" s="170"/>
       <c r="AB136" s="170"/>
@@ -10646,8 +10725,13 @@
       <c r="W137" s="170" t="str">
         <v>AL-E</v>
       </c>
-      <c r="X137" s="170"/>
-      <c r="Y137" s="170"/>
+      <c r="X137" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y137" s="170" t="str">
+        <f>"CellVille!"&amp;P137&amp;":"&amp;Q137</f>
+        <v>CellVille!$C$26:$AM$26</v>
+      </c>
       <c r="Z137" s="170"/>
       <c r="AA137" s="170"/>
       <c r="AB137" s="170"/>
@@ -10742,8 +10826,13 @@
       <c r="W138" s="170" t="str">
         <v>25-S</v>
       </c>
-      <c r="X138" s="170"/>
-      <c r="Y138" s="170"/>
+      <c r="X138" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y138" s="170" t="str">
+        <f>"CellVille!"&amp;P138&amp;":"&amp;Q138</f>
+        <v>CellVille!$C$29:$AM$29</v>
+      </c>
       <c r="Z138" s="170"/>
       <c r="AA138" s="170"/>
       <c r="AB138" s="170"/>
@@ -10838,8 +10927,13 @@
       <c r="W139" s="170" t="str">
         <v>40-N</v>
       </c>
-      <c r="X139" s="170"/>
-      <c r="Y139" s="170"/>
+      <c r="X139" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y139" s="170" t="str">
+        <f>"CellVille!"&amp;P139&amp;":"&amp;Q139</f>
+        <v>CellVille!$C$33:$AM$33</v>
+      </c>
       <c r="Z139" s="170"/>
       <c r="AA139" s="170"/>
       <c r="AB139" s="170"/>
@@ -10934,8 +11028,13 @@
       <c r="W140" s="170" t="str">
         <v>37-S</v>
       </c>
-      <c r="X140" s="170"/>
-      <c r="Y140" s="170"/>
+      <c r="X140" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y140" s="170" t="str">
+        <f>"CellVille!"&amp;P140&amp;":"&amp;Q140</f>
+        <v>CellVille!$C$38:$AM$38</v>
+      </c>
       <c r="Z140" s="170"/>
       <c r="AA140" s="170"/>
       <c r="AB140" s="170"/>
@@ -11030,8 +11129,13 @@
       <c r="W141" s="170" t="str">
         <v>9-N</v>
       </c>
-      <c r="X141" s="170"/>
-      <c r="Y141" s="170"/>
+      <c r="X141" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y141" s="170" t="str">
+        <f>"CellVille!"&amp;P141&amp;":"&amp;Q141</f>
+        <v>CellVille!$C$41:$AM$41</v>
+      </c>
       <c r="Z141" s="170"/>
       <c r="AA141" s="170"/>
       <c r="AB141" s="170"/>
@@ -11094,8 +11198,13 @@
       <c r="U142" s="170"/>
       <c r="V142" s="170"/>
       <c r="W142" s="170"/>
-      <c r="X142" s="170"/>
-      <c r="Y142" s="170"/>
+      <c r="X142" s="170" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y142" s="170" t="str">
+        <f>"CellVille!"&amp;J122&amp;":"&amp;K122</f>
+        <v>CellVille!$C$3:$C$41</v>
+      </c>
       <c r="Z142" s="170"/>
       <c r="AA142" s="170"/>
       <c r="AB142" s="170"/>
@@ -11158,8 +11267,13 @@
       <c r="U143" s="170"/>
       <c r="V143" s="170"/>
       <c r="W143" s="170"/>
-      <c r="X143" s="170"/>
-      <c r="Y143" s="170"/>
+      <c r="X143" s="170" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y143" s="170" t="str">
+        <f t="shared" ref="Y143:Y161" si="6">"CellVille!"&amp;J123&amp;":"&amp;K123</f>
+        <v>CellVille!$G$3:$G$41</v>
+      </c>
       <c r="Z143" s="170"/>
       <c r="AA143" s="170"/>
       <c r="AB143" s="170"/>
@@ -11192,6 +11306,13 @@
     <row r="144" spans="2:51" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="F144" s="20"/>
       <c r="K144" s="67"/>
+      <c r="X144" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y144" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$L$3:$L$41</v>
+      </c>
       <c r="AJ144" s="11" t="s">
         <v>225</v>
       </c>
@@ -11227,8 +11348,13 @@
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
-      <c r="Y145" s="1"/>
+      <c r="X145" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y145" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$P$3:$P$41</v>
+      </c>
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
@@ -11270,10 +11396,24 @@
     <row r="146" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="F146" s="20"/>
       <c r="K146" s="67"/>
+      <c r="X146" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y146" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$S$3:$S$41</v>
+      </c>
     </row>
     <row r="147" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="F147" s="20"/>
       <c r="K147" s="67"/>
+      <c r="X147" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y147" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$V$3:$V$41</v>
+      </c>
     </row>
     <row r="148" spans="1:62" ht="23.4">
       <c r="B148" s="187" t="s">
@@ -11290,6 +11430,13 @@
       <c r="K148" s="188"/>
       <c r="L148" s="188"/>
       <c r="M148" s="189"/>
+      <c r="X148" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y148" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$AA$3:$AA$41</v>
+      </c>
     </row>
     <row r="149" spans="1:62" ht="15" customHeight="1" thickBot="1">
       <c r="B149" s="24"/>
@@ -11304,6 +11451,13 @@
       <c r="K149" s="24"/>
       <c r="L149" s="24"/>
       <c r="M149" s="24"/>
+      <c r="X149" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y149" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$AD$3:$AD$41</v>
+      </c>
     </row>
     <row r="150" spans="1:62" s="11" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
       <c r="B150" s="26" t="s">
@@ -11315,12 +11469,26 @@
       <c r="D150" s="20"/>
       <c r="E150" s="28"/>
       <c r="F150" s="20"/>
+      <c r="X150" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y150" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$AG$3:$AG$41</v>
+      </c>
     </row>
     <row r="151" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B151" s="29"/>
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
+      <c r="X151" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y151" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$AK$3:$AK$41</v>
+      </c>
     </row>
     <row r="152" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B152" s="28" t="s">
@@ -11330,6 +11498,13 @@
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
+      <c r="X152" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y152" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$E$3:$E$41</v>
+      </c>
     </row>
     <row r="153" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B153" s="29"/>
@@ -11337,6 +11512,13 @@
       <c r="D153" s="20"/>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
+      <c r="X153" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y153" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$I$3:$I$41</v>
+      </c>
     </row>
     <row r="154" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B154" s="31" t="s">
@@ -11346,6 +11528,13 @@
       <c r="D154" s="20"/>
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
+      <c r="X154" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y154" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$N$3:$N$41</v>
+      </c>
     </row>
     <row r="155" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B155" s="31" t="s">
@@ -11355,6 +11544,13 @@
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
+      <c r="X155" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y155" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$R$3:$R$41</v>
+      </c>
     </row>
     <row r="156" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B156" s="31" t="s">
@@ -11364,6 +11560,13 @@
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
+      <c r="X156" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y156" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$U$3:$U$41</v>
+      </c>
     </row>
     <row r="157" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B157" s="32" t="s">
@@ -11373,12 +11576,26 @@
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
+      <c r="X157" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y157" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$X$3:$X$41</v>
+      </c>
     </row>
     <row r="158" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="C158" s="34"/>
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
+      <c r="X158" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y158" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$AC$3:$AC$41</v>
+      </c>
     </row>
     <row r="159" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B159" s="35" t="s">
@@ -11388,6 +11605,13 @@
       <c r="D159" s="20"/>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
+      <c r="X159" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y159" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$AF$3:$AF$41</v>
+      </c>
     </row>
     <row r="160" spans="1:62" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B160" s="29" t="s">
@@ -11397,6 +11621,13 @@
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
+      <c r="X160" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y160" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$AI$3:$AI$41</v>
+      </c>
     </row>
     <row r="161" spans="2:51" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B161" s="33"/>
@@ -11405,6 +11636,13 @@
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
       <c r="G161" s="28"/>
+      <c r="X161" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y161" s="170" t="str">
+        <f t="shared" si="6"/>
+        <v>CellVille!$AM$3:$AM$41</v>
+      </c>
     </row>
     <row r="162" spans="2:51" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="B162" s="33" t="s">
@@ -15357,6 +15595,9 @@
     </row>
     <row r="255" spans="2:51" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="F255" s="20"/>
+      <c r="I255" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="256" spans="2:51" s="11" customFormat="1" ht="23.25" customHeight="1">
       <c r="B256" s="36" t="s">
@@ -15378,8 +15619,13 @@
       <c r="H256" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="I256" s="170"/>
-      <c r="J256" s="170"/>
+      <c r="I256" s="170" t="str" cm="1">
+        <f t="array" ref="I256:J256">INDEX(G256:H277,I255,)</f>
+        <v>Isidora</v>
+      </c>
+      <c r="J256" s="170" t="str">
+        <v>9-S</v>
+      </c>
       <c r="K256" s="170"/>
       <c r="L256" s="170"/>
       <c r="M256" s="170"/>
@@ -15431,7 +15677,10 @@
       <c r="J257" s="44"/>
       <c r="K257" s="45"/>
       <c r="L257" s="44"/>
-      <c r="M257" s="45"/>
+      <c r="M257" s="45">
+        <f ca="1">J258</f>
+        <v>124</v>
+      </c>
       <c r="N257" s="44"/>
       <c r="O257" s="45"/>
       <c r="P257" s="45"/>
@@ -15481,7 +15730,9 @@
       <c r="D258" s="48">
         <v>9</v>
       </c>
-      <c r="E258" s="19"/>
+      <c r="E258" s="19">
+        <v>124</v>
+      </c>
       <c r="F258" s="20"/>
       <c r="G258" s="40" t="s">
         <v>55</v>
@@ -15490,10 +15741,31 @@
         <v>145</v>
       </c>
       <c r="I258" s="170"/>
-      <c r="J258" s="170"/>
+      <c r="J258" s="170" cm="1">
+        <f t="array" aca="1" ref="J258" ca="1">_xlfn.LET(_xlpm._q, _xlfn.XLOOKUP(J256,_nR,_nA),
+     _xlpm.z,  INDIRECT(_xlfn.XLOOKUP(J256,_nR,_nA)),
+     _xlpm.z_1, IF(ROWS(_xlpm.z)&gt;1,_xlpm.z,TRANSPOSE(_xlpm.z)),
+     _xlpm._nc, ROWS(_xlpm.z_1),
+     _xlpm._a1,  SUBSTITUTE(_xlfn.SCAN("",INDIRECT(_xlpm._q),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.TEXTAFTER(CELL("address",_xlpm.v),"!"))),"$",""),
+      _xlpm._a, IF(ROWS(_xlpm._a1)=1,TRANSPOSE(_xlpm._a1),_xlpm._a1),
+      _xlpm.x,  _xlfn.XLOOKUP(I256,Children!A3:A42,Children!B3:B42),
+     _xlpm._h, _xlfn._xlws.FILTER(_xlpm._a,(_xlpm.z_1="🏘️")+(_xlpm.z_1="🏠")+(_xlpm.z_1="🏡")),
+     _xlpm._nh, ROWS(_xlpm._h),
+     _xlpm._hs, _xlfn._xlws.FILTER(_xlpm._h,_xlfn.XLOOKUP(_xlpm._h,Houses!A3:A373,Houses!C3:C373)),
+     _xlpm._c,  _xlfn._xlws.FILTER(_xlpm._hs,_xlfn.XLOOKUP(_xlpm._hs,Houses!A3:A373,Houses!B3:B373)&lt;&gt;_xlpm.x),
+(ROWS(_xlpm._h)-ROWS(_xlpm._hs))*10+2*_xlpm._nc+ROWS(_xlpm._c)*5
+)</f>
+        <v>124</v>
+      </c>
       <c r="K258" s="170"/>
-      <c r="L258" s="170"/>
-      <c r="M258" s="170"/>
+      <c r="L258" s="170" cm="1">
+        <f t="array" ref="L258:L277">_xlfn.SEQUENCE(20,1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="M258" s="170">
+        <f t="dataTable" ref="M258:M277" dt2D="0" dtr="0" r1="I255" ca="1"/>
+        <v>124</v>
+      </c>
       <c r="N258" s="170"/>
       <c r="O258" s="170"/>
       <c r="P258" s="170"/>
@@ -15543,7 +15815,9 @@
       <c r="D259" s="48">
         <v>9</v>
       </c>
-      <c r="E259" s="19"/>
+      <c r="E259" s="19">
+        <v>129</v>
+      </c>
       <c r="F259" s="20"/>
       <c r="G259" s="40" t="s">
         <v>47</v>
@@ -15554,8 +15828,12 @@
       <c r="I259" s="170"/>
       <c r="J259" s="170"/>
       <c r="K259" s="170"/>
-      <c r="L259" s="170"/>
-      <c r="M259" s="170"/>
+      <c r="L259" s="170">
+        <v>4</v>
+      </c>
+      <c r="M259" s="170">
+        <v>129</v>
+      </c>
       <c r="N259" s="170"/>
       <c r="O259" s="170"/>
       <c r="P259" s="170"/>
@@ -15605,7 +15883,9 @@
       <c r="D260" s="48">
         <v>9</v>
       </c>
-      <c r="E260" s="19"/>
+      <c r="E260" s="19">
+        <v>148</v>
+      </c>
       <c r="F260" s="20"/>
       <c r="G260" s="40" t="s">
         <v>43</v>
@@ -15616,8 +15896,12 @@
       <c r="I260" s="170"/>
       <c r="J260" s="170"/>
       <c r="K260" s="170"/>
-      <c r="L260" s="170"/>
-      <c r="M260" s="170"/>
+      <c r="L260" s="170">
+        <v>5</v>
+      </c>
+      <c r="M260" s="170">
+        <v>148</v>
+      </c>
       <c r="N260" s="170"/>
       <c r="O260" s="170"/>
       <c r="P260" s="170"/>
@@ -15667,7 +15951,9 @@
       <c r="D261" s="48">
         <v>9</v>
       </c>
-      <c r="E261" s="19"/>
+      <c r="E261" s="19">
+        <v>158</v>
+      </c>
       <c r="F261" s="20"/>
       <c r="G261" s="40" t="s">
         <v>40</v>
@@ -15678,8 +15964,12 @@
       <c r="I261" s="170"/>
       <c r="J261" s="170"/>
       <c r="K261" s="170"/>
-      <c r="L261" s="170"/>
-      <c r="M261" s="170"/>
+      <c r="L261" s="170">
+        <v>6</v>
+      </c>
+      <c r="M261" s="170">
+        <v>158</v>
+      </c>
       <c r="N261" s="170"/>
       <c r="O261" s="170"/>
       <c r="P261" s="170"/>
@@ -15729,7 +16019,9 @@
       <c r="D262" s="48">
         <v>9</v>
       </c>
-      <c r="E262" s="19"/>
+      <c r="E262" s="19">
+        <v>164</v>
+      </c>
       <c r="F262" s="20"/>
       <c r="G262" s="40" t="s">
         <v>51</v>
@@ -15740,8 +16032,12 @@
       <c r="I262" s="170"/>
       <c r="J262" s="170"/>
       <c r="K262" s="170"/>
-      <c r="L262" s="170"/>
-      <c r="M262" s="170"/>
+      <c r="L262" s="170">
+        <v>7</v>
+      </c>
+      <c r="M262" s="170">
+        <v>164</v>
+      </c>
       <c r="N262" s="170"/>
       <c r="O262" s="170"/>
       <c r="P262" s="170"/>
@@ -15791,7 +16087,9 @@
       <c r="D263" s="48">
         <v>9</v>
       </c>
-      <c r="E263" s="19"/>
+      <c r="E263" s="19">
+        <v>173</v>
+      </c>
       <c r="F263" s="20"/>
       <c r="G263" s="40" t="s">
         <v>48</v>
@@ -15802,8 +16100,12 @@
       <c r="I263" s="170"/>
       <c r="J263" s="170"/>
       <c r="K263" s="170"/>
-      <c r="L263" s="170"/>
-      <c r="M263" s="170"/>
+      <c r="L263" s="170">
+        <v>8</v>
+      </c>
+      <c r="M263" s="170">
+        <v>173</v>
+      </c>
       <c r="N263" s="170"/>
       <c r="O263" s="170"/>
       <c r="P263" s="170"/>
@@ -15853,7 +16155,9 @@
       <c r="D264" s="48">
         <v>9</v>
       </c>
-      <c r="E264" s="19"/>
+      <c r="E264" s="19">
+        <v>173</v>
+      </c>
       <c r="F264" s="20"/>
       <c r="G264" s="40" t="s">
         <v>53</v>
@@ -15864,8 +16168,12 @@
       <c r="I264" s="170"/>
       <c r="J264" s="170"/>
       <c r="K264" s="170"/>
-      <c r="L264" s="170"/>
-      <c r="M264" s="170"/>
+      <c r="L264" s="170">
+        <v>9</v>
+      </c>
+      <c r="M264" s="170">
+        <v>173</v>
+      </c>
       <c r="N264" s="170"/>
       <c r="O264" s="170"/>
       <c r="P264" s="170"/>
@@ -15915,7 +16223,9 @@
       <c r="D265" s="48">
         <v>9</v>
       </c>
-      <c r="E265" s="19"/>
+      <c r="E265" s="19">
+        <v>124</v>
+      </c>
       <c r="F265" s="20"/>
       <c r="G265" s="40" t="s">
         <v>50</v>
@@ -15926,8 +16236,12 @@
       <c r="I265" s="170"/>
       <c r="J265" s="170"/>
       <c r="K265" s="170"/>
-      <c r="L265" s="170"/>
-      <c r="M265" s="170"/>
+      <c r="L265" s="170">
+        <v>10</v>
+      </c>
+      <c r="M265" s="170">
+        <v>124</v>
+      </c>
       <c r="N265" s="170"/>
       <c r="O265" s="170"/>
       <c r="P265" s="170"/>
@@ -15977,7 +16291,9 @@
       <c r="D266" s="48">
         <v>9</v>
       </c>
-      <c r="E266" s="19"/>
+      <c r="E266" s="19">
+        <v>119</v>
+      </c>
       <c r="F266" s="20"/>
       <c r="G266" s="40" t="s">
         <v>58</v>
@@ -15988,8 +16304,12 @@
       <c r="I266" s="170"/>
       <c r="J266" s="170"/>
       <c r="K266" s="170"/>
-      <c r="L266" s="170"/>
-      <c r="M266" s="170"/>
+      <c r="L266" s="170">
+        <v>11</v>
+      </c>
+      <c r="M266" s="170">
+        <v>119</v>
+      </c>
       <c r="N266" s="170"/>
       <c r="O266" s="170"/>
       <c r="P266" s="170"/>
@@ -16039,7 +16359,9 @@
       <c r="D267" s="48">
         <v>9</v>
       </c>
-      <c r="E267" s="19"/>
+      <c r="E267" s="19">
+        <v>154</v>
+      </c>
       <c r="F267" s="20"/>
       <c r="G267" s="40" t="s">
         <v>63</v>
@@ -16050,8 +16372,12 @@
       <c r="I267" s="170"/>
       <c r="J267" s="170"/>
       <c r="K267" s="170"/>
-      <c r="L267" s="170"/>
-      <c r="M267" s="170"/>
+      <c r="L267" s="170">
+        <v>12</v>
+      </c>
+      <c r="M267" s="170">
+        <v>154</v>
+      </c>
       <c r="N267" s="170"/>
       <c r="O267" s="170"/>
       <c r="P267" s="170"/>
@@ -16101,7 +16427,9 @@
       <c r="D268" s="48">
         <v>9</v>
       </c>
-      <c r="E268" s="19"/>
+      <c r="E268" s="19">
+        <v>169</v>
+      </c>
       <c r="F268" s="20"/>
       <c r="G268" s="40" t="s">
         <v>56</v>
@@ -16112,8 +16440,12 @@
       <c r="I268" s="170"/>
       <c r="J268" s="170"/>
       <c r="K268" s="170"/>
-      <c r="L268" s="170"/>
-      <c r="M268" s="170"/>
+      <c r="L268" s="170">
+        <v>13</v>
+      </c>
+      <c r="M268" s="170">
+        <v>169</v>
+      </c>
       <c r="N268" s="170"/>
       <c r="O268" s="170"/>
       <c r="P268" s="170"/>
@@ -16163,7 +16495,9 @@
       <c r="D269" s="48">
         <v>9</v>
       </c>
-      <c r="E269" s="19"/>
+      <c r="E269" s="19">
+        <v>149</v>
+      </c>
       <c r="F269" s="20"/>
       <c r="G269" s="40" t="s">
         <v>64</v>
@@ -16174,8 +16508,12 @@
       <c r="I269" s="170"/>
       <c r="J269" s="170"/>
       <c r="K269" s="170"/>
-      <c r="L269" s="170"/>
-      <c r="M269" s="170"/>
+      <c r="L269" s="170">
+        <v>14</v>
+      </c>
+      <c r="M269" s="170">
+        <v>149</v>
+      </c>
       <c r="N269" s="170"/>
       <c r="O269" s="170"/>
       <c r="P269" s="170"/>
@@ -16225,7 +16563,9 @@
       <c r="D270" s="48">
         <v>9</v>
       </c>
-      <c r="E270" s="19"/>
+      <c r="E270" s="19">
+        <v>143</v>
+      </c>
       <c r="F270" s="20"/>
       <c r="G270" s="40" t="s">
         <v>60</v>
@@ -16236,8 +16576,12 @@
       <c r="I270" s="170"/>
       <c r="J270" s="170"/>
       <c r="K270" s="170"/>
-      <c r="L270" s="170"/>
-      <c r="M270" s="170"/>
+      <c r="L270" s="170">
+        <v>15</v>
+      </c>
+      <c r="M270" s="170">
+        <v>143</v>
+      </c>
       <c r="N270" s="170"/>
       <c r="O270" s="170"/>
       <c r="P270" s="170"/>
@@ -16287,7 +16631,9 @@
       <c r="D271" s="48">
         <v>9</v>
       </c>
-      <c r="E271" s="19"/>
+      <c r="E271" s="19">
+        <v>149</v>
+      </c>
       <c r="F271" s="20"/>
       <c r="G271" s="40" t="s">
         <v>52</v>
@@ -16298,8 +16644,12 @@
       <c r="I271" s="170"/>
       <c r="J271" s="170"/>
       <c r="K271" s="170"/>
-      <c r="L271" s="170"/>
-      <c r="M271" s="170"/>
+      <c r="L271" s="170">
+        <v>16</v>
+      </c>
+      <c r="M271" s="170">
+        <v>149</v>
+      </c>
       <c r="N271" s="170"/>
       <c r="O271" s="170"/>
       <c r="P271" s="170"/>
@@ -16349,7 +16699,9 @@
       <c r="D272" s="48">
         <v>9</v>
       </c>
-      <c r="E272" s="19"/>
+      <c r="E272" s="19">
+        <v>183</v>
+      </c>
       <c r="F272" s="20"/>
       <c r="G272" s="40" t="s">
         <v>44</v>
@@ -16360,8 +16712,12 @@
       <c r="I272" s="170"/>
       <c r="J272" s="170"/>
       <c r="K272" s="170"/>
-      <c r="L272" s="170"/>
-      <c r="M272" s="170"/>
+      <c r="L272" s="170">
+        <v>17</v>
+      </c>
+      <c r="M272" s="170">
+        <v>183</v>
+      </c>
       <c r="N272" s="170"/>
       <c r="O272" s="170"/>
       <c r="P272" s="170"/>
@@ -16411,7 +16767,9 @@
       <c r="D273" s="48">
         <v>9</v>
       </c>
-      <c r="E273" s="19"/>
+      <c r="E273" s="19">
+        <v>188</v>
+      </c>
       <c r="F273" s="20"/>
       <c r="G273" s="40" t="s">
         <v>62</v>
@@ -16422,8 +16780,12 @@
       <c r="I273" s="170"/>
       <c r="J273" s="170"/>
       <c r="K273" s="170"/>
-      <c r="L273" s="170"/>
-      <c r="M273" s="170"/>
+      <c r="L273" s="170">
+        <v>18</v>
+      </c>
+      <c r="M273" s="170">
+        <v>188</v>
+      </c>
       <c r="N273" s="170"/>
       <c r="O273" s="170"/>
       <c r="P273" s="170"/>
@@ -16473,7 +16835,9 @@
       <c r="D274" s="48">
         <v>9</v>
       </c>
-      <c r="E274" s="19"/>
+      <c r="E274" s="19">
+        <v>169</v>
+      </c>
       <c r="F274" s="20"/>
       <c r="G274" s="40" t="s">
         <v>72</v>
@@ -16484,8 +16848,12 @@
       <c r="I274" s="170"/>
       <c r="J274" s="170"/>
       <c r="K274" s="170"/>
-      <c r="L274" s="170"/>
-      <c r="M274" s="170"/>
+      <c r="L274" s="170">
+        <v>19</v>
+      </c>
+      <c r="M274" s="170">
+        <v>169</v>
+      </c>
       <c r="N274" s="170"/>
       <c r="O274" s="170"/>
       <c r="P274" s="170"/>
@@ -16535,7 +16903,9 @@
       <c r="D275" s="48">
         <v>9</v>
       </c>
-      <c r="E275" s="19"/>
+      <c r="E275" s="19">
+        <v>178</v>
+      </c>
       <c r="F275" s="20"/>
       <c r="G275" s="40" t="s">
         <v>59</v>
@@ -16546,8 +16916,12 @@
       <c r="I275" s="170"/>
       <c r="J275" s="170"/>
       <c r="K275" s="170"/>
-      <c r="L275" s="170"/>
-      <c r="M275" s="170"/>
+      <c r="L275" s="170">
+        <v>20</v>
+      </c>
+      <c r="M275" s="170">
+        <v>178</v>
+      </c>
       <c r="N275" s="170"/>
       <c r="O275" s="170"/>
       <c r="P275" s="170"/>
@@ -16597,7 +16971,9 @@
       <c r="D276" s="48">
         <v>9</v>
       </c>
-      <c r="E276" s="19"/>
+      <c r="E276" s="19">
+        <v>124</v>
+      </c>
       <c r="F276" s="20"/>
       <c r="G276" s="40" t="s">
         <v>69</v>
@@ -16608,8 +16984,12 @@
       <c r="I276" s="170"/>
       <c r="J276" s="170"/>
       <c r="K276" s="170"/>
-      <c r="L276" s="170"/>
-      <c r="M276" s="170"/>
+      <c r="L276" s="170">
+        <v>21</v>
+      </c>
+      <c r="M276" s="170">
+        <v>124</v>
+      </c>
       <c r="N276" s="170"/>
       <c r="O276" s="170"/>
       <c r="P276" s="170"/>
@@ -16659,7 +17039,9 @@
       <c r="D277" s="48">
         <v>9</v>
       </c>
-      <c r="E277" s="19"/>
+      <c r="E277" s="19">
+        <v>179</v>
+      </c>
       <c r="F277" s="20"/>
       <c r="G277" s="40" t="s">
         <v>61</v>
@@ -16670,8 +17052,12 @@
       <c r="I277" s="170"/>
       <c r="J277" s="170"/>
       <c r="K277" s="170"/>
-      <c r="L277" s="170"/>
-      <c r="M277" s="170"/>
+      <c r="L277" s="170">
+        <v>22</v>
+      </c>
+      <c r="M277" s="170">
+        <v>179</v>
+      </c>
       <c r="N277" s="170"/>
       <c r="O277" s="170"/>
       <c r="P277" s="170"/>
@@ -16726,7 +17112,7 @@
       <c r="D279" s="68"/>
       <c r="E279" s="19" t="str">
         <f>IF(ISERROR(E258),"",E258)&amp;";"&amp;IF(ISERROR(E259),"",E259)&amp;";"&amp;IF(ISERROR(E260),"",E260)&amp;";"&amp;IF(ISERROR(E261),"",E261)&amp;";"&amp;IF(ISERROR(E262),"",E262)&amp;";"&amp;IF(ISERROR(E263),"",E263)&amp;";"&amp;IF(ISERROR(E264),"",E264)&amp;";"&amp;IF(ISERROR(E265),"",E265)&amp;";"&amp;IF(ISERROR(E266),"",E266)&amp;";"&amp;IF(ISERROR(E267),"",E267)&amp;";"&amp;IF(ISERROR(E268),"",E268)&amp;";"&amp;IF(ISERROR(E269),"",E269)&amp;";"&amp;IF(ISERROR(E270),"",E270)&amp;";"&amp;IF(ISERROR(E271),"",E271)&amp;";"&amp;IF(ISERROR(E272),"",E272)&amp;";"&amp;IF(ISERROR(E273),"",E273)&amp;";"&amp;IF(ISERROR(E274),"",E274)&amp;";"&amp;IF(ISERROR(E275),"",E275)&amp;";"&amp;IF(ISERROR(E276),"",E276)&amp;";"&amp;IF(ISERROR(E277),"",E277)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>124;129;148;158;164;173;173;124;119;154;169;149;143;149;183;188;169;178;124;179</v>
       </c>
       <c r="F279" s="20"/>
       <c r="G279" s="1"/>
@@ -18689,6 +19075,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -18701,11 +19092,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19096,7 +19482,7 @@
       </c>
       <c r="B3" s="180" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>28-Oct-2025</v>
+        <v>29-Oct-2025</v>
       </c>
       <c r="C3" s="180"/>
     </row>
@@ -19480,8 +19866,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46:Q65"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
@@ -23578,7 +23964,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -23995,7 +24381,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:D380"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -28164,8 +28550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB505C8-B5A5-43E7-BDB1-CEB8314A9C64}">
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D21"/>
+    <sheetView topLeftCell="A247" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -28184,20 +28570,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="59.25" customHeight="1">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="192"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="186"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1"/>
     <row r="4" spans="2:16" ht="33" customHeight="1">
@@ -28240,52 +28626,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
     </row>
     <row r="9" spans="2:16" ht="162" customHeight="1">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
     </row>
     <row r="10" spans="2:16" ht="245.4" customHeight="1">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="193" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -28365,15 +28751,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="197" t="s">
+      <c r="G16" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="199"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="196"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -28392,15 +28778,15 @@
         <f>IF(ISBLANK(Case!E17),0,IF(E17=Case!E17,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="200" t="s">
+      <c r="G17" s="197" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -28500,15 +28886,15 @@
         <f>IF(ISBLANK(Case!E21),0,IF(E21=Case!E21,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="184" t="s">
+      <c r="G21" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="185"/>
-      <c r="M21" s="186"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="200"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
@@ -28565,7 +28951,7 @@
       <c r="F26" s="20"/>
       <c r="L26" s="203">
         <f>SUMPRODUCT(--(F:F=1),D:D)</f>
-        <v>620</v>
+        <v>800</v>
       </c>
       <c r="M26" s="204"/>
     </row>
@@ -33536,7 +33922,7 @@
       </c>
       <c r="F258" s="20">
         <f>IF(ISBLANK(Case!E258),0,IF(E258=Case!E258,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G258" s="40" t="s">
         <v>55</v>
@@ -33568,7 +33954,7 @@
       </c>
       <c r="F259" s="20">
         <f>IF(ISBLANK(Case!E259),0,IF(E259=Case!E259,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" s="40" t="s">
         <v>47</v>
@@ -33600,7 +33986,7 @@
       </c>
       <c r="F260" s="20">
         <f>IF(ISBLANK(Case!E260),0,IF(E260=Case!E260,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260" s="40" t="s">
         <v>43</v>
@@ -33632,7 +34018,7 @@
       </c>
       <c r="F261" s="20">
         <f>IF(ISBLANK(Case!E261),0,IF(E261=Case!E261,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261" s="40" t="s">
         <v>40</v>
@@ -33664,7 +34050,7 @@
       </c>
       <c r="F262" s="20">
         <f>IF(ISBLANK(Case!E262),0,IF(E262=Case!E262,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G262" s="40" t="s">
         <v>51</v>
@@ -33696,7 +34082,7 @@
       </c>
       <c r="F263" s="20">
         <f>IF(ISBLANK(Case!E263),0,IF(E263=Case!E263,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263" s="40" t="s">
         <v>48</v>
@@ -33728,7 +34114,7 @@
       </c>
       <c r="F264" s="20">
         <f>IF(ISBLANK(Case!E264),0,IF(E264=Case!E264,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264" s="40" t="s">
         <v>53</v>
@@ -33760,7 +34146,7 @@
       </c>
       <c r="F265" s="20">
         <f>IF(ISBLANK(Case!E265),0,IF(E265=Case!E265,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265" s="40" t="s">
         <v>50</v>
@@ -33792,7 +34178,7 @@
       </c>
       <c r="F266" s="20">
         <f>IF(ISBLANK(Case!E266),0,IF(E266=Case!E266,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G266" s="40" t="s">
         <v>58</v>
@@ -33824,7 +34210,7 @@
       </c>
       <c r="F267" s="20">
         <f>IF(ISBLANK(Case!E267),0,IF(E267=Case!E267,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267" s="40" t="s">
         <v>63</v>
@@ -33856,7 +34242,7 @@
       </c>
       <c r="F268" s="20">
         <f>IF(ISBLANK(Case!E268),0,IF(E268=Case!E268,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="40" t="s">
         <v>56</v>
@@ -33888,7 +34274,7 @@
       </c>
       <c r="F269" s="20">
         <f>IF(ISBLANK(Case!E269),0,IF(E269=Case!E269,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" s="40" t="s">
         <v>64</v>
@@ -33920,7 +34306,7 @@
       </c>
       <c r="F270" s="20">
         <f>IF(ISBLANK(Case!E270),0,IF(E270=Case!E270,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" s="40" t="s">
         <v>60</v>
@@ -33952,7 +34338,7 @@
       </c>
       <c r="F271" s="20">
         <f>IF(ISBLANK(Case!E271),0,IF(E271=Case!E271,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" s="40" t="s">
         <v>52</v>
@@ -33984,7 +34370,7 @@
       </c>
       <c r="F272" s="20">
         <f>IF(ISBLANK(Case!E272),0,IF(E272=Case!E272,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272" s="40" t="s">
         <v>44</v>
@@ -34016,7 +34402,7 @@
       </c>
       <c r="F273" s="20">
         <f>IF(ISBLANK(Case!E273),0,IF(E273=Case!E273,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="40" t="s">
         <v>62</v>
@@ -34048,7 +34434,7 @@
       </c>
       <c r="F274" s="20">
         <f>IF(ISBLANK(Case!E274),0,IF(E274=Case!E274,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274" s="40" t="s">
         <v>72</v>
@@ -34080,7 +34466,7 @@
       </c>
       <c r="F275" s="20">
         <f>IF(ISBLANK(Case!E275),0,IF(E275=Case!E275,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="40" t="s">
         <v>59</v>
@@ -34112,7 +34498,7 @@
       </c>
       <c r="F276" s="20">
         <f>IF(ISBLANK(Case!E276),0,IF(E276=Case!E276,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276" s="40" t="s">
         <v>69</v>
@@ -34144,7 +34530,7 @@
       </c>
       <c r="F277" s="20">
         <f>IF(ISBLANK(Case!E277),0,IF(E277=Case!E277,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277" s="40" t="s">
         <v>61</v>
@@ -35367,13 +35753,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -35386,6 +35765,13 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987D073-7C6F-4AD2-A96E-98BED69DBA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93685E8-7A13-4C11-B073-31F0A0FEC34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="779">
   <si>
     <t>Juan José Cifuentes</t>
   </si>
@@ -3795,14 +3795,14 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3811,6 +3811,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3836,15 +3845,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4811,8 +4811,8 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:BJ327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J258" sqref="J258"/>
+    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -4839,20 +4839,20 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15" customHeight="1"/>
     <row r="2" spans="2:51" ht="59.25" customHeight="1">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="186"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="192"/>
     </row>
     <row r="3" spans="2:51" ht="15" customHeight="1"/>
     <row r="4" spans="2:51" ht="33" customHeight="1">
@@ -4930,52 +4930,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:51" ht="21.75" customHeight="1">
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="2:51" ht="162" customHeight="1">
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="2:51" ht="245.4" customHeight="1">
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="196" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
     </row>
     <row r="11" spans="2:51" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -5055,15 +5055,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="194" t="s">
+      <c r="G16" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="195"/>
-      <c r="M16" s="196"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="199"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -5075,17 +5075,19 @@
       <c r="D17" s="18">
         <v>30</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="19" t="s">
+        <v>736</v>
+      </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="197" t="s">
+      <c r="G17" s="200" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -5097,7 +5099,9 @@
       <c r="D18" s="18">
         <v>40</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="19">
+        <v>23</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="183" t="s">
         <v>91</v>
@@ -5141,7 +5145,9 @@
       <c r="D20" s="18">
         <v>60</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="23">
+        <v>8</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="183" t="s">
         <v>95</v>
@@ -5165,15 +5171,15 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="198" t="s">
+      <c r="G21" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="200"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="185"/>
+      <c r="M21" s="186"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
@@ -9253,7 +9259,7 @@
         <v>132</v>
       </c>
       <c r="Y122" s="170" t="str">
-        <f>"CellVille!"&amp;P122&amp;":"&amp;Q122</f>
+        <f t="shared" ref="Y122:Y141" si="2">"CellVille!"&amp;P122&amp;":"&amp;Q122</f>
         <v>CellVille!$C$3:$AM$3</v>
       </c>
       <c r="Z122" s="170"/>
@@ -9294,15 +9300,15 @@
         <v>7</v>
       </c>
       <c r="J123" s="170" t="str">
-        <f t="shared" ref="J123:J141" si="2">ADDRESS(3,I123)</f>
+        <f t="shared" ref="J123:J141" si="3">ADDRESS(3,I123)</f>
         <v>$G$3</v>
       </c>
       <c r="K123" s="170" t="str">
-        <f t="shared" ref="K123:K141" si="3">ADDRESS(41,I123)</f>
+        <f t="shared" ref="K123:K141" si="4">ADDRESS(41,I123)</f>
         <v>$G$41</v>
       </c>
       <c r="L123" s="170">
-        <f t="shared" ref="L123:L141" ca="1" si="4">COUNTIFS(INDIRECT("CellVille!"&amp;J123&amp;":"&amp;K123),$I$121)</f>
+        <f t="shared" ref="L123:L141" ca="1" si="5">COUNTIFS(INDIRECT("CellVille!"&amp;J123&amp;":"&amp;K123),$I$121)</f>
         <v>0</v>
       </c>
       <c r="M123" s="45"/>
@@ -9321,7 +9327,7 @@
         <v>$AM$8</v>
       </c>
       <c r="R123" s="170">
-        <f t="shared" ref="R123:R141" ca="1" si="5">COUNTIFS(INDIRECT("CellVille!"&amp;P123&amp;":"&amp;Q123),$I$121)</f>
+        <f t="shared" ref="R123:R141" ca="1" si="6">COUNTIFS(INDIRECT("CellVille!"&amp;P123&amp;":"&amp;Q123),$I$121)</f>
         <v>0</v>
       </c>
       <c r="S123" s="45"/>
@@ -9339,7 +9345,7 @@
         <v>141</v>
       </c>
       <c r="Y123" s="170" t="str">
-        <f>"CellVille!"&amp;P123&amp;":"&amp;Q123</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$8:$AM$8</v>
       </c>
       <c r="Z123" s="45"/>
@@ -9393,15 +9399,15 @@
         <v>12</v>
       </c>
       <c r="J124" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$L$3</v>
       </c>
       <c r="K124" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$L$41</v>
       </c>
       <c r="L124" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M124" s="170"/>
@@ -9420,7 +9426,7 @@
         <v>$AM$12</v>
       </c>
       <c r="R124" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S124" s="170"/>
@@ -9438,7 +9444,7 @@
         <v>140</v>
       </c>
       <c r="Y124" s="170" t="str">
-        <f>"CellVille!"&amp;P124&amp;":"&amp;Q124</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$12:$AM$12</v>
       </c>
       <c r="Z124" s="170"/>
@@ -9492,15 +9498,15 @@
         <v>16</v>
       </c>
       <c r="J125" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$P$3</v>
       </c>
       <c r="K125" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$P$41</v>
       </c>
       <c r="L125" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M125" s="170"/>
@@ -9519,7 +9525,7 @@
         <v>$AM$16</v>
       </c>
       <c r="R125" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S125" s="170"/>
@@ -9537,7 +9543,7 @@
         <v>230</v>
       </c>
       <c r="Y125" s="170" t="str">
-        <f>"CellVille!"&amp;P125&amp;":"&amp;Q125</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$16:$AM$16</v>
       </c>
       <c r="Z125" s="170"/>
@@ -9591,15 +9597,15 @@
         <v>19</v>
       </c>
       <c r="J126" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$S$3</v>
       </c>
       <c r="K126" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$S$41</v>
       </c>
       <c r="L126" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M126" s="170"/>
@@ -9618,7 +9624,7 @@
         <v>$AM$19</v>
       </c>
       <c r="R126" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="S126" s="170"/>
@@ -9636,7 +9642,7 @@
         <v>775</v>
       </c>
       <c r="Y126" s="170" t="str">
-        <f>"CellVille!"&amp;P126&amp;":"&amp;Q126</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$19:$AM$19</v>
       </c>
       <c r="Z126" s="170"/>
@@ -9690,15 +9696,15 @@
         <v>22</v>
       </c>
       <c r="J127" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$V$3</v>
       </c>
       <c r="K127" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$V$41</v>
       </c>
       <c r="L127" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="M127" s="170"/>
@@ -9717,7 +9723,7 @@
         <v>$AM$24</v>
       </c>
       <c r="R127" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="S127" s="170"/>
@@ -9735,7 +9741,7 @@
         <v>133</v>
       </c>
       <c r="Y127" s="170" t="str">
-        <f>"CellVille!"&amp;P127&amp;":"&amp;Q127</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$24:$AM$24</v>
       </c>
       <c r="Z127" s="170"/>
@@ -9789,15 +9795,15 @@
         <v>27</v>
       </c>
       <c r="J128" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$AA$3</v>
       </c>
       <c r="K128" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$AA$41</v>
       </c>
       <c r="L128" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M128" s="170"/>
@@ -9816,7 +9822,7 @@
         <v>$AM$27</v>
       </c>
       <c r="R128" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S128" s="170"/>
@@ -9834,7 +9840,7 @@
         <v>776</v>
       </c>
       <c r="Y128" s="170" t="str">
-        <f>"CellVille!"&amp;P128&amp;":"&amp;Q128</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$27:$AM$27</v>
       </c>
       <c r="Z128" s="170"/>
@@ -9888,15 +9894,15 @@
         <v>30</v>
       </c>
       <c r="J129" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$AD$3</v>
       </c>
       <c r="K129" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$AD$41</v>
       </c>
       <c r="L129" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M129" s="170"/>
@@ -9915,7 +9921,7 @@
         <v>$AM$31</v>
       </c>
       <c r="R129" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S129" s="170"/>
@@ -9933,7 +9939,7 @@
         <v>146</v>
       </c>
       <c r="Y129" s="170" t="str">
-        <f>"CellVille!"&amp;P129&amp;":"&amp;Q129</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$31:$AM$31</v>
       </c>
       <c r="Z129" s="170"/>
@@ -9987,15 +9993,15 @@
         <v>33</v>
       </c>
       <c r="J130" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$AG$3</v>
       </c>
       <c r="K130" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$AG$41</v>
       </c>
       <c r="L130" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M130" s="170"/>
@@ -10014,7 +10020,7 @@
         <v>$AM$36</v>
       </c>
       <c r="R130" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="S130" s="170"/>
@@ -10032,7 +10038,7 @@
         <v>226</v>
       </c>
       <c r="Y130" s="170" t="str">
-        <f>"CellVille!"&amp;P130&amp;":"&amp;Q130</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$36:$AM$36</v>
       </c>
       <c r="Z130" s="170"/>
@@ -10086,15 +10092,15 @@
         <v>37</v>
       </c>
       <c r="J131" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$AK$3</v>
       </c>
       <c r="K131" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$AK$41</v>
       </c>
       <c r="L131" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="M131" s="170"/>
@@ -10113,7 +10119,7 @@
         <v>$AM$39</v>
       </c>
       <c r="R131" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S131" s="170"/>
@@ -10131,7 +10137,7 @@
         <v>739</v>
       </c>
       <c r="Y131" s="170" t="str">
-        <f>"CellVille!"&amp;P131&amp;":"&amp;Q131</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$39:$AM$39</v>
       </c>
       <c r="Z131" s="170"/>
@@ -10185,15 +10191,15 @@
         <v>5</v>
       </c>
       <c r="J132" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$E$3</v>
       </c>
       <c r="K132" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$E$41</v>
       </c>
       <c r="L132" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="M132" s="170"/>
@@ -10212,7 +10218,7 @@
         <v>$AM$5</v>
       </c>
       <c r="R132" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S132" s="170"/>
@@ -10230,7 +10236,7 @@
         <v>138</v>
       </c>
       <c r="Y132" s="170" t="str">
-        <f>"CellVille!"&amp;P132&amp;":"&amp;Q132</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$5:$AM$5</v>
       </c>
       <c r="Z132" s="170"/>
@@ -10284,15 +10290,15 @@
         <v>9</v>
       </c>
       <c r="J133" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$I$3</v>
       </c>
       <c r="K133" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$I$41</v>
       </c>
       <c r="L133" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="M133" s="170"/>
@@ -10311,7 +10317,7 @@
         <v>$AM$10</v>
       </c>
       <c r="R133" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S133" s="170"/>
@@ -10329,7 +10335,7 @@
         <v>145</v>
       </c>
       <c r="Y133" s="170" t="str">
-        <f>"CellVille!"&amp;P133&amp;":"&amp;Q133</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$10:$AM$10</v>
       </c>
       <c r="Z133" s="170"/>
@@ -10383,15 +10389,15 @@
         <v>14</v>
       </c>
       <c r="J134" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$N$3</v>
       </c>
       <c r="K134" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$N$41</v>
       </c>
       <c r="L134" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M134" s="170"/>
@@ -10410,7 +10416,7 @@
         <v>$AM$14</v>
       </c>
       <c r="R134" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S134" s="170"/>
@@ -10428,7 +10434,7 @@
         <v>777</v>
       </c>
       <c r="Y134" s="170" t="str">
-        <f>"CellVille!"&amp;P134&amp;":"&amp;Q134</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$14:$AM$14</v>
       </c>
       <c r="Z134" s="170"/>
@@ -10482,15 +10488,15 @@
         <v>18</v>
       </c>
       <c r="J135" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$R$3</v>
       </c>
       <c r="K135" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$R$41</v>
       </c>
       <c r="L135" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="M135" s="170"/>
@@ -10509,7 +10515,7 @@
         <v>$AM$18</v>
       </c>
       <c r="R135" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S135" s="170"/>
@@ -10527,7 +10533,7 @@
         <v>738</v>
       </c>
       <c r="Y135" s="170" t="str">
-        <f>"CellVille!"&amp;P135&amp;":"&amp;Q135</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$18:$AM$18</v>
       </c>
       <c r="Z135" s="170"/>
@@ -10583,15 +10589,15 @@
         <v>21</v>
       </c>
       <c r="J136" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$U$3</v>
       </c>
       <c r="K136" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$U$41</v>
       </c>
       <c r="L136" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M136" s="170"/>
@@ -10610,7 +10616,7 @@
         <v>$AM$21</v>
       </c>
       <c r="R136" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S136" s="170"/>
@@ -10628,7 +10634,7 @@
         <v>229</v>
       </c>
       <c r="Y136" s="170" t="str">
-        <f>"CellVille!"&amp;P136&amp;":"&amp;Q136</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$21:$AM$21</v>
       </c>
       <c r="Z136" s="170"/>
@@ -10684,15 +10690,15 @@
         <v>24</v>
       </c>
       <c r="J137" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$X$3</v>
       </c>
       <c r="K137" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$X$41</v>
       </c>
       <c r="L137" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="M137" s="170"/>
@@ -10711,7 +10717,7 @@
         <v>$AM$26</v>
       </c>
       <c r="R137" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="S137" s="170"/>
@@ -10729,7 +10735,7 @@
         <v>148</v>
       </c>
       <c r="Y137" s="170" t="str">
-        <f>"CellVille!"&amp;P137&amp;":"&amp;Q137</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$26:$AM$26</v>
       </c>
       <c r="Z137" s="170"/>
@@ -10785,15 +10791,15 @@
         <v>29</v>
       </c>
       <c r="J138" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$AC$3</v>
       </c>
       <c r="K138" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$AC$41</v>
       </c>
       <c r="L138" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="M138" s="170"/>
@@ -10812,7 +10818,7 @@
         <v>$AM$29</v>
       </c>
       <c r="R138" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="S138" s="170"/>
@@ -10830,7 +10836,7 @@
         <v>227</v>
       </c>
       <c r="Y138" s="170" t="str">
-        <f>"CellVille!"&amp;P138&amp;":"&amp;Q138</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$29:$AM$29</v>
       </c>
       <c r="Z138" s="170"/>
@@ -10886,15 +10892,15 @@
         <v>32</v>
       </c>
       <c r="J139" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$AF$3</v>
       </c>
       <c r="K139" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$AF$41</v>
       </c>
       <c r="L139" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="M139" s="170"/>
@@ -10913,7 +10919,7 @@
         <v>$AM$33</v>
       </c>
       <c r="R139" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S139" s="170"/>
@@ -10931,7 +10937,7 @@
         <v>135</v>
       </c>
       <c r="Y139" s="170" t="str">
-        <f>"CellVille!"&amp;P139&amp;":"&amp;Q139</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$33:$AM$33</v>
       </c>
       <c r="Z139" s="170"/>
@@ -10987,15 +10993,15 @@
         <v>35</v>
       </c>
       <c r="J140" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$AI$3</v>
       </c>
       <c r="K140" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$AI$41</v>
       </c>
       <c r="L140" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M140" s="170"/>
@@ -11014,7 +11020,7 @@
         <v>$AM$38</v>
       </c>
       <c r="R140" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S140" s="170"/>
@@ -11032,7 +11038,7 @@
         <v>740</v>
       </c>
       <c r="Y140" s="170" t="str">
-        <f>"CellVille!"&amp;P140&amp;":"&amp;Q140</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$38:$AM$38</v>
       </c>
       <c r="Z140" s="170"/>
@@ -11088,15 +11094,15 @@
         <v>39</v>
       </c>
       <c r="J141" s="170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>$AM$3</v>
       </c>
       <c r="K141" s="170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$AM$41</v>
       </c>
       <c r="L141" s="170">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="M141" s="170"/>
@@ -11115,7 +11121,7 @@
         <v>$AM$41</v>
       </c>
       <c r="R141" s="170">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="S141" s="170"/>
@@ -11133,7 +11139,7 @@
         <v>778</v>
       </c>
       <c r="Y141" s="170" t="str">
-        <f>"CellVille!"&amp;P141&amp;":"&amp;Q141</f>
+        <f t="shared" si="2"/>
         <v>CellVille!$C$41:$AM$41</v>
       </c>
       <c r="Z141" s="170"/>
@@ -11271,7 +11277,7 @@
         <v>750</v>
       </c>
       <c r="Y143" s="170" t="str">
-        <f t="shared" ref="Y143:Y161" si="6">"CellVille!"&amp;J123&amp;":"&amp;K123</f>
+        <f t="shared" ref="Y143:Y161" si="7">"CellVille!"&amp;J123&amp;":"&amp;K123</f>
         <v>CellVille!$G$3:$G$41</v>
       </c>
       <c r="Z143" s="170"/>
@@ -11310,7 +11316,7 @@
         <v>147</v>
       </c>
       <c r="Y144" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$L$3:$L$41</v>
       </c>
       <c r="AJ144" s="11" t="s">
@@ -11352,7 +11358,7 @@
         <v>131</v>
       </c>
       <c r="Y145" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$P$3:$P$41</v>
       </c>
       <c r="Z145" s="1"/>
@@ -11400,7 +11406,7 @@
         <v>751</v>
       </c>
       <c r="Y146" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$S$3:$S$41</v>
       </c>
     </row>
@@ -11411,7 +11417,7 @@
         <v>752</v>
       </c>
       <c r="Y147" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$V$3:$V$41</v>
       </c>
     </row>
@@ -11434,7 +11440,7 @@
         <v>136</v>
       </c>
       <c r="Y148" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$AA$3:$AA$41</v>
       </c>
     </row>
@@ -11455,7 +11461,7 @@
         <v>228</v>
       </c>
       <c r="Y149" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$AD$3:$AD$41</v>
       </c>
     </row>
@@ -11473,7 +11479,7 @@
         <v>142</v>
       </c>
       <c r="Y150" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$AG$3:$AG$41</v>
       </c>
     </row>
@@ -11486,7 +11492,7 @@
         <v>225</v>
       </c>
       <c r="Y151" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$AK$3:$AK$41</v>
       </c>
     </row>
@@ -11502,7 +11508,7 @@
         <v>130</v>
       </c>
       <c r="Y152" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$E$3:$E$41</v>
       </c>
     </row>
@@ -11516,7 +11522,7 @@
         <v>150</v>
       </c>
       <c r="Y153" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$I$3:$I$41</v>
       </c>
     </row>
@@ -11532,7 +11538,7 @@
         <v>162</v>
       </c>
       <c r="Y154" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$N$3:$N$41</v>
       </c>
     </row>
@@ -11548,7 +11554,7 @@
         <v>134</v>
       </c>
       <c r="Y155" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$R$3:$R$41</v>
       </c>
     </row>
@@ -11564,7 +11570,7 @@
         <v>137</v>
       </c>
       <c r="Y156" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$U$3:$U$41</v>
       </c>
     </row>
@@ -11580,7 +11586,7 @@
         <v>139</v>
       </c>
       <c r="Y157" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$X$3:$X$41</v>
       </c>
     </row>
@@ -11593,7 +11599,7 @@
         <v>754</v>
       </c>
       <c r="Y158" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$AC$3:$AC$41</v>
       </c>
     </row>
@@ -11609,7 +11615,7 @@
         <v>737</v>
       </c>
       <c r="Y159" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$AF$3:$AF$41</v>
       </c>
     </row>
@@ -11625,7 +11631,7 @@
         <v>755</v>
       </c>
       <c r="Y160" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$AI$3:$AI$41</v>
       </c>
     </row>
@@ -11640,7 +11646,7 @@
         <v>143</v>
       </c>
       <c r="Y161" s="170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CellVille!$AM$3:$AM$41</v>
       </c>
     </row>
@@ -19075,11 +19081,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -19092,6 +19093,11 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19482,7 +19488,7 @@
       </c>
       <c r="B3" s="180" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>29-Oct-2025</v>
+        <v>31-Oct-2025</v>
       </c>
       <c r="C3" s="180"/>
     </row>
@@ -19864,10 +19870,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AFF65A-FECA-460F-9551-F9FBFBAF44DF}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:AU65"/>
+  <dimension ref="A1:AU784"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ5" sqref="AQ5"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26:AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
@@ -19880,7 +19886,7 @@
     <col min="46" max="16384" width="8.796875" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="16.95" customHeight="1">
+    <row r="1" spans="1:46" ht="16.95" customHeight="1">
       <c r="A1" s="78"/>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -19947,7 +19953,7 @@
       </c>
       <c r="AR1" s="202"/>
     </row>
-    <row r="2" spans="1:45" ht="16.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:46" ht="16.95" customHeight="1" thickBot="1">
       <c r="A2" s="82"/>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -19996,7 +20002,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="16.95" customHeight="1">
+    <row r="3" spans="1:46" ht="16.95" customHeight="1">
       <c r="A3" s="82"/>
       <c r="B3" s="83"/>
       <c r="C3" s="86" t="s">
@@ -20098,9 +20104,16 @@
       <c r="AR3" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="AS3" s="97"/>
-    </row>
-    <row r="4" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS3" s="97" t="str" cm="1">
+        <f t="array" ref="AS3:AS784">_xlfn.TOCOL(C3:AM41,TRUE)</f>
+        <v>🏗️</v>
+      </c>
+      <c r="AT3" s="178" cm="1">
+        <f t="array" ref="AT3:AT26">COUNTIFS(_xlfn.ANCHORARRAY(AS3),AQ3:AQ26)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="16.95" customHeight="1">
       <c r="A4" s="82">
         <v>4</v>
       </c>
@@ -20152,9 +20165,14 @@
       <c r="AR4" s="96" t="s">
         <v>331</v>
       </c>
-      <c r="AS4" s="97"/>
-    </row>
-    <row r="5" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS4" s="97" t="str">
+        <v>🍣</v>
+      </c>
+      <c r="AT4" s="178">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="16.95" customHeight="1">
       <c r="A5" s="82"/>
       <c r="B5" s="83"/>
       <c r="C5" s="101" t="s">
@@ -20256,9 +20274,14 @@
       <c r="AR5" s="96" t="s">
         <v>332</v>
       </c>
-      <c r="AS5" s="97"/>
-    </row>
-    <row r="6" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS5" s="97" t="str">
+        <v>🍕</v>
+      </c>
+      <c r="AT5" s="178">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="16.95" customHeight="1">
       <c r="A6" s="82"/>
       <c r="B6" s="83"/>
       <c r="C6" s="108" t="s">
@@ -20360,9 +20383,14 @@
       <c r="AR6" s="96" t="s">
         <v>333</v>
       </c>
-      <c r="AS6" s="97"/>
-    </row>
-    <row r="7" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS6" s="97" t="str">
+        <v>🏡</v>
+      </c>
+      <c r="AT6" s="178">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="16.95" customHeight="1">
       <c r="A7" s="82"/>
       <c r="B7" s="83"/>
       <c r="C7" s="101" t="s">
@@ -20464,9 +20492,14 @@
       <c r="AR7" s="96" t="s">
         <v>334</v>
       </c>
-      <c r="AS7" s="97"/>
-    </row>
-    <row r="8" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS7" s="97" t="str">
+        <v>🏥</v>
+      </c>
+      <c r="AT7" s="178">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" ht="16.95" customHeight="1">
       <c r="A8" s="82"/>
       <c r="B8" s="83"/>
       <c r="C8" s="108" t="s">
@@ -20568,9 +20601,14 @@
       <c r="AR8" s="96" t="s">
         <v>335</v>
       </c>
-      <c r="AS8" s="97"/>
-    </row>
-    <row r="9" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS8" s="97" t="str">
+        <v>⛲</v>
+      </c>
+      <c r="AT8" s="178">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" ht="16.95" customHeight="1">
       <c r="A9" s="82">
         <v>9</v>
       </c>
@@ -20622,9 +20660,14 @@
       <c r="AR9" s="96" t="s">
         <v>336</v>
       </c>
-      <c r="AS9" s="97"/>
-    </row>
-    <row r="10" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS9" s="97" t="str">
+        <v>🏠</v>
+      </c>
+      <c r="AT9" s="81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="16.95" customHeight="1">
       <c r="A10" s="82"/>
       <c r="B10" s="83"/>
       <c r="C10" s="117" t="s">
@@ -20726,9 +20769,14 @@
       <c r="AR10" s="96" t="s">
         <v>337</v>
       </c>
-      <c r="AS10" s="97"/>
-    </row>
-    <row r="11" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS10" s="97" t="str">
+        <v>🏘️</v>
+      </c>
+      <c r="AT10" s="81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="16.95" customHeight="1">
       <c r="A11" s="82"/>
       <c r="B11" s="83"/>
       <c r="C11" s="117" t="s">
@@ -20830,9 +20878,14 @@
       <c r="AR11" s="96" t="s">
         <v>338</v>
       </c>
-      <c r="AS11" s="97"/>
-    </row>
-    <row r="12" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS11" s="97" t="str">
+        <v>🌳</v>
+      </c>
+      <c r="AT11" s="81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" ht="16.95" customHeight="1">
       <c r="A12" s="82"/>
       <c r="B12" s="83"/>
       <c r="C12" s="108" t="s">
@@ -20934,9 +20987,14 @@
       <c r="AR12" s="96" t="s">
         <v>339</v>
       </c>
-      <c r="AS12" s="97"/>
-    </row>
-    <row r="13" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS12" s="97" t="str">
+        <v>🏠</v>
+      </c>
+      <c r="AT12" s="81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="16.95" customHeight="1">
       <c r="A13" s="82">
         <v>13</v>
       </c>
@@ -20988,9 +21046,14 @@
       <c r="AR13" s="96" t="s">
         <v>340</v>
       </c>
-      <c r="AS13" s="97"/>
-    </row>
-    <row r="14" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS13" s="97" t="str">
+        <v>🏘️</v>
+      </c>
+      <c r="AT13" s="81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" ht="16.95" customHeight="1">
       <c r="A14" s="82"/>
       <c r="B14" s="83"/>
       <c r="C14" s="101" t="s">
@@ -21090,9 +21153,14 @@
       <c r="AR14" s="96" t="s">
         <v>341</v>
       </c>
-      <c r="AS14" s="97"/>
-    </row>
-    <row r="15" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS14" s="97" t="str">
+        <v>🏘️</v>
+      </c>
+      <c r="AT14" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" ht="16.95" customHeight="1">
       <c r="A15" s="82"/>
       <c r="B15" s="83"/>
       <c r="C15" s="108" t="s">
@@ -21194,9 +21262,14 @@
       <c r="AR15" s="96" t="s">
         <v>342</v>
       </c>
-      <c r="AS15" s="97"/>
-    </row>
-    <row r="16" spans="1:45" ht="16.95" customHeight="1">
+      <c r="AS15" s="97" t="str">
+        <v>🌲</v>
+      </c>
+      <c r="AT15" s="81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" ht="16.95" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
       <c r="C16" s="108" t="s">
@@ -21298,7 +21371,12 @@
       <c r="AR16" s="96" t="s">
         <v>343</v>
       </c>
-      <c r="AS16" s="97"/>
+      <c r="AS16" s="97" t="str">
+        <v>🏠</v>
+      </c>
+      <c r="AT16" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:47" ht="16.95" customHeight="1">
       <c r="A17" s="82">
@@ -21352,7 +21430,12 @@
       <c r="AR17" s="96" t="s">
         <v>344</v>
       </c>
-      <c r="AS17" s="97"/>
+      <c r="AS17" s="97" t="str">
+        <v>🌳</v>
+      </c>
+      <c r="AT17" s="81">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:47" ht="16.95" customHeight="1">
       <c r="A18" s="82"/>
@@ -21456,7 +21539,12 @@
       <c r="AR18" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="AS18" s="97"/>
+      <c r="AS18" s="97" t="str">
+        <v>🏡</v>
+      </c>
+      <c r="AT18" s="81">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:47" ht="16.95" customHeight="1">
       <c r="A19" s="82"/>
@@ -21560,7 +21648,12 @@
       <c r="AR19" s="96" t="s">
         <v>346</v>
       </c>
-      <c r="AS19" s="97"/>
+      <c r="AS19" s="97" t="str">
+        <v>🏪</v>
+      </c>
+      <c r="AT19" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:47" ht="16.95" customHeight="1">
       <c r="A20" s="82">
@@ -21614,7 +21707,12 @@
       <c r="AR20" s="96" t="s">
         <v>347</v>
       </c>
-      <c r="AS20" s="97"/>
+      <c r="AS20" s="97" t="str">
+        <v>🏘️</v>
+      </c>
+      <c r="AT20" s="81">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:47" ht="16.95" customHeight="1">
       <c r="A21" s="82"/>
@@ -21718,7 +21816,12 @@
       <c r="AR21" s="96" t="s">
         <v>348</v>
       </c>
-      <c r="AS21" s="97"/>
+      <c r="AS21" s="97" t="str">
+        <v>⛲</v>
+      </c>
+      <c r="AT21" s="81">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:47" ht="16.95" customHeight="1">
       <c r="A22" s="82"/>
@@ -21822,7 +21925,12 @@
       <c r="AR22" s="96" t="s">
         <v>349</v>
       </c>
-      <c r="AS22" s="97"/>
+      <c r="AS22" s="97" t="str">
+        <v>🏡</v>
+      </c>
+      <c r="AT22" s="81">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:47" ht="16.95" customHeight="1">
       <c r="A23" s="82"/>
@@ -21926,7 +22034,12 @@
       <c r="AR23" s="96" t="s">
         <v>350</v>
       </c>
-      <c r="AS23" s="97"/>
+      <c r="AS23" s="97" t="str">
+        <v>🏡</v>
+      </c>
+      <c r="AT23" s="81">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:47" ht="16.95" customHeight="1">
       <c r="A24" s="82"/>
@@ -22030,7 +22143,12 @@
       <c r="AR24" s="96" t="s">
         <v>351</v>
       </c>
-      <c r="AS24" s="97"/>
+      <c r="AS24" s="97" t="str">
+        <v>🌲</v>
+      </c>
+      <c r="AT24" s="81">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:47" ht="16.95" customHeight="1">
       <c r="A25" s="82">
@@ -22084,7 +22202,12 @@
       <c r="AR25" s="96" t="s">
         <v>352</v>
       </c>
-      <c r="AS25" s="97"/>
+      <c r="AS25" s="97" t="str">
+        <v>🏡</v>
+      </c>
+      <c r="AT25" s="81">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:47" ht="16.95" customHeight="1">
       <c r="A26" s="82"/>
@@ -22188,7 +22311,12 @@
       <c r="AR26" s="134" t="s">
         <v>353</v>
       </c>
-      <c r="AS26" s="97"/>
+      <c r="AS26" s="97" t="str">
+        <v>🏡</v>
+      </c>
+      <c r="AT26" s="81">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:47" ht="16.95" customHeight="1">
       <c r="A27" s="82"/>
@@ -22286,6 +22414,9 @@
       </c>
       <c r="AN27" s="83"/>
       <c r="AO27" s="84"/>
+      <c r="AS27" s="81" t="str">
+        <v>🌳</v>
+      </c>
       <c r="AU27" s="135"/>
     </row>
     <row r="28" spans="1:47" ht="16.95" customHeight="1">
@@ -22334,6 +22465,9 @@
       <c r="AO28" s="84">
         <v>28</v>
       </c>
+      <c r="AS28" s="81" t="str">
+        <v>🏥</v>
+      </c>
       <c r="AU28" s="135"/>
     </row>
     <row r="29" spans="1:47" ht="16.95" customHeight="1">
@@ -22432,6 +22566,9 @@
       </c>
       <c r="AN29" s="83"/>
       <c r="AO29" s="84"/>
+      <c r="AS29" s="81" t="str">
+        <v>🏠</v>
+      </c>
       <c r="AU29" s="135"/>
     </row>
     <row r="30" spans="1:47" ht="16.95" customHeight="1">
@@ -22530,6 +22667,9 @@
       </c>
       <c r="AN30" s="83"/>
       <c r="AO30" s="84"/>
+      <c r="AS30" s="81" t="str">
+        <v>🏪</v>
+      </c>
       <c r="AU30" s="135"/>
     </row>
     <row r="31" spans="1:47" ht="16.95" customHeight="1">
@@ -22628,6 +22768,9 @@
       </c>
       <c r="AN31" s="83"/>
       <c r="AO31" s="84"/>
+      <c r="AS31" s="81" t="str">
+        <v>⛽</v>
+      </c>
       <c r="AU31" s="135"/>
     </row>
     <row r="32" spans="1:47" ht="16.95" customHeight="1">
@@ -22676,6 +22819,9 @@
       <c r="AO32" s="84">
         <v>32</v>
       </c>
+      <c r="AS32" s="81" t="str">
+        <v>🏬</v>
+      </c>
       <c r="AU32" s="135"/>
     </row>
     <row r="33" spans="1:47" ht="16.95" customHeight="1">
@@ -22774,6 +22920,9 @@
       </c>
       <c r="AN33" s="83"/>
       <c r="AO33" s="84"/>
+      <c r="AS33" s="81" t="str">
+        <v>🌲</v>
+      </c>
       <c r="AU33" s="135"/>
     </row>
     <row r="34" spans="1:47" ht="16.95" customHeight="1">
@@ -22872,6 +23021,9 @@
       </c>
       <c r="AN34" s="83"/>
       <c r="AO34" s="84"/>
+      <c r="AS34" s="81" t="str">
+        <v>🍻</v>
+      </c>
       <c r="AU34" s="135"/>
     </row>
     <row r="35" spans="1:47" ht="16.95" customHeight="1">
@@ -22970,6 +23122,9 @@
       </c>
       <c r="AN35" s="83"/>
       <c r="AO35" s="84"/>
+      <c r="AS35" s="81" t="str">
+        <v>🌲</v>
+      </c>
       <c r="AU35" s="135"/>
     </row>
     <row r="36" spans="1:47" ht="16.95" customHeight="1">
@@ -23068,6 +23223,9 @@
       </c>
       <c r="AN36" s="83"/>
       <c r="AO36" s="84"/>
+      <c r="AS36" s="81" t="str">
+        <v>🏘️</v>
+      </c>
       <c r="AU36" s="135"/>
     </row>
     <row r="37" spans="1:47" ht="16.95" customHeight="1">
@@ -23116,6 +23274,9 @@
       <c r="AO37" s="84">
         <v>37</v>
       </c>
+      <c r="AS37" s="81" t="str">
+        <v>🏪</v>
+      </c>
       <c r="AU37" s="135"/>
     </row>
     <row r="38" spans="1:47" ht="16.95" customHeight="1">
@@ -23214,6 +23375,9 @@
       </c>
       <c r="AN38" s="83"/>
       <c r="AO38" s="84"/>
+      <c r="AS38" s="81" t="str">
+        <v>🏘️</v>
+      </c>
       <c r="AU38" s="135"/>
     </row>
     <row r="39" spans="1:47" ht="16.95" customHeight="1">
@@ -23312,6 +23476,9 @@
       </c>
       <c r="AN39" s="83"/>
       <c r="AO39" s="84"/>
+      <c r="AS39" s="81" t="str">
+        <v>🏘️</v>
+      </c>
       <c r="AU39" s="135"/>
     </row>
     <row r="40" spans="1:47" ht="16.95" customHeight="1">
@@ -23360,6 +23527,9 @@
       <c r="AO40" s="84">
         <v>40</v>
       </c>
+      <c r="AS40" s="81" t="str">
+        <v>🏢</v>
+      </c>
       <c r="AU40" s="135"/>
     </row>
     <row r="41" spans="1:47" ht="16.95" customHeight="1" thickBot="1">
@@ -23458,6 +23628,9 @@
       </c>
       <c r="AN41" s="83"/>
       <c r="AO41" s="84"/>
+      <c r="AS41" s="81" t="str">
+        <v>🏠</v>
+      </c>
       <c r="AU41" s="135"/>
     </row>
     <row r="42" spans="1:47" ht="16.95" customHeight="1">
@@ -23502,6 +23675,9 @@
       <c r="AM42" s="83"/>
       <c r="AN42" s="83"/>
       <c r="AO42" s="84"/>
+      <c r="AS42" s="81" t="str">
+        <v>🏡</v>
+      </c>
     </row>
     <row r="43" spans="1:47" ht="16.95" customHeight="1" thickBot="1">
       <c r="A43" s="150"/>
@@ -23565,12 +23741,23 @@
       <c r="AM43" s="151"/>
       <c r="AN43" s="151"/>
       <c r="AO43" s="152"/>
+      <c r="AS43" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" ht="16.95" customHeight="1">
+      <c r="AS44" s="81" t="str">
+        <v>🏡</v>
+      </c>
     </row>
     <row r="45" spans="1:47" ht="16.95" customHeight="1">
       <c r="C45" s="81">
         <f>COUNTIFS(C3:C41,Case!G81)</f>
         <v>0</v>
       </c>
+      <c r="AS45" s="81" t="str">
+        <v>🏡</v>
+      </c>
     </row>
     <row r="46" spans="1:47" ht="16.95" customHeight="1">
       <c r="P46" s="81">
@@ -23579,6 +23766,9 @@
       <c r="Q46" s="81" t="str">
         <f>P46&amp;"-N"</f>
         <v>4-N</v>
+      </c>
+      <c r="AS46" s="81" t="str">
+        <v>🍻</v>
       </c>
     </row>
     <row r="47" spans="1:47" ht="16.95" customHeight="1">
@@ -23593,6 +23783,9 @@
         <f t="shared" ref="Q47:Q55" si="0">P47&amp;"-N"</f>
         <v>9-N</v>
       </c>
+      <c r="AS47" s="81" t="str">
+        <v>🌳</v>
+      </c>
     </row>
     <row r="48" spans="1:47" ht="16.95" customHeight="1">
       <c r="P48" s="81">
@@ -23602,8 +23795,11 @@
         <f t="shared" si="0"/>
         <v>13-N</v>
       </c>
-    </row>
-    <row r="49" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS48" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="49" spans="16:45" ht="16.95" customHeight="1">
       <c r="P49" s="81">
         <v>17</v>
       </c>
@@ -23611,8 +23807,11 @@
         <f t="shared" si="0"/>
         <v>17-N</v>
       </c>
-    </row>
-    <row r="50" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS49" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="50" spans="16:45" ht="16.95" customHeight="1">
       <c r="P50" s="81">
         <v>20</v>
       </c>
@@ -23620,8 +23819,11 @@
         <f t="shared" si="0"/>
         <v>20-N</v>
       </c>
-    </row>
-    <row r="51" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS50" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="51" spans="16:45" ht="16.95" customHeight="1">
       <c r="P51" s="81">
         <v>25</v>
       </c>
@@ -23629,8 +23831,11 @@
         <f t="shared" si="0"/>
         <v>25-N</v>
       </c>
-    </row>
-    <row r="52" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS51" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="52" spans="16:45" ht="16.95" customHeight="1">
       <c r="P52" s="81">
         <v>28</v>
       </c>
@@ -23638,8 +23843,11 @@
         <f t="shared" si="0"/>
         <v>28-N</v>
       </c>
-    </row>
-    <row r="53" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS52" s="81" t="str">
+        <v>🏪</v>
+      </c>
+    </row>
+    <row r="53" spans="16:45" ht="16.95" customHeight="1">
       <c r="P53" s="81">
         <v>32</v>
       </c>
@@ -23647,8 +23855,11 @@
         <f t="shared" si="0"/>
         <v>32-N</v>
       </c>
-    </row>
-    <row r="54" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS53" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="54" spans="16:45" ht="16.95" customHeight="1">
       <c r="P54" s="81">
         <v>37</v>
       </c>
@@ -23656,8 +23867,11 @@
         <f t="shared" si="0"/>
         <v>37-N</v>
       </c>
-    </row>
-    <row r="55" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS54" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="55" spans="16:45" ht="16.95" customHeight="1">
       <c r="P55" s="81">
         <v>40</v>
       </c>
@@ -23665,8 +23879,11 @@
         <f t="shared" si="0"/>
         <v>40-N</v>
       </c>
-    </row>
-    <row r="56" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS55" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="56" spans="16:45" ht="16.95" customHeight="1">
       <c r="P56" s="81">
         <v>4</v>
       </c>
@@ -23674,8 +23891,11 @@
         <f>P56&amp;"-S"</f>
         <v>4-S</v>
       </c>
-    </row>
-    <row r="57" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS56" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="57" spans="16:45" ht="16.95" customHeight="1">
       <c r="P57" s="81">
         <v>9</v>
       </c>
@@ -23683,8 +23903,11 @@
         <f t="shared" ref="Q57:Q65" si="1">P57&amp;"-S"</f>
         <v>9-S</v>
       </c>
-    </row>
-    <row r="58" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS57" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="58" spans="16:45" ht="16.95" customHeight="1">
       <c r="P58" s="81">
         <v>13</v>
       </c>
@@ -23692,8 +23915,11 @@
         <f t="shared" si="1"/>
         <v>13-S</v>
       </c>
-    </row>
-    <row r="59" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS58" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="59" spans="16:45" ht="16.95" customHeight="1">
       <c r="P59" s="81">
         <v>17</v>
       </c>
@@ -23701,8 +23927,11 @@
         <f t="shared" si="1"/>
         <v>17-S</v>
       </c>
-    </row>
-    <row r="60" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS59" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="60" spans="16:45" ht="16.95" customHeight="1">
       <c r="P60" s="81">
         <v>20</v>
       </c>
@@ -23710,8 +23939,11 @@
         <f t="shared" si="1"/>
         <v>20-S</v>
       </c>
-    </row>
-    <row r="61" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS60" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="61" spans="16:45" ht="16.95" customHeight="1">
       <c r="P61" s="81">
         <v>25</v>
       </c>
@@ -23719,8 +23951,11 @@
         <f t="shared" si="1"/>
         <v>25-S</v>
       </c>
-    </row>
-    <row r="62" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS61" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="62" spans="16:45" ht="16.95" customHeight="1">
       <c r="P62" s="81">
         <v>28</v>
       </c>
@@ -23728,8 +23963,11 @@
         <f t="shared" si="1"/>
         <v>28-S</v>
       </c>
-    </row>
-    <row r="63" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS62" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="63" spans="16:45" ht="16.95" customHeight="1">
       <c r="P63" s="81">
         <v>32</v>
       </c>
@@ -23737,8 +23975,11 @@
         <f t="shared" si="1"/>
         <v>32-S</v>
       </c>
-    </row>
-    <row r="64" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS63" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="64" spans="16:45" ht="16.95" customHeight="1">
       <c r="P64" s="81">
         <v>37</v>
       </c>
@@ -23746,14 +23987,3615 @@
         <f t="shared" si="1"/>
         <v>37-S</v>
       </c>
-    </row>
-    <row r="65" spans="16:17" ht="16.95" customHeight="1">
+      <c r="AS64" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="65" spans="16:45" ht="16.95" customHeight="1">
       <c r="P65" s="81">
         <v>40</v>
       </c>
       <c r="Q65" s="81" t="str">
         <f t="shared" si="1"/>
         <v>40-S</v>
+      </c>
+      <c r="AS65" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="66" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS66" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="67" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS67" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="68" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS68" s="81" t="str">
+        <v>🏦</v>
+      </c>
+    </row>
+    <row r="69" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS69" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="70" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS70" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="71" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS71" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="72" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS72" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="73" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS73" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="74" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS74" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="75" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS75" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="76" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS76" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="77" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS77" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="78" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS78" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="79" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS79" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="80" spans="16:45" ht="16.95" customHeight="1">
+      <c r="AS80" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="81" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS81" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="82" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS82" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="83" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS83" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="84" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS84" s="81" t="str">
+        <v>🏬</v>
+      </c>
+    </row>
+    <row r="85" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS85" s="81" t="str">
+        <v>🚉</v>
+      </c>
+    </row>
+    <row r="86" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS86" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="87" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS87" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="88" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS88" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="89" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS89" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="90" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS90" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="91" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS91" s="81" t="str">
+        <v>🍣</v>
+      </c>
+    </row>
+    <row r="92" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS92" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="93" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS93" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="94" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS94" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="95" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS95" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="96" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS96" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="97" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS97" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="98" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS98" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="99" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS99" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="100" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS100" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="101" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS101" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="102" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS102" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="103" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS103" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="104" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS104" s="81" t="str">
+        <v>🚉</v>
+      </c>
+    </row>
+    <row r="105" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS105" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="106" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS106" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="107" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS107" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="108" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS108" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="109" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS109" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="110" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS110" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="111" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS111" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="112" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS112" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="113" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS113" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="114" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS114" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="115" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS115" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="116" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS116" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="117" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS117" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="118" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS118" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="119" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS119" s="81" t="str">
+        <v>🏫</v>
+      </c>
+    </row>
+    <row r="120" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS120" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="121" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS121" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="122" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS122" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="123" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS123" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="124" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS124" s="81" t="str">
+        <v>🏫</v>
+      </c>
+    </row>
+    <row r="125" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS125" s="81" t="str">
+        <v>🏦</v>
+      </c>
+    </row>
+    <row r="126" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS126" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="127" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS127" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="128" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS128" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="129" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS129" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="130" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS130" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="131" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS131" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="132" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS132" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="133" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS133" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="134" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS134" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="135" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS135" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="136" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS136" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="137" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS137" s="81" t="str">
+        <v>🍕</v>
+      </c>
+    </row>
+    <row r="138" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS138" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="139" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS139" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="140" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS140" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="141" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS141" s="81" t="str">
+        <v>🍔</v>
+      </c>
+    </row>
+    <row r="142" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS142" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="143" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS143" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="144" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS144" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="145" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS145" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="146" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS146" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="147" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS147" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="148" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS148" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="149" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS149" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="150" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS150" s="81" t="str">
+        <v>🍕</v>
+      </c>
+    </row>
+    <row r="151" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS151" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="152" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS152" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="153" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS153" s="81" t="str">
+        <v>🏪</v>
+      </c>
+    </row>
+    <row r="154" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS154" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="155" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS155" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="156" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS156" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="157" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS157" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="158" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS158" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="159" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS159" s="81" t="str">
+        <v>🍔</v>
+      </c>
+    </row>
+    <row r="160" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS160" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="161" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS161" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="162" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS162" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="163" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS163" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="164" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS164" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="165" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS165" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="166" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS166" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="167" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS167" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="168" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS168" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="169" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS169" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="170" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS170" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="171" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS171" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="172" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS172" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="173" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS173" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="174" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS174" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="175" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS175" s="81" t="str">
+        <v>🏨</v>
+      </c>
+    </row>
+    <row r="176" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS176" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="177" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS177" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="178" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS178" s="81" t="str">
+        <v>🍣</v>
+      </c>
+    </row>
+    <row r="179" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS179" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="180" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS180" s="81" t="str">
+        <v>☕</v>
+      </c>
+    </row>
+    <row r="181" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS181" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="182" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS182" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="183" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS183" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="184" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS184" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="185" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS185" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="186" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS186" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="187" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS187" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="188" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS188" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="189" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS189" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="190" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS190" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="191" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS191" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="192" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS192" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="193" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS193" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="194" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS194" s="81" t="str">
+        <v>🍻</v>
+      </c>
+    </row>
+    <row r="195" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS195" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="196" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS196" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="197" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS197" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="198" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS198" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="199" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS199" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="200" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS200" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="201" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS201" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="202" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS202" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="203" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS203" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="204" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS204" s="81" t="str">
+        <v>🍻</v>
+      </c>
+    </row>
+    <row r="205" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS205" s="81" t="str">
+        <v>🏪</v>
+      </c>
+    </row>
+    <row r="206" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS206" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="207" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS207" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="208" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS208" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="209" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS209" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="210" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS210" s="81" t="str">
+        <v>🏨</v>
+      </c>
+    </row>
+    <row r="211" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS211" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="212" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS212" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="213" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS213" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="214" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS214" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="215" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS215" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="216" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS216" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="217" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS217" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="218" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS218" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="219" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS219" s="81" t="str">
+        <v>🏪</v>
+      </c>
+    </row>
+    <row r="220" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS220" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="221" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS221" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="222" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS222" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="223" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS223" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="224" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS224" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="225" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS225" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="226" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS226" s="81" t="str">
+        <v>🍣</v>
+      </c>
+    </row>
+    <row r="227" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS227" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="228" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS228" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="229" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS229" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="230" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS230" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="231" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS231" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="232" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS232" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="233" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS233" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="234" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS234" s="81" t="str">
+        <v>🍻</v>
+      </c>
+    </row>
+    <row r="235" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS235" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="236" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS236" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="237" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS237" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="238" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS238" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="239" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS239" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="240" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS240" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="241" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS241" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="242" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS242" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="243" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS243" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="244" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS244" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="245" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS245" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="246" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS246" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="247" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS247" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="248" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS248" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="249" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS249" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="250" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS250" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="251" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS251" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="252" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS252" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="253" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS253" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="254" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS254" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="255" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS255" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="256" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS256" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="257" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS257" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="258" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS258" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="259" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS259" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="260" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS260" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="261" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS261" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="262" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS262" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="263" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS263" s="81" t="str">
+        <v>🏥</v>
+      </c>
+    </row>
+    <row r="264" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS264" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="265" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS265" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="266" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS266" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="267" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS267" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="268" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS268" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="269" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS269" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="270" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS270" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="271" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS271" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="272" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS272" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="273" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS273" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="274" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS274" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="275" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS275" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="276" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS276" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="277" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS277" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="278" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS278" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="279" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS279" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="280" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS280" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="281" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS281" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="282" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS282" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="283" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS283" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="284" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS284" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="285" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS285" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="286" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS286" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="287" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS287" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="288" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS288" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="289" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS289" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="290" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS290" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="291" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS291" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="292" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS292" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="293" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS293" s="81" t="str">
+        <v>🚉</v>
+      </c>
+    </row>
+    <row r="294" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS294" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="295" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS295" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="296" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS296" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="297" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS297" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="298" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS298" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="299" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS299" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="300" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS300" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="301" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS301" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="302" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS302" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="303" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS303" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="304" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS304" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="305" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS305" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="306" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS306" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="307" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS307" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="308" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS308" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="309" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS309" s="81" t="str">
+        <v>🍻</v>
+      </c>
+    </row>
+    <row r="310" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS310" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="311" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS311" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="312" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS312" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="313" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS313" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="314" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS314" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="315" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS315" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="316" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS316" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="317" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS317" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="318" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS318" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="319" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS319" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="320" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS320" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="321" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS321" s="81" t="str">
+        <v>☕</v>
+      </c>
+    </row>
+    <row r="322" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS322" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="323" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS323" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="324" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS324" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="325" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS325" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="326" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS326" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="327" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS327" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="328" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS328" s="81" t="str">
+        <v>🍣</v>
+      </c>
+    </row>
+    <row r="329" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS329" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="330" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS330" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="331" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS331" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="332" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS332" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="333" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS333" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="334" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS334" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="335" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS335" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="336" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS336" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="337" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS337" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="338" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS338" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="339" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS339" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="340" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS340" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="341" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS341" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="342" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS342" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="343" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS343" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="344" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS344" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="345" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS345" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="346" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS346" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="347" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS347" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="348" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS348" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="349" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS349" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="350" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS350" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="351" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS351" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="352" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS352" s="81" t="str">
+        <v>🏫</v>
+      </c>
+    </row>
+    <row r="353" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS353" s="81" t="str">
+        <v>🍔</v>
+      </c>
+    </row>
+    <row r="354" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS354" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="355" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS355" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="356" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS356" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="357" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS357" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="358" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS358" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="359" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS359" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="360" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS360" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="361" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS361" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="362" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS362" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="363" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS363" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="364" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS364" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="365" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS365" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="366" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS366" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="367" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS367" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="368" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS368" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="369" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS369" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="370" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS370" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="371" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS371" s="81" t="str">
+        <v>🍕</v>
+      </c>
+    </row>
+    <row r="372" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS372" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="373" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS373" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="374" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS374" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="375" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS375" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="376" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS376" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="377" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS377" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="378" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS378" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="379" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS379" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="380" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS380" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="381" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS381" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="382" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS382" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="383" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS383" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="384" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS384" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="385" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS385" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="386" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS386" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="387" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS387" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="388" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS388" s="81" t="str">
+        <v>🏬</v>
+      </c>
+    </row>
+    <row r="389" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS389" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="390" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS390" s="81" t="str">
+        <v>🍔</v>
+      </c>
+    </row>
+    <row r="391" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS391" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="392" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS392" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="393" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS393" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="394" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS394" s="81" t="str">
+        <v>☕</v>
+      </c>
+    </row>
+    <row r="395" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS395" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="396" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS396" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="397" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS397" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="398" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS398" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="399" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS399" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="400" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS400" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="401" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS401" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="402" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS402" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="403" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS403" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="404" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS404" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="405" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS405" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="406" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS406" s="81" t="str">
+        <v>☕</v>
+      </c>
+    </row>
+    <row r="407" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS407" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="408" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS408" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="409" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS409" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="410" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS410" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="411" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS411" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="412" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS412" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="413" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS413" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="414" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS414" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="415" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS415" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="416" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS416" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="417" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS417" s="81" t="str">
+        <v>🍕</v>
+      </c>
+    </row>
+    <row r="418" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS418" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="419" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS419" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="420" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS420" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="421" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS421" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="422" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS422" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="423" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS423" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="424" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS424" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="425" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS425" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="426" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS426" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="427" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS427" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="428" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS428" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="429" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS429" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="430" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS430" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="431" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS431" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="432" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS432" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="433" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS433" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="434" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS434" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="435" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS435" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="436" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS436" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="437" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS437" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="438" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS438" s="81" t="str">
+        <v>🏟️</v>
+      </c>
+    </row>
+    <row r="439" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS439" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="440" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS440" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="441" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS441" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="442" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS442" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="443" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS443" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="444" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS444" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="445" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS445" s="81" t="str">
+        <v>🏫</v>
+      </c>
+    </row>
+    <row r="446" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS446" s="81" t="str">
+        <v>🍔</v>
+      </c>
+    </row>
+    <row r="447" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS447" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="448" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS448" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="449" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS449" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="450" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS450" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="451" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS451" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="452" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS452" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="453" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS453" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="454" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS454" s="81" t="str">
+        <v>🏦</v>
+      </c>
+    </row>
+    <row r="455" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS455" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="456" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS456" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="457" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS457" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="458" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS458" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="459" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS459" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="460" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS460" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="461" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS461" s="81" t="str">
+        <v>🏬</v>
+      </c>
+    </row>
+    <row r="462" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS462" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="463" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS463" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="464" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS464" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="465" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS465" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="466" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS466" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="467" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS467" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="468" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS468" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="469" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS469" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="470" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS470" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="471" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS471" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="472" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS472" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="473" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS473" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="474" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS474" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="475" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS475" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="476" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS476" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="477" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS477" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="478" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS478" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="479" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS479" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="480" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS480" s="81" t="str">
+        <v>🍻</v>
+      </c>
+    </row>
+    <row r="481" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS481" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="482" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS482" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="483" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS483" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="484" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS484" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="485" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS485" s="81" t="str">
+        <v>🏛️</v>
+      </c>
+    </row>
+    <row r="486" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS486" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="487" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS487" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="488" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS488" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="489" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS489" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="490" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS490" s="81" t="str">
+        <v>🚉</v>
+      </c>
+    </row>
+    <row r="491" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS491" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="492" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS492" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="493" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS493" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="494" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS494" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="495" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS495" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="496" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS496" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="497" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS497" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="498" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS498" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="499" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS499" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="500" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS500" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="501" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS501" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="502" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS502" s="81" t="str">
+        <v>🏥</v>
+      </c>
+    </row>
+    <row r="503" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS503" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="504" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS504" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="505" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS505" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="506" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS506" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="507" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS507" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="508" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS508" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="509" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS509" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="510" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS510" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="511" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS511" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="512" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS512" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="513" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS513" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="514" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS514" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="515" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS515" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="516" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS516" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="517" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS517" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="518" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS518" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="519" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS519" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="520" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS520" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="521" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS521" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="522" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS522" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="523" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS523" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="524" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS524" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="525" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS525" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="526" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS526" s="81" t="str">
+        <v>🏦</v>
+      </c>
+    </row>
+    <row r="527" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS527" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="528" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS528" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="529" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS529" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="530" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS530" s="81" t="str">
+        <v>🏪</v>
+      </c>
+    </row>
+    <row r="531" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS531" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="532" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS532" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="533" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS533" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="534" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS534" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="535" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS535" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="536" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS536" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="537" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS537" s="81" t="str">
+        <v>🍔</v>
+      </c>
+    </row>
+    <row r="538" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS538" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="539" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS539" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="540" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS540" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="541" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS541" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="542" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS542" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="543" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS543" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="544" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS544" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="545" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS545" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="546" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS546" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="547" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS547" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="548" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS548" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="549" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS549" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="550" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS550" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="551" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS551" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="552" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS552" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="553" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS553" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="554" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS554" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="555" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS555" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="556" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS556" s="81" t="str">
+        <v>🚉</v>
+      </c>
+    </row>
+    <row r="557" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS557" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="558" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS558" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="559" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS559" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="560" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS560" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="561" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS561" s="81" t="str">
+        <v>🏪</v>
+      </c>
+    </row>
+    <row r="562" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS562" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="563" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS563" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="564" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS564" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="565" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS565" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="566" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS566" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="567" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS567" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="568" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS568" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="569" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS569" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="570" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS570" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="571" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS571" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="572" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS572" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="573" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS573" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="574" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS574" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="575" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS575" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="576" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS576" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="577" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS577" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="578" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS578" s="81" t="str">
+        <v>🏫</v>
+      </c>
+    </row>
+    <row r="579" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS579" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="580" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS580" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="581" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS581" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="582" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS582" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="583" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS583" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="584" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS584" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="585" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS585" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="586" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS586" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="587" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS587" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="588" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS588" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="589" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS589" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="590" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS590" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="591" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS591" s="81" t="str">
+        <v>🏨</v>
+      </c>
+    </row>
+    <row r="592" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS592" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="593" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS593" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="594" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS594" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="595" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS595" s="81" t="str">
+        <v>🏨</v>
+      </c>
+    </row>
+    <row r="596" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS596" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="597" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS597" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="598" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS598" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="599" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS599" s="81" t="str">
+        <v>🏗️</v>
+      </c>
+    </row>
+    <row r="600" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS600" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="601" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS601" s="81" t="str">
+        <v>🏪</v>
+      </c>
+    </row>
+    <row r="602" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS602" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="603" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS603" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="604" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS604" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="605" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS605" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="606" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS606" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="607" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS607" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="608" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS608" s="81" t="str">
+        <v>🏪</v>
+      </c>
+    </row>
+    <row r="609" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS609" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="610" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS610" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="611" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS611" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="612" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS612" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="613" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS613" s="81" t="str">
+        <v>🍻</v>
+      </c>
+    </row>
+    <row r="614" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS614" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="615" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS615" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="616" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS616" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="617" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS617" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="618" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS618" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="619" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS619" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="620" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS620" s="81" t="str">
+        <v>🏥</v>
+      </c>
+    </row>
+    <row r="621" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS621" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="622" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS622" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="623" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS623" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="624" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS624" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="625" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS625" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="626" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS626" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="627" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS627" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="628" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS628" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="629" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS629" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="630" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS630" s="81" t="str">
+        <v>☕</v>
+      </c>
+    </row>
+    <row r="631" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS631" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="632" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS632" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="633" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS633" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="634" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS634" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="635" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS635" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="636" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS636" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="637" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS637" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="638" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS638" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="639" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS639" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="640" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS640" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="641" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS641" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="642" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS642" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="643" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS643" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="644" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS644" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="645" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS645" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="646" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS646" s="81" t="str">
+        <v>🏫</v>
+      </c>
+    </row>
+    <row r="647" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS647" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="648" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS648" s="81" t="str">
+        <v>🏪</v>
+      </c>
+    </row>
+    <row r="649" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS649" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="650" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS650" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="651" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS651" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="652" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS652" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="653" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS653" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="654" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS654" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="655" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS655" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="656" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS656" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="657" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS657" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="658" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS658" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="659" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS659" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="660" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS660" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="661" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS661" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="662" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS662" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="663" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS663" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="664" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS664" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="665" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS665" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="666" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS666" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="667" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS667" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="668" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS668" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="669" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS669" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="670" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS670" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="671" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS671" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="672" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS672" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="673" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS673" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="674" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS674" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="675" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS675" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="676" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS676" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="677" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS677" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="678" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS678" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="679" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS679" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="680" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS680" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="681" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS681" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="682" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS682" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="683" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS683" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="684" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS684" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="685" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS685" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="686" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS686" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="687" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS687" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="688" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS688" s="81" t="str">
+        <v>🍞</v>
+      </c>
+    </row>
+    <row r="689" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS689" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="690" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS690" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="691" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS691" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="692" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS692" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="693" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS693" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="694" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS694" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="695" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS695" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="696" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS696" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="697" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS697" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="698" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS698" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="699" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS699" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="700" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS700" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="701" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS701" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="702" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS702" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="703" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS703" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="704" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS704" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="705" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS705" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="706" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS706" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="707" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS707" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="708" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS708" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="709" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS709" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="710" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS710" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="711" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS711" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="712" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS712" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="713" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS713" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="714" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS714" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="715" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS715" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="716" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS716" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="717" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS717" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="718" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS718" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="719" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS719" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="720" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS720" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="721" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS721" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="722" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS722" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="723" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS723" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="724" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS724" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="725" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS725" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="726" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS726" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="727" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS727" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="728" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS728" s="81" t="str">
+        <v>🏢</v>
+      </c>
+    </row>
+    <row r="729" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS729" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="730" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS730" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="731" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS731" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="732" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS732" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="733" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS733" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="734" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS734" s="81" t="str">
+        <v>☕</v>
+      </c>
+    </row>
+    <row r="735" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS735" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="736" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS736" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="737" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS737" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="738" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS738" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="739" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS739" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="740" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS740" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="741" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS741" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="742" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS742" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="743" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS743" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="744" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS744" s="81" t="str">
+        <v>☕</v>
+      </c>
+    </row>
+    <row r="745" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS745" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="746" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS746" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="747" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS747" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="748" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS748" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="749" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS749" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="750" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS750" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="751" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS751" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="752" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS752" s="81" t="str">
+        <v>🚉</v>
+      </c>
+    </row>
+    <row r="753" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS753" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="754" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS754" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="755" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS755" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="756" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS756" s="81" t="str">
+        <v>⛽</v>
+      </c>
+    </row>
+    <row r="757" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS757" s="81" t="str">
+        <v>🍕</v>
+      </c>
+    </row>
+    <row r="758" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS758" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="759" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS759" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="760" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS760" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="761" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS761" s="81" t="str">
+        <v>🚉</v>
+      </c>
+    </row>
+    <row r="762" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS762" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="763" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS763" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="764" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS764" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="765" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS765" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="766" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS766" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="767" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS767" s="81" t="str">
+        <v>🏟️</v>
+      </c>
+    </row>
+    <row r="768" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS768" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="769" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS769" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="770" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS770" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="771" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS771" s="81" t="str">
+        <v>🍔</v>
+      </c>
+    </row>
+    <row r="772" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS772" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="773" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS773" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="774" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS774" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="775" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS775" s="81" t="str">
+        <v>🏡</v>
+      </c>
+    </row>
+    <row r="776" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS776" s="81" t="str">
+        <v>⛲</v>
+      </c>
+    </row>
+    <row r="777" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS777" s="81" t="str">
+        <v>🌲</v>
+      </c>
+    </row>
+    <row r="778" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS778" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="779" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS779" s="81" t="str">
+        <v>🏠</v>
+      </c>
+    </row>
+    <row r="780" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS780" s="81" t="str">
+        <v>🍻</v>
+      </c>
+    </row>
+    <row r="781" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS781" s="81" t="str">
+        <v>🏥</v>
+      </c>
+    </row>
+    <row r="782" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS782" s="81" t="str">
+        <v>🏘️</v>
+      </c>
+    </row>
+    <row r="783" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS783" s="81" t="str">
+        <v>🌳</v>
+      </c>
+    </row>
+    <row r="784" spans="45:45" ht="16.95" customHeight="1">
+      <c r="AS784" s="81" t="str">
+        <v>🏡</v>
       </c>
     </row>
   </sheetData>
@@ -28550,8 +32392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB505C8-B5A5-43E7-BDB1-CEB8314A9C64}">
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E258" sqref="E258"/>
+    <sheetView topLeftCell="A304" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -28570,20 +32412,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="59.25" customHeight="1">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="186"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="192"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1"/>
     <row r="4" spans="2:16" ht="33" customHeight="1">
@@ -28626,52 +32468,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="2:16" ht="162" customHeight="1">
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="2:16" ht="245.4" customHeight="1">
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="196" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -28751,15 +32593,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="194" t="s">
+      <c r="G16" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="195"/>
-      <c r="M16" s="196"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="199"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -28776,17 +32618,17 @@
       </c>
       <c r="F17" s="20">
         <f>IF(ISBLANK(Case!E17),0,IF(E17=Case!E17,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="200" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -28803,7 +32645,7 @@
       </c>
       <c r="F18" s="20">
         <f>IF(ISBLANK(Case!E18),0,IF(E18=Case!E18,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="183" t="s">
         <v>91</v>
@@ -28857,7 +32699,7 @@
       </c>
       <c r="F20" s="20">
         <f>IF(ISBLANK(Case!E20),0,IF(E20=Case!E20,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="183" t="s">
         <v>95</v>
@@ -28886,15 +32728,15 @@
         <f>IF(ISBLANK(Case!E21),0,IF(E21=Case!E21,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="198" t="s">
+      <c r="G21" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="200"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="185"/>
+      <c r="M21" s="186"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
@@ -28951,7 +32793,7 @@
       <c r="F26" s="20"/>
       <c r="L26" s="203">
         <f>SUMPRODUCT(--(F:F=1),D:D)</f>
-        <v>800</v>
+        <v>930</v>
       </c>
       <c r="M26" s="204"/>
     </row>
@@ -35753,6 +39595,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -35765,13 +39614,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chille - OR(TRICK, TREAT) (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93685E8-7A13-4C11-B073-31F0A0FEC34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3607E1-A2E7-43C0-881D-D67272931BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D933904C-08DE-4507-8D89-8C098F48A748}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -3795,14 +3795,14 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3811,15 +3811,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3845,6 +3836,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4811,7 +4811,7 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:BJ327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4839,20 +4839,20 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15" customHeight="1"/>
     <row r="2" spans="2:51" ht="59.25" customHeight="1">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="192"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="186"/>
     </row>
     <row r="3" spans="2:51" ht="15" customHeight="1"/>
     <row r="4" spans="2:51" ht="33" customHeight="1">
@@ -4930,52 +4930,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:51" ht="21.75" customHeight="1">
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
     </row>
     <row r="9" spans="2:51" ht="162" customHeight="1">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
     </row>
     <row r="10" spans="2:51" ht="245.4" customHeight="1">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="193" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
     </row>
     <row r="11" spans="2:51" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -5055,15 +5055,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="197" t="s">
+      <c r="G16" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="199"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="196"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -5079,15 +5079,15 @@
         <v>736</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="200" t="s">
+      <c r="G17" s="197" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -5123,7 +5123,9 @@
       <c r="D19" s="18">
         <v>50</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="19">
+        <v>12150</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="183" t="s">
         <v>93</v>
@@ -5171,15 +5173,15 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="184" t="s">
+      <c r="G21" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="185"/>
-      <c r="M21" s="186"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="200"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
@@ -19081,6 +19083,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -19093,11 +19100,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19488,7 +19490,7 @@
       </c>
       <c r="B3" s="180" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>31-Oct-2025</v>
+        <v>01-Nov-2025</v>
       </c>
       <c r="C3" s="180"/>
     </row>
@@ -27804,10 +27806,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A3086-7997-4A71-AB5E-2F045CDD57B9}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.95" customHeight="1"/>
@@ -27845,7 +27847,14 @@
       <c r="B3" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="153"/>
+      <c r="C3" s="153" cm="1">
+        <f t="array" ref="C3">_xlfn.LET(_xlpm.dslk,B3,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>350</v>
+      </c>
       <c r="D3" s="153"/>
     </row>
     <row r="4" spans="1:4" ht="16.95" customHeight="1">
@@ -27855,7 +27864,14 @@
       <c r="B4" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="153"/>
+      <c r="C4" s="153" cm="1">
+        <f t="array" ref="C4">_xlfn.LET(_xlpm.dslk,B4,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D4" s="153"/>
     </row>
     <row r="5" spans="1:4" ht="16.95" customHeight="1">
@@ -27865,7 +27881,14 @@
       <c r="B5" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="153"/>
+      <c r="C5" s="153" cm="1">
+        <f t="array" ref="C5">_xlfn.LET(_xlpm.dslk,B5,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D5" s="153"/>
     </row>
     <row r="6" spans="1:4" ht="16.95" customHeight="1">
@@ -27875,7 +27898,14 @@
       <c r="B6" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="153"/>
+      <c r="C6" s="153" cm="1">
+        <f t="array" ref="C6">_xlfn.LET(_xlpm.dslk,B6,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D6" s="153"/>
     </row>
     <row r="7" spans="1:4" ht="16.95" customHeight="1">
@@ -27885,7 +27915,14 @@
       <c r="B7" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="153"/>
+      <c r="C7" s="153" cm="1">
+        <f t="array" ref="C7">_xlfn.LET(_xlpm.dslk,B7,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D7" s="153"/>
     </row>
     <row r="8" spans="1:4" ht="16.95" customHeight="1">
@@ -27895,7 +27932,14 @@
       <c r="B8" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="153"/>
+      <c r="C8" s="153" cm="1">
+        <f t="array" ref="C8">_xlfn.LET(_xlpm.dslk,B8,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D8" s="153"/>
     </row>
     <row r="9" spans="1:4" ht="16.95" customHeight="1">
@@ -27905,7 +27949,14 @@
       <c r="B9" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="153"/>
+      <c r="C9" s="153" cm="1">
+        <f t="array" ref="C9">_xlfn.LET(_xlpm.dslk,B9,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D9" s="153"/>
     </row>
     <row r="10" spans="1:4" ht="16.95" customHeight="1">
@@ -27915,7 +27966,14 @@
       <c r="B10" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="153"/>
+      <c r="C10" s="153" cm="1">
+        <f t="array" ref="C10">_xlfn.LET(_xlpm.dslk,B10,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>350</v>
+      </c>
       <c r="D10" s="153"/>
     </row>
     <row r="11" spans="1:4" ht="16.95" customHeight="1">
@@ -27925,7 +27983,14 @@
       <c r="B11" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="153"/>
+      <c r="C11" s="153" cm="1">
+        <f t="array" ref="C11">_xlfn.LET(_xlpm.dslk,B11,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D11" s="153"/>
     </row>
     <row r="12" spans="1:4" ht="16.95" customHeight="1">
@@ -27935,7 +28000,14 @@
       <c r="B12" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="153"/>
+      <c r="C12" s="153" cm="1">
+        <f t="array" ref="C12">_xlfn.LET(_xlpm.dslk,B12,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D12" s="153"/>
     </row>
     <row r="13" spans="1:4" ht="16.95" customHeight="1">
@@ -27945,7 +28017,14 @@
       <c r="B13" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="153"/>
+      <c r="C13" s="153" cm="1">
+        <f t="array" ref="C13">_xlfn.LET(_xlpm.dslk,B13,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D13" s="153"/>
     </row>
     <row r="14" spans="1:4" ht="16.95" customHeight="1">
@@ -27955,7 +28034,14 @@
       <c r="B14" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="153"/>
+      <c r="C14" s="153" cm="1">
+        <f t="array" ref="C14">_xlfn.LET(_xlpm.dslk,B14,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D14" s="153"/>
     </row>
     <row r="15" spans="1:4" ht="16.95" customHeight="1">
@@ -27965,7 +28051,14 @@
       <c r="B15" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="153"/>
+      <c r="C15" s="153" cm="1">
+        <f t="array" ref="C15">_xlfn.LET(_xlpm.dslk,B15,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D15" s="153"/>
     </row>
     <row r="16" spans="1:4" ht="16.95" customHeight="1">
@@ -27975,7 +28068,14 @@
       <c r="B16" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="153"/>
+      <c r="C16" s="153" cm="1">
+        <f t="array" ref="C16">_xlfn.LET(_xlpm.dslk,B16,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D16" s="153"/>
     </row>
     <row r="17" spans="1:4" ht="16.95" customHeight="1">
@@ -27985,7 +28085,14 @@
       <c r="B17" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="153"/>
+      <c r="C17" s="153" cm="1">
+        <f t="array" ref="C17">_xlfn.LET(_xlpm.dslk,B17,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D17" s="153"/>
     </row>
     <row r="18" spans="1:4" ht="16.95" customHeight="1">
@@ -27995,7 +28102,14 @@
       <c r="B18" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="153"/>
+      <c r="C18" s="153" cm="1">
+        <f t="array" ref="C18">_xlfn.LET(_xlpm.dslk,B18,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D18" s="153"/>
     </row>
     <row r="19" spans="1:4" ht="16.95" customHeight="1">
@@ -28005,7 +28119,14 @@
       <c r="B19" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="153"/>
+      <c r="C19" s="153" cm="1">
+        <f t="array" ref="C19">_xlfn.LET(_xlpm.dslk,B19,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D19" s="153"/>
     </row>
     <row r="20" spans="1:4" ht="16.95" customHeight="1">
@@ -28015,7 +28136,14 @@
       <c r="B20" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="153"/>
+      <c r="C20" s="153" cm="1">
+        <f t="array" ref="C20">_xlfn.LET(_xlpm.dslk,B20,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D20" s="153"/>
     </row>
     <row r="21" spans="1:4" ht="16.95" customHeight="1">
@@ -28025,7 +28153,14 @@
       <c r="B21" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="153"/>
+      <c r="C21" s="153" cm="1">
+        <f t="array" ref="C21">_xlfn.LET(_xlpm.dslk,B21,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D21" s="153"/>
     </row>
     <row r="22" spans="1:4" ht="16.95" customHeight="1">
@@ -28035,7 +28170,14 @@
       <c r="B22" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="153"/>
+      <c r="C22" s="153" cm="1">
+        <f t="array" ref="C22">_xlfn.LET(_xlpm.dslk,B22,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D22" s="153"/>
     </row>
     <row r="23" spans="1:4" ht="16.95" customHeight="1">
@@ -28045,7 +28187,14 @@
       <c r="B23" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="153"/>
+      <c r="C23" s="153" cm="1">
+        <f t="array" ref="C23">_xlfn.LET(_xlpm.dslk,B23,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D23" s="153"/>
     </row>
     <row r="24" spans="1:4" ht="16.95" customHeight="1">
@@ -28055,7 +28204,14 @@
       <c r="B24" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="153"/>
+      <c r="C24" s="153" cm="1">
+        <f t="array" ref="C24">_xlfn.LET(_xlpm.dslk,B24,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D24" s="153"/>
     </row>
     <row r="25" spans="1:4" ht="16.95" customHeight="1">
@@ -28065,7 +28221,14 @@
       <c r="B25" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="153"/>
+      <c r="C25" s="153" cm="1">
+        <f t="array" ref="C25">_xlfn.LET(_xlpm.dslk,B25,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D25" s="153"/>
     </row>
     <row r="26" spans="1:4" ht="16.95" customHeight="1">
@@ -28075,7 +28238,14 @@
       <c r="B26" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="153"/>
+      <c r="C26" s="153" cm="1">
+        <f t="array" ref="C26">_xlfn.LET(_xlpm.dslk,B26,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D26" s="153"/>
     </row>
     <row r="27" spans="1:4" ht="16.95" customHeight="1">
@@ -28085,7 +28255,14 @@
       <c r="B27" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="153"/>
+      <c r="C27" s="153" cm="1">
+        <f t="array" ref="C27">_xlfn.LET(_xlpm.dslk,B27,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D27" s="153"/>
     </row>
     <row r="28" spans="1:4" ht="16.95" customHeight="1">
@@ -28095,7 +28272,14 @@
       <c r="B28" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="153"/>
+      <c r="C28" s="153" cm="1">
+        <f t="array" ref="C28">_xlfn.LET(_xlpm.dslk,B28,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
       <c r="D28" s="153"/>
     </row>
     <row r="29" spans="1:4" ht="16.95" customHeight="1">
@@ -28105,6 +28289,14 @@
       <c r="B29" s="164" t="s">
         <v>34</v>
       </c>
+      <c r="C29" s="153" cm="1">
+        <f t="array" ref="C29">_xlfn.LET(_xlpm.dslk,B29,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="16.95" customHeight="1">
       <c r="A30" s="164" t="s">
@@ -28113,6 +28305,14 @@
       <c r="B30" s="164" t="s">
         <v>29</v>
       </c>
+      <c r="C30" s="153" cm="1">
+        <f t="array" ref="C30">_xlfn.LET(_xlpm.dslk,B30,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="16.95" customHeight="1">
       <c r="A31" s="164" t="s">
@@ -28121,6 +28321,14 @@
       <c r="B31" s="164" t="s">
         <v>35</v>
       </c>
+      <c r="C31" s="153" cm="1">
+        <f t="array" ref="C31">_xlfn.LET(_xlpm.dslk,B31,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="16.95" customHeight="1">
       <c r="A32" s="164" t="s">
@@ -28129,85 +28337,179 @@
       <c r="B32" s="164" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C32" s="153" cm="1">
+        <f t="array" ref="C32">_xlfn.LET(_xlpm.dslk,B32,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.95" customHeight="1">
       <c r="A33" s="164" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="164" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C33" s="153" cm="1">
+        <f t="array" ref="C33">_xlfn.LET(_xlpm.dslk,B33,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.95" customHeight="1">
       <c r="A34" s="164" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="164" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C34" s="153" cm="1">
+        <f t="array" ref="C34">_xlfn.LET(_xlpm.dslk,B34,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.95" customHeight="1">
       <c r="A35" s="164" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="164" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C35" s="153" cm="1">
+        <f t="array" ref="C35">_xlfn.LET(_xlpm.dslk,B35,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.95" customHeight="1">
       <c r="A36" s="164" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="164" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C36" s="153" cm="1">
+        <f t="array" ref="C36">_xlfn.LET(_xlpm.dslk,B36,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.95" customHeight="1">
       <c r="A37" s="164" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="164" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C37" s="153" cm="1">
+        <f t="array" ref="C37">_xlfn.LET(_xlpm.dslk,B37,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.95" customHeight="1">
       <c r="A38" s="164" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="164" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C38" s="153" cm="1">
+        <f t="array" ref="C38">_xlfn.LET(_xlpm.dslk,B38,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.95" customHeight="1">
       <c r="A39" s="164" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="164" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C39" s="153" cm="1">
+        <f t="array" ref="C39">_xlfn.LET(_xlpm.dslk,B39,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.95" customHeight="1">
       <c r="A40" s="164" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="164" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C40" s="153" cm="1">
+        <f t="array" ref="C40">_xlfn.LET(_xlpm.dslk,B40,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.95" customHeight="1">
       <c r="A41" s="164" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="164" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.95" customHeight="1">
+      <c r="C41" s="153" cm="1">
+        <f t="array" ref="C41">_xlfn.LET(_xlpm.dslk,B41,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.95" customHeight="1">
       <c r="A42" s="165" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="165" t="s">
         <v>33</v>
+      </c>
+      <c r="C42" s="153" cm="1">
+        <f t="array" ref="C42">_xlfn.LET(_xlpm.dslk,B42,
+     _xlpm.psb, _xlfn._xlws.FILTER(Sweets!$A$3:$A$13,Sweets!$A$3:$A$13&lt;&gt;_xlpm.dslk),
+     _xlpm.cst, _xlfn.XLOOKUP(_xlpm.psb,Sweets!$A$3:$A$13,Sweets!$B$3:$B$13),
+     MIN(_xlpm.cst)
+)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.95" customHeight="1">
+      <c r="C43" s="161">
+        <f>SUM(C3:C42)</f>
+        <v>12150</v>
       </c>
     </row>
   </sheetData>
@@ -32392,8 +32694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB505C8-B5A5-43E7-BDB1-CEB8314A9C64}">
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -32412,20 +32714,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="59.25" customHeight="1">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="192"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="186"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1"/>
     <row r="4" spans="2:16" ht="33" customHeight="1">
@@ -32468,52 +32770,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
     </row>
     <row r="9" spans="2:16" ht="162" customHeight="1">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
     </row>
     <row r="10" spans="2:16" ht="245.4" customHeight="1">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="193" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -32593,15 +32895,15 @@
         <v>86</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="197" t="s">
+      <c r="G16" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="199"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="196"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="16" t="s">
@@ -32620,15 +32922,15 @@
         <f>IF(ISBLANK(Case!E17),0,IF(E17=Case!E17,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G17" s="200" t="s">
+      <c r="G17" s="197" t="s">
         <v>732</v>
       </c>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -32672,7 +32974,7 @@
       </c>
       <c r="F19" s="20">
         <f>IF(ISBLANK(Case!E19),0,IF(E19=Case!E19,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="183" t="s">
         <v>93</v>
@@ -32728,15 +33030,15 @@
         <f>IF(ISBLANK(Case!E21),0,IF(E21=Case!E21,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="184" t="s">
+      <c r="G21" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="185"/>
-      <c r="M21" s="186"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="200"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="8"/>
@@ -32793,7 +33095,7 @@
       <c r="F26" s="20"/>
       <c r="L26" s="203">
         <f>SUMPRODUCT(--(F:F=1),D:D)</f>
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="M26" s="204"/>
     </row>
@@ -39595,13 +39897,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B148:M148"/>
-    <mergeCell ref="B233:M233"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -39614,6 +39909,13 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B148:M148"/>
+    <mergeCell ref="B233:M233"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
